--- a/NRI_STLF_Data/LoadData/L_Manategh94.xlsx
+++ b/NRI_STLF_Data/LoadData/L_Manategh94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\karami\LoadForecasting\STLF\NRI_STLF_Data\LoadData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -108,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -143,7 +148,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,7 +360,7 @@
   <dimension ref="A1:AE365"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="E376" sqref="E376"/>
+      <selection sqref="A1:AC365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -377,37 +382,37 @@
         <v>2</v>
       </c>
       <c r="F1">
-        <v>20775.434531999999</v>
+        <v>20770.534531999998</v>
       </c>
       <c r="G1">
-        <v>19777.675380000001</v>
+        <v>19773.97538</v>
       </c>
       <c r="H1">
-        <v>18838.856739999999</v>
+        <v>18813.756740000001</v>
       </c>
       <c r="I1">
-        <v>17209.259935999999</v>
+        <v>16961.659936</v>
       </c>
       <c r="J1">
-        <v>16417.885013999996</v>
+        <v>16137.285013999995</v>
       </c>
       <c r="K1">
-        <v>16303.025916000002</v>
+        <v>15813.625916000003</v>
       </c>
       <c r="L1">
-        <v>15593.404788</v>
+        <v>15105.604788000001</v>
       </c>
       <c r="M1">
-        <v>15640.885328</v>
+        <v>15263.985328000001</v>
       </c>
       <c r="N1">
         <v>16034.919027999998</v>
       </c>
       <c r="O1">
-        <v>16735.351171999999</v>
+        <v>16734.351171999999</v>
       </c>
       <c r="P1">
-        <v>17158.614612000001</v>
+        <v>17157.514612000003</v>
       </c>
       <c r="Q1">
         <v>17275.492416000001</v>
@@ -419,16 +424,16 @@
         <v>16981.863266</v>
       </c>
       <c r="T1">
-        <v>16764.400055000002</v>
+        <v>16763.300055000003</v>
       </c>
       <c r="U1">
-        <v>16568.666427</v>
+        <v>16567.466426999999</v>
       </c>
       <c r="V1">
         <v>16639.711453999997</v>
       </c>
       <c r="W1">
-        <v>17244.260020000002</v>
+        <v>17235.36002</v>
       </c>
       <c r="X1">
         <v>19775.139027999998</v>
@@ -478,31 +483,31 @@
         <v>16774.400000000001</v>
       </c>
       <c r="H2">
-        <v>16746.457713999996</v>
+        <v>16644.757713999996</v>
       </c>
       <c r="I2">
-        <v>16210.76621</v>
+        <v>15964.36621</v>
       </c>
       <c r="J2">
-        <v>15969.882388</v>
+        <v>15725.582388000001</v>
       </c>
       <c r="K2">
-        <v>15928.830667999997</v>
+        <v>15684.630667999996</v>
       </c>
       <c r="L2">
-        <v>15844.787540000001</v>
+        <v>15534.887540000002</v>
       </c>
       <c r="M2">
-        <v>15444.793424000003</v>
+        <v>14960.293424000003</v>
       </c>
       <c r="N2">
-        <v>15488.704112000001</v>
+        <v>15269.004112000001</v>
       </c>
       <c r="O2">
         <v>16074.581769999997</v>
       </c>
       <c r="P2">
-        <v>17242.964074</v>
+        <v>17240.964074</v>
       </c>
       <c r="Q2">
         <v>17724.466912000004</v>
@@ -514,13 +519,13 @@
         <v>17820.3</v>
       </c>
       <c r="T2">
-        <v>17636.3</v>
+        <v>17623.899999999998</v>
       </c>
       <c r="U2">
-        <v>17494.104487999997</v>
+        <v>17482.304487999998</v>
       </c>
       <c r="V2">
-        <v>17296.998448000002</v>
+        <v>17290.198448000003</v>
       </c>
       <c r="W2">
         <v>17588</v>
@@ -567,31 +572,31 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>19521.863796000001</v>
+        <v>19516.763796000003</v>
       </c>
       <c r="G3">
-        <v>18190.900000000001</v>
+        <v>18184.7</v>
       </c>
       <c r="H3">
-        <v>17291.775502000004</v>
+        <v>17052.875502000003</v>
       </c>
       <c r="I3">
-        <v>16402.435776999999</v>
+        <v>16156.135777</v>
       </c>
       <c r="J3">
-        <v>16052.553344</v>
+        <v>15808.053344</v>
       </c>
       <c r="K3">
-        <v>15991.134570000004</v>
+        <v>15746.734570000004</v>
       </c>
       <c r="L3">
-        <v>15728.977179000001</v>
+        <v>15485.577179000002</v>
       </c>
       <c r="M3">
-        <v>15323.212862</v>
+        <v>15080.012862</v>
       </c>
       <c r="N3">
-        <v>15379.164709999997</v>
+        <v>15176.964709999997</v>
       </c>
       <c r="O3">
         <v>16089.197197</v>
@@ -615,7 +620,7 @@
         <v>17015.583280000003</v>
       </c>
       <c r="V3">
-        <v>17010.179392000002</v>
+        <v>17008.379392000003</v>
       </c>
       <c r="W3">
         <v>17218.676380000001</v>
@@ -662,37 +667,37 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>18901.7</v>
+        <v>18897.600000000002</v>
       </c>
       <c r="G4">
-        <v>17636.572981000001</v>
+        <v>17449.072981000001</v>
       </c>
       <c r="H4">
-        <v>16599</v>
+        <v>16351</v>
       </c>
       <c r="I4">
-        <v>16004.399999999998</v>
+        <v>15757.099999999999</v>
       </c>
       <c r="J4">
-        <v>15733.074282</v>
+        <v>15486.274282</v>
       </c>
       <c r="K4">
-        <v>15729.618796000001</v>
+        <v>15484.318796000001</v>
       </c>
       <c r="L4">
-        <v>15671.739216000002</v>
+        <v>15426.639216000001</v>
       </c>
       <c r="M4">
-        <v>15118.599999999999</v>
+        <v>14874.199999999999</v>
       </c>
       <c r="N4">
-        <v>15564.145575000002</v>
+        <v>15320.645575000002</v>
       </c>
       <c r="O4">
-        <v>16465.812592000002</v>
+        <v>16221.812592000002</v>
       </c>
       <c r="P4">
-        <v>17324.213135999998</v>
+        <v>17162.913135999999</v>
       </c>
       <c r="Q4">
         <v>17795.687516000002</v>
@@ -704,7 +709,7 @@
         <v>17654.426312</v>
       </c>
       <c r="T4">
-        <v>17432.601376999999</v>
+        <v>17430.501377000001</v>
       </c>
       <c r="U4">
         <v>17230.900000000001</v>
@@ -713,7 +718,7 @@
         <v>17133.699999999997</v>
       </c>
       <c r="W4">
-        <v>17423.900000000001</v>
+        <v>17422.600000000002</v>
       </c>
       <c r="X4">
         <v>18106.238020000001</v>
@@ -757,34 +762,34 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>19173</v>
+        <v>19169</v>
       </c>
       <c r="G5">
-        <v>17824.2</v>
+        <v>17722.100000000002</v>
       </c>
       <c r="H5">
-        <v>16882.186718000001</v>
+        <v>16637.386718000002</v>
       </c>
       <c r="I5">
-        <v>16250.675790000003</v>
+        <v>16006.175790000003</v>
       </c>
       <c r="J5">
-        <v>15984.532654000001</v>
+        <v>15740.732654000001</v>
       </c>
       <c r="K5">
-        <v>15976.380123000001</v>
+        <v>15734.080123000002</v>
       </c>
       <c r="L5">
-        <v>16031.786828</v>
+        <v>15789.786828</v>
       </c>
       <c r="M5">
-        <v>15649.8</v>
+        <v>15593</v>
       </c>
       <c r="N5">
         <v>16395.713907000001</v>
       </c>
       <c r="O5">
-        <v>17573.551651999998</v>
+        <v>17570.551651999998</v>
       </c>
       <c r="P5">
         <v>18646.474096000002</v>
@@ -802,7 +807,7 @@
         <v>18789.978603999996</v>
       </c>
       <c r="U5">
-        <v>18440.496483999999</v>
+        <v>18437.796483999999</v>
       </c>
       <c r="V5">
         <v>18430.966518000001</v>
@@ -852,34 +857,34 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>19307.602490999994</v>
+        <v>19302.002490999996</v>
       </c>
       <c r="G6">
-        <v>18427.177912999996</v>
+        <v>18261.777912999994</v>
       </c>
       <c r="H6">
-        <v>17418.15351</v>
+        <v>17170.453509999999</v>
       </c>
       <c r="I6">
-        <v>16827.500884999998</v>
+        <v>16581.900884999999</v>
       </c>
       <c r="J6">
-        <v>16545.7</v>
+        <v>16300.900000000001</v>
       </c>
       <c r="K6">
-        <v>16462.205558000001</v>
+        <v>16218.905558000002</v>
       </c>
       <c r="L6">
-        <v>16626.746764</v>
+        <v>16382.646763999999</v>
       </c>
       <c r="M6">
-        <v>16515.107376</v>
+        <v>16272.607376</v>
       </c>
       <c r="N6">
-        <v>16970.810077000002</v>
+        <v>16873.610077000001</v>
       </c>
       <c r="O6">
-        <v>18031.378904000005</v>
+        <v>18028.178904000004</v>
       </c>
       <c r="P6">
         <v>19070.533901000003</v>
@@ -897,13 +902,13 @@
         <v>19148.842673000003</v>
       </c>
       <c r="U6">
-        <v>18924.084266999998</v>
+        <v>18920.384266999998</v>
       </c>
       <c r="V6">
-        <v>18877.313759999997</v>
+        <v>18869.813759999997</v>
       </c>
       <c r="W6">
-        <v>19105.774812</v>
+        <v>19103.874811999998</v>
       </c>
       <c r="X6">
         <v>19681.584741999995</v>
@@ -947,28 +952,28 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>19903.911413999998</v>
+        <v>19898.811414</v>
       </c>
       <c r="G7">
-        <v>18632.558719999997</v>
+        <v>18506.058719999997</v>
       </c>
       <c r="H7">
-        <v>17619.593817999998</v>
+        <v>17370.193817999996</v>
       </c>
       <c r="I7">
-        <v>17010.946147999999</v>
+        <v>16760.846148000001</v>
       </c>
       <c r="J7">
-        <v>16843.497374000002</v>
+        <v>16435.197374000003</v>
       </c>
       <c r="K7">
-        <v>16901.331525000001</v>
+        <v>16413.131525000001</v>
       </c>
       <c r="L7">
-        <v>16738.133039999997</v>
+        <v>16254.133039999997</v>
       </c>
       <c r="M7">
-        <v>16146.789765000001</v>
+        <v>15699.189765000001</v>
       </c>
       <c r="N7">
         <v>16164.036490000002</v>
@@ -977,10 +982,10 @@
         <v>16962.3</v>
       </c>
       <c r="P7">
-        <v>17901.812990000002</v>
+        <v>17821.612990000001</v>
       </c>
       <c r="Q7">
-        <v>18421.546038</v>
+        <v>18419.846038</v>
       </c>
       <c r="R7">
         <v>18611.942427000002</v>
@@ -992,7 +997,7 @@
         <v>18135.648126</v>
       </c>
       <c r="U7">
-        <v>17816.329819999999</v>
+        <v>17815.02982</v>
       </c>
       <c r="V7">
         <v>17792.660446000002</v>
@@ -1045,25 +1050,25 @@
         <v>19499.268304000001</v>
       </c>
       <c r="G8">
-        <v>18445.537444000001</v>
+        <v>18220.537444000001</v>
       </c>
       <c r="H8">
-        <v>17380</v>
+        <v>17131.7</v>
       </c>
       <c r="I8">
-        <v>16820.743673999998</v>
+        <v>16573.343673999996</v>
       </c>
       <c r="J8">
-        <v>16269.800000000001</v>
+        <v>16022.800000000001</v>
       </c>
       <c r="K8">
-        <v>16575.578979999998</v>
+        <v>16329.878979999998</v>
       </c>
       <c r="L8">
-        <v>16611.293887</v>
+        <v>16365.993887000001</v>
       </c>
       <c r="M8">
-        <v>16571.337794999996</v>
+        <v>16334.637794999995</v>
       </c>
       <c r="N8">
         <v>17462.009435000004</v>
@@ -1137,34 +1142,34 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>20388.583860999999</v>
+        <v>20384.383860999998</v>
       </c>
       <c r="G9">
-        <v>18999.644886000002</v>
+        <v>18965.344886000003</v>
       </c>
       <c r="H9">
-        <v>18228.2</v>
+        <v>17947.8</v>
       </c>
       <c r="I9">
-        <v>17856.8</v>
+        <v>17361.7</v>
       </c>
       <c r="J9">
-        <v>17543.599999999995</v>
+        <v>17051.199999999993</v>
       </c>
       <c r="K9">
-        <v>17593.767552999998</v>
+        <v>17104.467552999999</v>
       </c>
       <c r="L9">
-        <v>17539.581010000002</v>
+        <v>17051.18101</v>
       </c>
       <c r="M9">
-        <v>17507.299507999996</v>
+        <v>17025.199507999998</v>
       </c>
       <c r="N9">
-        <v>18346.510946999999</v>
+        <v>18077.110946999997</v>
       </c>
       <c r="O9">
-        <v>19280.607269</v>
+        <v>19278.407268999999</v>
       </c>
       <c r="P9">
         <v>20371.063952999993</v>
@@ -1235,31 +1240,31 @@
         <v>20626.227353000006</v>
       </c>
       <c r="G10">
-        <v>19392.198437999999</v>
+        <v>19213.698437999999</v>
       </c>
       <c r="H10">
-        <v>18375.863859999998</v>
+        <v>18128.763859999999</v>
       </c>
       <c r="I10">
-        <v>17749.004696</v>
+        <v>17502.704696000001</v>
       </c>
       <c r="J10">
-        <v>17429.089086</v>
+        <v>17182.989086000001</v>
       </c>
       <c r="K10">
-        <v>17424.397512</v>
+        <v>17179.297512000001</v>
       </c>
       <c r="L10">
-        <v>17400.300000000003</v>
+        <v>17156.000000000004</v>
       </c>
       <c r="M10">
-        <v>17413.119248999999</v>
+        <v>17169.219248999998</v>
       </c>
       <c r="N10">
-        <v>18438.002925000001</v>
+        <v>18195.102924999999</v>
       </c>
       <c r="O10">
-        <v>19431.597040000001</v>
+        <v>19395.497040000002</v>
       </c>
       <c r="P10">
         <v>20576.676324</v>
@@ -1277,7 +1282,7 @@
         <v>20782.670148000001</v>
       </c>
       <c r="U10">
-        <v>20314.699999999997</v>
+        <v>20312.899999999998</v>
       </c>
       <c r="V10">
         <v>20152.558873000002</v>
@@ -1357,7 +1362,7 @@
         <v>19268.585950000001</v>
       </c>
       <c r="P11">
-        <v>20325.519552000002</v>
+        <v>20323.619552</v>
       </c>
       <c r="Q11">
         <v>20924.599999999999</v>
@@ -1446,7 +1451,7 @@
         <v>16427.340838999997</v>
       </c>
       <c r="N12">
-        <v>17109.3</v>
+        <v>17107.599999999999</v>
       </c>
       <c r="O12">
         <v>18176.849502999998</v>
@@ -1642,7 +1647,7 @@
         <v>17452.914829999998</v>
       </c>
       <c r="P14">
-        <v>18568.700087000001</v>
+        <v>18567.300087</v>
       </c>
       <c r="Q14">
         <v>19444.699999999997</v>
@@ -1734,10 +1739,10 @@
         <v>20266.165560000001</v>
       </c>
       <c r="O15">
-        <v>21724.799999999999</v>
+        <v>21723.3</v>
       </c>
       <c r="P15">
-        <v>22752.399999999994</v>
+        <v>22751.299999999996</v>
       </c>
       <c r="Q15">
         <v>23824.399999999998</v>
@@ -1826,7 +1831,7 @@
         <v>19742.321705000002</v>
       </c>
       <c r="N16">
-        <v>21428.689051000001</v>
+        <v>21427.189051000001</v>
       </c>
       <c r="O16">
         <v>22664.300000000003</v>
@@ -1927,7 +1932,7 @@
         <v>23144.377212000003</v>
       </c>
       <c r="P17">
-        <v>24250.032725000001</v>
+        <v>24248.132724999999</v>
       </c>
       <c r="Q17">
         <v>24985.53167</v>
@@ -1998,22 +2003,22 @@
         <v>21771.024839000002</v>
       </c>
       <c r="H18">
-        <v>20994.050044</v>
+        <v>20823.050044</v>
       </c>
       <c r="I18">
-        <v>20571.457692999997</v>
+        <v>20324.457692999997</v>
       </c>
       <c r="J18">
-        <v>20186.736146999996</v>
+        <v>19939.736146999996</v>
       </c>
       <c r="K18">
-        <v>20174.699999999997</v>
+        <v>19929.099999999999</v>
       </c>
       <c r="L18">
-        <v>20033.1126</v>
+        <v>19787.212599999999</v>
       </c>
       <c r="M18">
-        <v>20597.100000000002</v>
+        <v>20450.7</v>
       </c>
       <c r="N18">
         <v>22190.503121999995</v>
@@ -2040,7 +2045,7 @@
         <v>24873.855946</v>
       </c>
       <c r="V18">
-        <v>24628.1</v>
+        <v>24624.899999999998</v>
       </c>
       <c r="W18">
         <v>24348.799999999999</v>
@@ -2096,19 +2101,19 @@
         <v>21129.971719000001</v>
       </c>
       <c r="I19">
-        <v>20647.628858</v>
+        <v>20555.428857999999</v>
       </c>
       <c r="J19">
-        <v>20521.8</v>
+        <v>20278.899999999998</v>
       </c>
       <c r="K19">
-        <v>20542.432605999998</v>
+        <v>20300.732605999998</v>
       </c>
       <c r="L19">
-        <v>20588.090405999999</v>
+        <v>20346.990406000001</v>
       </c>
       <c r="M19">
-        <v>20950.432627999999</v>
+        <v>20882.132627999999</v>
       </c>
       <c r="N19">
         <v>22735</v>
@@ -2521,10 +2526,10 @@
         <v>26003.541743999998</v>
       </c>
       <c r="X23">
-        <v>25968.931875999999</v>
+        <v>25742.931875999999</v>
       </c>
       <c r="Y23">
-        <v>27272.603836000006</v>
+        <v>27080.703836000004</v>
       </c>
       <c r="Z23">
         <v>28953.995156000001</v>
@@ -2574,13 +2579,13 @@
         <v>21575.562759999997</v>
       </c>
       <c r="J24">
-        <v>21356.349252</v>
+        <v>21295.349252</v>
       </c>
       <c r="K24">
-        <v>21427.084808</v>
+        <v>21183.084808</v>
       </c>
       <c r="L24">
-        <v>21072.724343000005</v>
+        <v>20991.724343000005</v>
       </c>
       <c r="M24">
         <v>21472.576464999995</v>
@@ -4560,37 +4565,37 @@
         <v>28083.300263999998</v>
       </c>
       <c r="G45">
-        <v>26701.06928</v>
+        <v>26523.369279999999</v>
       </c>
       <c r="H45">
-        <v>25695.4</v>
+        <v>25449.7</v>
       </c>
       <c r="I45">
-        <v>25090.182854999999</v>
+        <v>24844.782854999998</v>
       </c>
       <c r="J45">
-        <v>24748.064240000003</v>
+        <v>24503.964240000005</v>
       </c>
       <c r="K45">
-        <v>24278.106060999999</v>
+        <v>24034.306060999999</v>
       </c>
       <c r="L45">
-        <v>23460.576329999996</v>
+        <v>23217.476329999998</v>
       </c>
       <c r="M45">
-        <v>24374.626927000001</v>
+        <v>24133.026927000003</v>
       </c>
       <c r="N45">
-        <v>26619.152869000001</v>
+        <v>26378.152869000001</v>
       </c>
       <c r="O45">
-        <v>28144.800000000003</v>
+        <v>27905.100000000002</v>
       </c>
       <c r="P45">
-        <v>29255.772758000006</v>
+        <v>29017.272758000006</v>
       </c>
       <c r="Q45">
-        <v>30082.200000000004</v>
+        <v>30022.900000000005</v>
       </c>
       <c r="R45">
         <v>30679.816983999997</v>
@@ -4658,28 +4663,28 @@
         <v>26568.843977000004</v>
       </c>
       <c r="H46">
-        <v>25615.372884999997</v>
+        <v>25528.372884999997</v>
       </c>
       <c r="I46">
-        <v>25234.427248</v>
+        <v>24991.527247999999</v>
       </c>
       <c r="J46">
-        <v>24793.150498000003</v>
+        <v>24550.350498000003</v>
       </c>
       <c r="K46">
-        <v>24421.326906999999</v>
+        <v>24179.226907</v>
       </c>
       <c r="L46">
-        <v>23617.508272999999</v>
+        <v>23375.608272999998</v>
       </c>
       <c r="M46">
-        <v>24655.963148000003</v>
+        <v>24416.163148000003</v>
       </c>
       <c r="N46">
-        <v>26782.656432</v>
+        <v>26543.056432000001</v>
       </c>
       <c r="O46">
-        <v>28163.395015999999</v>
+        <v>28071.695015999998</v>
       </c>
       <c r="P46">
         <v>29111.880461999997</v>
@@ -4694,7 +4699,7 @@
         <v>30965.509147999997</v>
       </c>
       <c r="T46">
-        <v>31195.583543000001</v>
+        <v>31188.283543000001</v>
       </c>
       <c r="U46">
         <v>31130.100000000002</v>
@@ -4706,7 +4711,7 @@
         <v>29661.526316999996</v>
       </c>
       <c r="X46">
-        <v>28516.855920000002</v>
+        <v>28515.855920000002</v>
       </c>
       <c r="Y46">
         <v>28938.1</v>
@@ -4792,13 +4797,13 @@
         <v>31292.908701999997</v>
       </c>
       <c r="U47">
-        <v>30960.187740000001</v>
+        <v>30954.387740000002</v>
       </c>
       <c r="V47">
         <v>30356.728554000008</v>
       </c>
       <c r="W47">
-        <v>29359.185968000005</v>
+        <v>29355.185968000005</v>
       </c>
       <c r="X47">
         <v>28382.802280000004</v>
@@ -4884,7 +4889,7 @@
         <v>29506.128072000003</v>
       </c>
       <c r="T48">
-        <v>28682.477001999996</v>
+        <v>28680.577001999995</v>
       </c>
       <c r="U48">
         <v>27850.506720000001</v>
@@ -5032,22 +5037,22 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>26930.947855999999</v>
+        <v>26928.647856</v>
       </c>
       <c r="G50">
-        <v>25652.654090000004</v>
+        <v>25596.854090000004</v>
       </c>
       <c r="H50">
-        <v>24956.7</v>
+        <v>24716.9</v>
       </c>
       <c r="I50">
-        <v>24287.200000000001</v>
+        <v>24048.2</v>
       </c>
       <c r="J50">
-        <v>23976.499999999996</v>
+        <v>23737.599999999995</v>
       </c>
       <c r="K50">
-        <v>23355.643678</v>
+        <v>23336.443678</v>
       </c>
       <c r="L50">
         <v>22789.737960000002</v>
@@ -5142,13 +5147,13 @@
         <v>24660.075949000005</v>
       </c>
       <c r="K51">
-        <v>24398.803763999997</v>
+        <v>24171.703763999998</v>
       </c>
       <c r="L51">
-        <v>23669.575355999998</v>
+        <v>23432.075355999998</v>
       </c>
       <c r="M51">
-        <v>24511.312402000003</v>
+        <v>24381.212402000005</v>
       </c>
       <c r="N51">
         <v>26468.227532000004</v>
@@ -5222,25 +5227,25 @@
         <v>1</v>
       </c>
       <c r="F52">
-        <v>27786.700000000004</v>
+        <v>27770.800000000003</v>
       </c>
       <c r="G52">
-        <v>26585.100000000002</v>
+        <v>26266.400000000001</v>
       </c>
       <c r="H52">
-        <v>25789.899999999998</v>
+        <v>25304.6</v>
       </c>
       <c r="I52">
-        <v>25173.8</v>
+        <v>24690</v>
       </c>
       <c r="J52">
-        <v>24835.699999999997</v>
+        <v>24357.899999999998</v>
       </c>
       <c r="K52">
-        <v>24375.3</v>
+        <v>23953.8</v>
       </c>
       <c r="L52">
-        <v>23349.141262000005</v>
+        <v>23262.941262000004</v>
       </c>
       <c r="M52">
         <v>24469.099999999991</v>
@@ -5320,25 +5325,25 @@
         <v>28389.358052000003</v>
       </c>
       <c r="G53">
-        <v>26970.5</v>
+        <v>26793.3</v>
       </c>
       <c r="H53">
-        <v>26117.423082000005</v>
+        <v>25690.123082000006</v>
       </c>
       <c r="I53">
-        <v>25594.086917999997</v>
+        <v>25107.086917999997</v>
       </c>
       <c r="J53">
-        <v>25227.603032000003</v>
+        <v>24744.803032000003</v>
       </c>
       <c r="K53">
-        <v>24745.524611999997</v>
+        <v>24264.124611999996</v>
       </c>
       <c r="L53">
-        <v>23935.045249000003</v>
+        <v>23455.645249000001</v>
       </c>
       <c r="M53">
-        <v>24828.560138000001</v>
+        <v>24598.260138000001</v>
       </c>
       <c r="N53">
         <v>26880.137291999996</v>
@@ -5412,28 +5417,28 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>29128.178303999997</v>
+        <v>29125.278303999996</v>
       </c>
       <c r="G54">
-        <v>27743.862813</v>
+        <v>27521.662812999999</v>
       </c>
       <c r="H54">
-        <v>26960.145408000004</v>
+        <v>26545.245408000002</v>
       </c>
       <c r="I54">
-        <v>26403.263408000003</v>
+        <v>25916.663408000004</v>
       </c>
       <c r="J54">
-        <v>25954.041645999998</v>
+        <v>25470.041645999998</v>
       </c>
       <c r="K54">
-        <v>25432.670395000001</v>
+        <v>24952.770395</v>
       </c>
       <c r="L54">
-        <v>24693.247153999997</v>
+        <v>24274.747153999997</v>
       </c>
       <c r="M54">
-        <v>25571.866102</v>
+        <v>25470.466101999999</v>
       </c>
       <c r="N54">
         <v>27742.008243999997</v>
@@ -5510,25 +5515,25 @@
         <v>29917.973739000001</v>
       </c>
       <c r="G55">
-        <v>28350.374556000002</v>
+        <v>28259.674556000002</v>
       </c>
       <c r="H55">
-        <v>27324.408181999999</v>
+        <v>27081.308182000001</v>
       </c>
       <c r="I55">
-        <v>26554.859028999996</v>
+        <v>26311.859028999996</v>
       </c>
       <c r="J55">
-        <v>26307.995241999997</v>
+        <v>26066.695241999998</v>
       </c>
       <c r="K55">
-        <v>25804.357784</v>
+        <v>25428.757784000001</v>
       </c>
       <c r="L55">
-        <v>24942.700000000004</v>
+        <v>24462.500000000004</v>
       </c>
       <c r="M55">
-        <v>25796.030555000001</v>
+        <v>25470.530555000001</v>
       </c>
       <c r="N55">
         <v>27559.268853999998</v>
@@ -5611,22 +5616,22 @@
         <v>26845.699999999997</v>
       </c>
       <c r="I56">
-        <v>26123.794998000001</v>
+        <v>26110.694998000003</v>
       </c>
       <c r="J56">
-        <v>25860.094264000003</v>
+        <v>25459.894264000002</v>
       </c>
       <c r="K56">
-        <v>25409.300000000003</v>
+        <v>24923.600000000002</v>
       </c>
       <c r="L56">
-        <v>24014.077755000002</v>
+        <v>23527.677755000001</v>
       </c>
       <c r="M56">
-        <v>23771.617458999997</v>
+        <v>23459.817458999998</v>
       </c>
       <c r="N56">
-        <v>24198.594986000004</v>
+        <v>24062.894986000003</v>
       </c>
       <c r="O56">
         <v>25085.296077999996</v>
@@ -5700,22 +5705,22 @@
         <v>28284.003645999997</v>
       </c>
       <c r="G57">
-        <v>27356.734512000003</v>
+        <v>27287.434512000003</v>
       </c>
       <c r="H57">
-        <v>26205.256159</v>
+        <v>25876.456159000001</v>
       </c>
       <c r="I57">
-        <v>25726.989075999998</v>
+        <v>25237.789075999997</v>
       </c>
       <c r="J57">
-        <v>25256.609315999998</v>
+        <v>24770.909315999997</v>
       </c>
       <c r="K57">
-        <v>24458.541156000003</v>
+        <v>23975.341156000002</v>
       </c>
       <c r="L57">
-        <v>23069.860694999999</v>
+        <v>22787.060695</v>
       </c>
       <c r="M57">
         <v>23133.399999999994</v>
@@ -5795,34 +5800,34 @@
         <v>28399.7</v>
       </c>
       <c r="G58">
-        <v>26967.057170999997</v>
+        <v>26802.557170999997</v>
       </c>
       <c r="H58">
-        <v>26014.990628000003</v>
+        <v>25767.690628000004</v>
       </c>
       <c r="I58">
-        <v>25392.369335000003</v>
+        <v>25144.169335000002</v>
       </c>
       <c r="J58">
-        <v>25062.399999999994</v>
+        <v>24816.399999999994</v>
       </c>
       <c r="K58">
-        <v>24555.580701999999</v>
+        <v>24312.180701999998</v>
       </c>
       <c r="L58">
-        <v>23928.424162000003</v>
+        <v>23685.124162000004</v>
       </c>
       <c r="M58">
-        <v>25317.87184</v>
+        <v>25075.971839999998</v>
       </c>
       <c r="N58">
-        <v>27671.399999999994</v>
+        <v>27430.899999999994</v>
       </c>
       <c r="O58">
-        <v>29379.315307999997</v>
+        <v>29140.115307999997</v>
       </c>
       <c r="P58">
-        <v>30353.3</v>
+        <v>30294.3</v>
       </c>
       <c r="Q58">
         <v>31541.500000000004</v>
@@ -5890,25 +5895,25 @@
         <v>29406.992504000002</v>
       </c>
       <c r="G59">
-        <v>27925.060915000002</v>
+        <v>27752.260915000003</v>
       </c>
       <c r="H59">
-        <v>27232.429467000005</v>
+        <v>26742.229467000005</v>
       </c>
       <c r="I59">
-        <v>26540.650241999996</v>
+        <v>26054.350241999997</v>
       </c>
       <c r="J59">
-        <v>26001.924168000001</v>
+        <v>25516.024168</v>
       </c>
       <c r="K59">
-        <v>25494.526195000002</v>
+        <v>25010.926195000004</v>
       </c>
       <c r="L59">
-        <v>24632.834058</v>
+        <v>24153.334058</v>
       </c>
       <c r="M59">
-        <v>25511.299999999996</v>
+        <v>25455.999999999996</v>
       </c>
       <c r="N59">
         <v>27799.400000000005</v>
@@ -5985,28 +5990,28 @@
         <v>29976.304248</v>
       </c>
       <c r="G60">
-        <v>28386.782108000003</v>
+        <v>28381.582108000002</v>
       </c>
       <c r="H60">
-        <v>27502.350063999998</v>
+        <v>27255.850063999998</v>
       </c>
       <c r="I60">
-        <v>26903.980845999999</v>
+        <v>26469.580845999997</v>
       </c>
       <c r="J60">
-        <v>26659.426479999995</v>
+        <v>26172.826479999996</v>
       </c>
       <c r="K60">
-        <v>25997.181889999993</v>
+        <v>25510.781889999991</v>
       </c>
       <c r="L60">
-        <v>25076.982844999999</v>
+        <v>24596.782844999998</v>
       </c>
       <c r="M60">
-        <v>26166.721695999997</v>
+        <v>25904.721695999997</v>
       </c>
       <c r="N60">
-        <v>28313.241955000005</v>
+        <v>28309.341955000004</v>
       </c>
       <c r="O60">
         <v>30029.205172000002</v>
@@ -6077,28 +6082,28 @@
         <v>1</v>
       </c>
       <c r="F61">
-        <v>30628.482649999998</v>
+        <v>30573.682649999999</v>
       </c>
       <c r="G61">
-        <v>29089.136500000001</v>
+        <v>28829.4365</v>
       </c>
       <c r="H61">
-        <v>28278</v>
+        <v>27789</v>
       </c>
       <c r="I61">
-        <v>27497.689194999999</v>
+        <v>27008.989194999998</v>
       </c>
       <c r="J61">
-        <v>26887.763159999999</v>
+        <v>26404.263159999999</v>
       </c>
       <c r="K61">
-        <v>26334.702638000002</v>
+        <v>25853.302638000001</v>
       </c>
       <c r="L61">
-        <v>25496.957610000005</v>
+        <v>25057.257610000004</v>
       </c>
       <c r="M61">
-        <v>26385.289588000003</v>
+        <v>26357.589588000003</v>
       </c>
       <c r="N61">
         <v>28652.996924999999</v>
@@ -6175,25 +6180,25 @@
         <v>30738.2</v>
       </c>
       <c r="G62">
-        <v>29223.648349999999</v>
+        <v>29144.548350000001</v>
       </c>
       <c r="H62">
-        <v>28236.312327000007</v>
+        <v>27974.312327000007</v>
       </c>
       <c r="I62">
-        <v>27724.3</v>
+        <v>27236</v>
       </c>
       <c r="J62">
-        <v>27213.808068999999</v>
+        <v>26730.108068999998</v>
       </c>
       <c r="K62">
-        <v>26450.231387</v>
+        <v>25969.231387</v>
       </c>
       <c r="L62">
-        <v>25401.912582999998</v>
+        <v>24923.512582999996</v>
       </c>
       <c r="M62">
-        <v>26368.2</v>
+        <v>26055.100000000002</v>
       </c>
       <c r="N62">
         <v>28269.863804999997</v>
@@ -6270,25 +6275,25 @@
         <v>30201.995324</v>
       </c>
       <c r="G63">
-        <v>28824.843191999997</v>
+        <v>28786.243191999998</v>
       </c>
       <c r="H63">
-        <v>28067.606511999998</v>
+        <v>27651.006512</v>
       </c>
       <c r="I63">
-        <v>27362.911537000004</v>
+        <v>26869.911537000004</v>
       </c>
       <c r="J63">
-        <v>26857.478084000002</v>
+        <v>26369.378084000004</v>
       </c>
       <c r="K63">
-        <v>25844.006339</v>
+        <v>25356.906339000001</v>
       </c>
       <c r="L63">
-        <v>24484.362454000002</v>
+        <v>23999.862454000002</v>
       </c>
       <c r="M63">
-        <v>24220.971095000001</v>
+        <v>23922.671095000002</v>
       </c>
       <c r="N63">
         <v>24800.060711000002</v>
@@ -6368,22 +6373,22 @@
         <v>28318.449432999998</v>
       </c>
       <c r="H64">
-        <v>27304.080806000002</v>
+        <v>27299.080806000002</v>
       </c>
       <c r="I64">
-        <v>26816.370073999999</v>
+        <v>26608.370073999999</v>
       </c>
       <c r="J64">
-        <v>26548.117641999997</v>
+        <v>26304.117641999997</v>
       </c>
       <c r="K64">
-        <v>25948.979284999998</v>
+        <v>25707.979284999998</v>
       </c>
       <c r="L64">
-        <v>25663.201973000003</v>
+        <v>25227.201973000003</v>
       </c>
       <c r="M64">
-        <v>26872.294378999999</v>
+        <v>26744.294378999999</v>
       </c>
       <c r="N64">
         <v>29290.201649000002</v>
@@ -6457,28 +6462,28 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>31358.913564999999</v>
+        <v>31262.313565</v>
       </c>
       <c r="G65">
-        <v>29812.639572</v>
+        <v>29563.339572000001</v>
       </c>
       <c r="H65">
-        <v>28935.797807999999</v>
+        <v>28561.097807999999</v>
       </c>
       <c r="I65">
-        <v>28402.899999999998</v>
+        <v>27915.199999999997</v>
       </c>
       <c r="J65">
-        <v>27911.449637999998</v>
+        <v>27427.849638</v>
       </c>
       <c r="K65">
-        <v>27208.399999999998</v>
+        <v>26726.999999999996</v>
       </c>
       <c r="L65">
-        <v>26207.795497999999</v>
+        <v>25728.495498</v>
       </c>
       <c r="M65">
-        <v>27167.311730000001</v>
+        <v>27015.711730000003</v>
       </c>
       <c r="N65">
         <v>29519.399999999994</v>
@@ -6558,22 +6563,22 @@
         <v>29754.875715999991</v>
       </c>
       <c r="H66">
-        <v>28827.699999999997</v>
+        <v>28639.899999999998</v>
       </c>
       <c r="I66">
-        <v>28213.045618999997</v>
+        <v>27968.945618999998</v>
       </c>
       <c r="J66">
-        <v>27770.452066999998</v>
+        <v>27526.852067</v>
       </c>
       <c r="K66">
-        <v>27043.065167000001</v>
+        <v>26800.265167000001</v>
       </c>
       <c r="L66">
-        <v>26033.670016</v>
+        <v>25791.470015999999</v>
       </c>
       <c r="M66">
-        <v>27426.389403000001</v>
+        <v>27213.989403</v>
       </c>
       <c r="N66">
         <v>29541.393646</v>
@@ -6647,28 +6652,28 @@
         <v>1</v>
       </c>
       <c r="F67">
-        <v>31741.145687</v>
+        <v>31724.545687000002</v>
       </c>
       <c r="G67">
-        <v>30083.200000000001</v>
+        <v>29836.400000000001</v>
       </c>
       <c r="H67">
-        <v>29114.720969000002</v>
+        <v>28868.720969000002</v>
       </c>
       <c r="I67">
-        <v>28475.436850000006</v>
+        <v>28169.636850000006</v>
       </c>
       <c r="J67">
-        <v>28283.335521999994</v>
+        <v>27796.235521999995</v>
       </c>
       <c r="K67">
-        <v>27455.090829999997</v>
+        <v>26968.490829999999</v>
       </c>
       <c r="L67">
-        <v>26463.739131999995</v>
+        <v>25980.639131999997</v>
       </c>
       <c r="M67">
-        <v>27517.167833999993</v>
+        <v>27429.567833999994</v>
       </c>
       <c r="N67">
         <v>29905.899999999998</v>
@@ -6745,28 +6750,28 @@
         <v>32321.800000000003</v>
       </c>
       <c r="G68">
-        <v>30493.582331999998</v>
+        <v>30287.282331999999</v>
       </c>
       <c r="H68">
-        <v>29625.345472000005</v>
+        <v>29129.245472000006</v>
       </c>
       <c r="I68">
-        <v>28973.399999999994</v>
+        <v>28479.999999999993</v>
       </c>
       <c r="J68">
-        <v>28473.191876000001</v>
+        <v>27982.391876000002</v>
       </c>
       <c r="K68">
-        <v>27773.867923999998</v>
+        <v>27285.467923999997</v>
       </c>
       <c r="L68">
-        <v>26781.149054999998</v>
+        <v>26295.549054999999</v>
       </c>
       <c r="M68">
-        <v>28150.697968</v>
+        <v>27671.597968000002</v>
       </c>
       <c r="N68">
-        <v>30088.266975999999</v>
+        <v>30017.166976</v>
       </c>
       <c r="O68">
         <v>31802.680621999996</v>
@@ -6840,28 +6845,28 @@
         <v>31689.780788000004</v>
       </c>
       <c r="G69">
-        <v>30369.273795999998</v>
+        <v>30136.973795999998</v>
       </c>
       <c r="H69">
-        <v>29422.146266999996</v>
+        <v>29011.346266999997</v>
       </c>
       <c r="I69">
-        <v>28763.560152000002</v>
+        <v>28271.560152000002</v>
       </c>
       <c r="J69">
-        <v>28207.898032000001</v>
+        <v>27717.898032000001</v>
       </c>
       <c r="K69">
-        <v>27495.146632</v>
+        <v>27008.446631999999</v>
       </c>
       <c r="L69">
-        <v>26335.595383999997</v>
+        <v>25853.295383999997</v>
       </c>
       <c r="M69">
-        <v>27259.614189000004</v>
+        <v>26880.614189000004</v>
       </c>
       <c r="N69">
-        <v>29062.600000000006</v>
+        <v>29042.700000000004</v>
       </c>
       <c r="O69">
         <v>30913.185485999995</v>
@@ -6938,28 +6943,28 @@
         <v>30345.094628000003</v>
       </c>
       <c r="H70">
-        <v>29423.974775999995</v>
+        <v>29250.074775999994</v>
       </c>
       <c r="I70">
-        <v>28856.1</v>
+        <v>28358.799999999999</v>
       </c>
       <c r="J70">
-        <v>28278.3</v>
+        <v>27784.3</v>
       </c>
       <c r="K70">
-        <v>27373.44857</v>
+        <v>26882.048569999999</v>
       </c>
       <c r="L70">
-        <v>26044.363966000001</v>
+        <v>25554.463965999999</v>
       </c>
       <c r="M70">
-        <v>25815.817403999998</v>
+        <v>25333.117403999997</v>
       </c>
       <c r="N70">
-        <v>26595.889067999993</v>
+        <v>26114.289067999995</v>
       </c>
       <c r="O70">
-        <v>27555.430060999995</v>
+        <v>27403.530060999994</v>
       </c>
       <c r="P70">
         <v>28868.963537999996</v>
@@ -7001,7 +7006,7 @@
         <v>33808.634035999996</v>
       </c>
       <c r="AC70">
-        <v>33216.585370000001</v>
+        <v>33185.685369999999</v>
       </c>
       <c r="AD70">
         <v>0</v>
@@ -7027,25 +7032,25 @@
         <v>1</v>
       </c>
       <c r="F71">
-        <v>32410.916481999997</v>
+        <v>31973.716481999996</v>
       </c>
       <c r="G71">
-        <v>30773.303269000004</v>
+        <v>30279.203269000005</v>
       </c>
       <c r="H71">
-        <v>29571.357077999997</v>
+        <v>29080.557077999998</v>
       </c>
       <c r="I71">
-        <v>28816.9</v>
+        <v>28328.300000000003</v>
       </c>
       <c r="J71">
-        <v>28366.446035999998</v>
+        <v>27882.246035999997</v>
       </c>
       <c r="K71">
-        <v>27631.925514000006</v>
+        <v>27147.825514000007</v>
       </c>
       <c r="L71">
-        <v>26713.337004999998</v>
+        <v>26339.137004999997</v>
       </c>
       <c r="M71">
         <v>28109.355820000001</v>
@@ -7125,31 +7130,31 @@
         <v>33803.088105999996</v>
       </c>
       <c r="G72">
-        <v>32209.399999999998</v>
+        <v>32054.399999999998</v>
       </c>
       <c r="H72">
-        <v>31034.100000000002</v>
+        <v>30747.7</v>
       </c>
       <c r="I72">
-        <v>30456.272465999995</v>
+        <v>29964.272465999995</v>
       </c>
       <c r="J72">
-        <v>29995.924427999998</v>
+        <v>29506.224427999998</v>
       </c>
       <c r="K72">
-        <v>29221.463684999999</v>
+        <v>28735.763684999998</v>
       </c>
       <c r="L72">
-        <v>28263.872758000005</v>
+        <v>27779.472758000004</v>
       </c>
       <c r="M72">
-        <v>29681.299999999996</v>
+        <v>29200.999999999996</v>
       </c>
       <c r="N72">
-        <v>32233.863730000005</v>
+        <v>31812.863730000005</v>
       </c>
       <c r="O72">
-        <v>33899.687192999998</v>
+        <v>33852.187192999998</v>
       </c>
       <c r="P72">
         <v>35731.426268000003</v>
@@ -7170,19 +7175,19 @@
         <v>39650.269343</v>
       </c>
       <c r="V72">
-        <v>39003.814835999998</v>
+        <v>39002.014835999995</v>
       </c>
       <c r="W72">
-        <v>37983.499999999993</v>
+        <v>37979.399999999994</v>
       </c>
       <c r="X72">
-        <v>35914.105768000009</v>
+        <v>35909.405768000011</v>
       </c>
       <c r="Y72">
-        <v>34553.076174000009</v>
+        <v>34548.276174000006</v>
       </c>
       <c r="Z72">
-        <v>36950.699999999997</v>
+        <v>36948.199999999997</v>
       </c>
       <c r="AA72">
         <v>38578.844215999998</v>
@@ -7220,28 +7225,28 @@
         <v>35045.200000000004</v>
       </c>
       <c r="G73">
-        <v>33235.399999999994</v>
+        <v>33052.999999999993</v>
       </c>
       <c r="H73">
-        <v>32188.899999999994</v>
+        <v>31749.999999999993</v>
       </c>
       <c r="I73">
-        <v>31419.4</v>
+        <v>30926.9</v>
       </c>
       <c r="J73">
-        <v>30931.899999999998</v>
+        <v>30441.699999999997</v>
       </c>
       <c r="K73">
-        <v>30007</v>
+        <v>29518.400000000001</v>
       </c>
       <c r="L73">
-        <v>28701.099999999995</v>
+        <v>28217.399999999994</v>
       </c>
       <c r="M73">
-        <v>30257.807650999999</v>
+        <v>29777.707651000001</v>
       </c>
       <c r="N73">
-        <v>32901.700000000004</v>
+        <v>32524.500000000004</v>
       </c>
       <c r="O73">
         <v>34665.843326000002</v>
@@ -7315,31 +7320,31 @@
         <v>35495.586256000002</v>
       </c>
       <c r="G74">
-        <v>33720.087114000002</v>
+        <v>33575.487114000003</v>
       </c>
       <c r="H74">
-        <v>32753.8</v>
+        <v>32338.5</v>
       </c>
       <c r="I74">
-        <v>31923.333119000006</v>
+        <v>31430.233119000008</v>
       </c>
       <c r="J74">
-        <v>31354.206115999998</v>
+        <v>30865.706115999998</v>
       </c>
       <c r="K74">
-        <v>30431.214693999998</v>
+        <v>29943.914693999999</v>
       </c>
       <c r="L74">
-        <v>29277.600000000002</v>
+        <v>28797.100000000002</v>
       </c>
       <c r="M74">
-        <v>30441.5</v>
+        <v>30200.7</v>
       </c>
       <c r="N74">
-        <v>33174.301175000001</v>
+        <v>32935.501174999998</v>
       </c>
       <c r="O74">
-        <v>35253.776901999998</v>
+        <v>35063.576902000001</v>
       </c>
       <c r="P74">
         <v>36917.904225999999</v>
@@ -7422,19 +7427,19 @@
         <v>30663.349046000003</v>
       </c>
       <c r="K75">
-        <v>29680.081026</v>
+        <v>29620.781026000001</v>
       </c>
       <c r="L75">
-        <v>28341.908481000002</v>
+        <v>28093.108481000003</v>
       </c>
       <c r="M75">
-        <v>28454.100000000002</v>
+        <v>28205.9</v>
       </c>
       <c r="N75">
-        <v>29689.116401000007</v>
+        <v>29441.516401000008</v>
       </c>
       <c r="O75">
-        <v>31231.699999999997</v>
+        <v>31071.499999999996</v>
       </c>
       <c r="P75">
         <v>33004.869974000001</v>
@@ -7505,34 +7510,34 @@
         <v>34181.5</v>
       </c>
       <c r="G76">
-        <v>32640.656075999999</v>
+        <v>32612.856076</v>
       </c>
       <c r="H76">
-        <v>31688.032138999999</v>
+        <v>31257.332138999998</v>
       </c>
       <c r="I76">
-        <v>30902.586908999998</v>
+        <v>30412.286908999999</v>
       </c>
       <c r="J76">
-        <v>30335.376772</v>
+        <v>29849.076772</v>
       </c>
       <c r="K76">
-        <v>29330.684254999996</v>
+        <v>28843.484254999996</v>
       </c>
       <c r="L76">
-        <v>27899.800000000003</v>
+        <v>27417.600000000002</v>
       </c>
       <c r="M76">
-        <v>27915.399999999998</v>
+        <v>27451.499999999996</v>
       </c>
       <c r="N76">
-        <v>29048</v>
+        <v>28806.9</v>
       </c>
       <c r="O76">
-        <v>30453.856462999996</v>
+        <v>30213.756462999998</v>
       </c>
       <c r="P76">
-        <v>32077.3</v>
+        <v>31953.8</v>
       </c>
       <c r="Q76">
         <v>33476.446507000001</v>
@@ -7600,31 +7605,31 @@
         <v>34076.020792000003</v>
       </c>
       <c r="G77">
-        <v>32676.260673000001</v>
+        <v>32603.760673000001</v>
       </c>
       <c r="H77">
-        <v>31819.885724000003</v>
+        <v>31327.885724000003</v>
       </c>
       <c r="I77">
-        <v>30839.850523999998</v>
+        <v>30352.350523999998</v>
       </c>
       <c r="J77">
-        <v>30188.399999999998</v>
+        <v>29703.899999999998</v>
       </c>
       <c r="K77">
-        <v>29162.318650000001</v>
+        <v>28678.818650000001</v>
       </c>
       <c r="L77">
-        <v>27629.049328000005</v>
+        <v>27149.649328000003</v>
       </c>
       <c r="M77">
-        <v>27728.373287000006</v>
+        <v>27251.773287000007</v>
       </c>
       <c r="N77">
-        <v>28625.699999999997</v>
+        <v>28151.999999999996</v>
       </c>
       <c r="O77">
-        <v>29735.992666000002</v>
+        <v>29511.292666000001</v>
       </c>
       <c r="P77">
         <v>31030.44615</v>
@@ -7695,28 +7700,28 @@
         <v>34494.899999999994</v>
       </c>
       <c r="G78">
-        <v>32905.798470000002</v>
+        <v>32712.498470000002</v>
       </c>
       <c r="H78">
-        <v>31888.367737</v>
+        <v>31401.167737</v>
       </c>
       <c r="I78">
-        <v>31044.211944000002</v>
+        <v>30558.411944000003</v>
       </c>
       <c r="J78">
-        <v>30519.603351000002</v>
+        <v>30036.403351000001</v>
       </c>
       <c r="K78">
-        <v>29706.113171999998</v>
+        <v>29225.113171999998</v>
       </c>
       <c r="L78">
-        <v>29007.980267999999</v>
+        <v>28532.180268</v>
       </c>
       <c r="M78">
-        <v>30776.582670000003</v>
+        <v>30305.382670000003</v>
       </c>
       <c r="N78">
-        <v>33578.245476000004</v>
+        <v>33214.645476000005</v>
       </c>
       <c r="O78">
         <v>35526.699999999997</v>
@@ -7749,10 +7754,10 @@
         <v>37321.785555999995</v>
       </c>
       <c r="Y78">
-        <v>35900.763357000003</v>
+        <v>35725.563357000006</v>
       </c>
       <c r="Z78">
-        <v>37910.700000000004</v>
+        <v>37857.000000000007</v>
       </c>
       <c r="AA78">
         <v>39909.311787999999</v>
@@ -7790,31 +7795,31 @@
         <v>36804.026359999996</v>
       </c>
       <c r="G79">
-        <v>35111.418775000006</v>
+        <v>34883.318775000007</v>
       </c>
       <c r="H79">
-        <v>33574.346709000005</v>
+        <v>33182.746709000006</v>
       </c>
       <c r="I79">
-        <v>32739.89055</v>
+        <v>32249.590550000001</v>
       </c>
       <c r="J79">
-        <v>32222.799999999999</v>
+        <v>31736.7</v>
       </c>
       <c r="K79">
-        <v>31177.016265999999</v>
+        <v>30692.616265999997</v>
       </c>
       <c r="L79">
-        <v>29984.5</v>
+        <v>29503.8</v>
       </c>
       <c r="M79">
-        <v>31574.9</v>
+        <v>31097.600000000002</v>
       </c>
       <c r="N79">
-        <v>34280.435398000001</v>
+        <v>33807.435398000001</v>
       </c>
       <c r="O79">
-        <v>36168.6</v>
+        <v>35948.400000000001</v>
       </c>
       <c r="P79">
         <v>37741.799999999996</v>
@@ -7885,22 +7890,22 @@
         <v>35541.609278000004</v>
       </c>
       <c r="G80">
-        <v>33611.042527999998</v>
+        <v>33560.342528000001</v>
       </c>
       <c r="H80">
-        <v>32707.446007999999</v>
+        <v>32241.246007999998</v>
       </c>
       <c r="I80">
-        <v>31839.650123999996</v>
+        <v>31344.150123999996</v>
       </c>
       <c r="J80">
-        <v>31232.042099000002</v>
+        <v>30740.742099000003</v>
       </c>
       <c r="K80">
-        <v>30310.330436</v>
+        <v>29820.530436000001</v>
       </c>
       <c r="L80">
-        <v>28918.781846999998</v>
+        <v>28715.881846999997</v>
       </c>
       <c r="M80">
         <v>30099.768657999997</v>
@@ -7942,7 +7947,7 @@
         <v>34594.475469999998</v>
       </c>
       <c r="Z80">
-        <v>36485.352315999997</v>
+        <v>36465.352315999997</v>
       </c>
       <c r="AA80">
         <v>38251.110515</v>
@@ -7951,7 +7956,7 @@
         <v>37681.258059999986</v>
       </c>
       <c r="AC80">
-        <v>36411.753008</v>
+        <v>36371.753008</v>
       </c>
       <c r="AD80">
         <v>0</v>
@@ -7980,34 +7985,34 @@
         <v>34661.363888000007</v>
       </c>
       <c r="G81">
-        <v>32999.127890000003</v>
+        <v>32810.727890000002</v>
       </c>
       <c r="H81">
-        <v>31859.189475999996</v>
+        <v>31604.589475999997</v>
       </c>
       <c r="I81">
-        <v>31046.925468000001</v>
+        <v>30792.925468000001</v>
       </c>
       <c r="J81">
-        <v>30755.922815000002</v>
+        <v>30277.722815000001</v>
       </c>
       <c r="K81">
-        <v>29908.950095</v>
+        <v>29412.550094999999</v>
       </c>
       <c r="L81">
-        <v>28871.790179999989</v>
+        <v>28382.590179999988</v>
       </c>
       <c r="M81">
-        <v>30309.100000000002</v>
+        <v>29823.500000000004</v>
       </c>
       <c r="N81">
-        <v>32846.539824000007</v>
+        <v>32370.139824000005</v>
       </c>
       <c r="O81">
-        <v>34857.259710999999</v>
+        <v>34382.959710999996</v>
       </c>
       <c r="P81">
-        <v>36411.521878</v>
+        <v>36086.621877999998</v>
       </c>
       <c r="Q81">
         <v>37714.206772000005</v>
@@ -8034,7 +8039,7 @@
         <v>36711.849903999988</v>
       </c>
       <c r="Y81">
-        <v>34802.976286000012</v>
+        <v>34782.976286000012</v>
       </c>
       <c r="Z81">
         <v>36766.686375999998</v>
@@ -8078,31 +8083,31 @@
         <v>33384.182435999996</v>
       </c>
       <c r="H82">
-        <v>32346.01628</v>
+        <v>32062.416280000001</v>
       </c>
       <c r="I82">
-        <v>31741.499999999996</v>
+        <v>31248.799999999996</v>
       </c>
       <c r="J82">
-        <v>31186.951313999998</v>
+        <v>30696.051313999997</v>
       </c>
       <c r="K82">
-        <v>30349.468051000003</v>
+        <v>29861.968051000003</v>
       </c>
       <c r="L82">
-        <v>29251.256217999999</v>
+        <v>28767.856217999997</v>
       </c>
       <c r="M82">
-        <v>30814.276431999999</v>
+        <v>30334.076431999998</v>
       </c>
       <c r="N82">
-        <v>33553.888511999998</v>
+        <v>33078.788511999999</v>
       </c>
       <c r="O82">
-        <v>35565.5</v>
+        <v>35175.300000000003</v>
       </c>
       <c r="P82">
-        <v>37059.441117000002</v>
+        <v>37035.641116999999</v>
       </c>
       <c r="Q82">
         <v>38861.479257999992</v>
@@ -8170,31 +8175,31 @@
         <v>35794.688958999999</v>
       </c>
       <c r="G83">
-        <v>34054.123626000001</v>
+        <v>33914.123626000001</v>
       </c>
       <c r="H83">
-        <v>32984.899999999994</v>
+        <v>32491.099999999995</v>
       </c>
       <c r="I83">
-        <v>32083.840419000004</v>
+        <v>31592.340419000004</v>
       </c>
       <c r="J83">
-        <v>31530.700000000004</v>
+        <v>31043.700000000004</v>
       </c>
       <c r="K83">
-        <v>30690.5</v>
+        <v>30204.400000000001</v>
       </c>
       <c r="L83">
-        <v>29591.321308000002</v>
+        <v>29110.321308000002</v>
       </c>
       <c r="M83">
-        <v>30823.185973999996</v>
+        <v>30343.185973999996</v>
       </c>
       <c r="N83">
-        <v>33237.079258999998</v>
+        <v>32762.579258999998</v>
       </c>
       <c r="O83">
-        <v>35296.771518000001</v>
+        <v>34930.671518000003</v>
       </c>
       <c r="P83">
         <v>36751.958974000001</v>
@@ -8265,31 +8270,31 @@
         <v>35364.073976000007</v>
       </c>
       <c r="G84">
-        <v>33834.136726999997</v>
+        <v>33771.336726999994</v>
       </c>
       <c r="H84">
-        <v>32647.378324000001</v>
+        <v>32455.478324</v>
       </c>
       <c r="I84">
-        <v>31955.114524000001</v>
+        <v>31522.714523999999</v>
       </c>
       <c r="J84">
-        <v>31307.522300000001</v>
+        <v>30818.022300000001</v>
       </c>
       <c r="K84">
-        <v>30194.546908</v>
+        <v>29706.546908</v>
       </c>
       <c r="L84">
-        <v>28589.272994999999</v>
+        <v>28105.472995</v>
       </c>
       <c r="M84">
-        <v>28541.290033999998</v>
+        <v>28061.790033999998</v>
       </c>
       <c r="N84">
-        <v>29422.3</v>
+        <v>28944.899999999998</v>
       </c>
       <c r="O84">
-        <v>30675.93391</v>
+        <v>30289.333910000001</v>
       </c>
       <c r="P84">
         <v>31845.065788</v>
@@ -8360,31 +8365,31 @@
         <v>34798.945153999994</v>
       </c>
       <c r="G85">
-        <v>33018.635284000004</v>
+        <v>32903.035284000005</v>
       </c>
       <c r="H85">
-        <v>31900.839749000006</v>
+        <v>31482.239749000008</v>
       </c>
       <c r="I85">
-        <v>31125.238134000003</v>
+        <v>30642.538134000002</v>
       </c>
       <c r="J85">
-        <v>30553.399999999998</v>
+        <v>30073.899999999998</v>
       </c>
       <c r="K85">
-        <v>29608.857835000003</v>
+        <v>29130.757835000004</v>
       </c>
       <c r="L85">
-        <v>28720.434182000005</v>
+        <v>28313.834182000006</v>
       </c>
       <c r="M85">
-        <v>30241.677317000005</v>
+        <v>30004.977317000004</v>
       </c>
       <c r="N85">
-        <v>33097.214609999995</v>
+        <v>32861.314609999994</v>
       </c>
       <c r="O85">
-        <v>35381.1</v>
+        <v>35216.299999999996</v>
       </c>
       <c r="P85">
         <v>37356.199999999997</v>
@@ -8458,31 +8463,31 @@
         <v>33580.891358000001</v>
       </c>
       <c r="H86">
-        <v>32163.335330000002</v>
+        <v>32161.035330000002</v>
       </c>
       <c r="I86">
-        <v>31511.983204999997</v>
+        <v>31315.083204999995</v>
       </c>
       <c r="J86">
-        <v>31174.396335000005</v>
+        <v>30683.696335000004</v>
       </c>
       <c r="K86">
-        <v>30200.233545000003</v>
+        <v>29707.533545000002</v>
       </c>
       <c r="L86">
-        <v>29040.575872000001</v>
+        <v>28553.075872000001</v>
       </c>
       <c r="M86">
-        <v>30618.940976000009</v>
+        <v>30135.84097600001</v>
       </c>
       <c r="N86">
-        <v>33233.665223999997</v>
+        <v>32753.065223999998</v>
       </c>
       <c r="O86">
-        <v>34849.999266999999</v>
+        <v>34555.399267000001</v>
       </c>
       <c r="P86">
-        <v>36605.899334000002</v>
+        <v>36380.299334000003</v>
       </c>
       <c r="Q86">
         <v>38102.686757999996</v>
@@ -8553,28 +8558,28 @@
         <v>33523.91762</v>
       </c>
       <c r="H87">
-        <v>32356.628149999997</v>
+        <v>32215.328149999998</v>
       </c>
       <c r="I87">
-        <v>31741.006126</v>
+        <v>31381.406126000002</v>
       </c>
       <c r="J87">
-        <v>31320.059709999998</v>
+        <v>30830.859709999997</v>
       </c>
       <c r="K87">
-        <v>30364.215414999999</v>
+        <v>29877.915414999999</v>
       </c>
       <c r="L87">
-        <v>29304.636952000004</v>
+        <v>28825.436952000004</v>
       </c>
       <c r="M87">
-        <v>30832.321595999998</v>
+        <v>30356.521595999999</v>
       </c>
       <c r="N87">
-        <v>33418.477685999998</v>
+        <v>32944.977685999998</v>
       </c>
       <c r="O87">
-        <v>35271.247828</v>
+        <v>35045.347827999998</v>
       </c>
       <c r="P87">
         <v>36803.996257999999</v>
@@ -8645,31 +8650,31 @@
         <v>35928.024204000001</v>
       </c>
       <c r="G88">
-        <v>34200.756674000004</v>
+        <v>34009.856674000002</v>
       </c>
       <c r="H88">
-        <v>33068.198649999998</v>
+        <v>32632.398649999999</v>
       </c>
       <c r="I88">
-        <v>32215.516045</v>
+        <v>31725.916045000002</v>
       </c>
       <c r="J88">
-        <v>31533.351008000001</v>
+        <v>31044.751008000003</v>
       </c>
       <c r="K88">
-        <v>30481.031201000005</v>
+        <v>29995.131201000004</v>
       </c>
       <c r="L88">
-        <v>29371.375399</v>
+        <v>28888.775399000002</v>
       </c>
       <c r="M88">
-        <v>30796.250166999998</v>
+        <v>30318.150167</v>
       </c>
       <c r="N88">
-        <v>33472.981787999997</v>
+        <v>32999.281788</v>
       </c>
       <c r="O88">
-        <v>35046.800000000003</v>
+        <v>35015.4</v>
       </c>
       <c r="P88">
         <v>36849.640082000005</v>
@@ -8696,13 +8701,13 @@
         <v>38759.147254000003</v>
       </c>
       <c r="X88">
-        <v>36947.754711999987</v>
+        <v>36900.55471199999</v>
       </c>
       <c r="Y88">
-        <v>35478.073801999992</v>
+        <v>35135.273801999989</v>
       </c>
       <c r="Z88">
-        <v>37112.529347000011</v>
+        <v>36956.829347000014</v>
       </c>
       <c r="AA88">
         <v>38998.814941000004</v>
@@ -8737,34 +8742,34 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>35990.899700000002</v>
+        <v>35985.799700000003</v>
       </c>
       <c r="G89">
-        <v>34492.633132000003</v>
+        <v>34134.833132</v>
       </c>
       <c r="H89">
-        <v>33284.447506999997</v>
+        <v>32789.747507</v>
       </c>
       <c r="I89">
-        <v>32459.399999999998</v>
+        <v>31969.3</v>
       </c>
       <c r="J89">
-        <v>31761.511552</v>
+        <v>31272.211552000001</v>
       </c>
       <c r="K89">
-        <v>30683.104640999994</v>
+        <v>30196.804640999995</v>
       </c>
       <c r="L89">
-        <v>29603.827008</v>
+        <v>29123.627007999999</v>
       </c>
       <c r="M89">
-        <v>30998.620507</v>
+        <v>30520.520507000001</v>
       </c>
       <c r="N89">
-        <v>33601.958083000005</v>
+        <v>33126.758083000008</v>
       </c>
       <c r="O89">
-        <v>35510.1</v>
+        <v>35254.699999999997</v>
       </c>
       <c r="P89">
         <v>37035.690441000006</v>
@@ -8835,34 +8840,34 @@
         <v>36434.557714000002</v>
       </c>
       <c r="G90">
-        <v>34946.124590000007</v>
+        <v>34555.824590000004</v>
       </c>
       <c r="H90">
-        <v>33661.798503999999</v>
+        <v>33167.798503999999</v>
       </c>
       <c r="I90">
-        <v>33366.407083999999</v>
+        <v>32875.307084</v>
       </c>
       <c r="J90">
-        <v>32490.085100000008</v>
+        <v>32000.085100000008</v>
       </c>
       <c r="K90">
-        <v>31053.830679999999</v>
+        <v>30566.330679999999</v>
       </c>
       <c r="L90">
-        <v>29874.699999999997</v>
+        <v>29391.999999999996</v>
       </c>
       <c r="M90">
-        <v>30951.598423999996</v>
+        <v>30473.198423999995</v>
       </c>
       <c r="N90">
-        <v>33194.235582000001</v>
+        <v>32721.135582000003</v>
       </c>
       <c r="O90">
-        <v>35176.199999999997</v>
+        <v>34812.399999999994</v>
       </c>
       <c r="P90">
-        <v>36522.200757999992</v>
+        <v>36518.30075799999</v>
       </c>
       <c r="Q90">
         <v>38104.036050000002</v>
@@ -8901,7 +8906,7 @@
         <v>38087.937546000008</v>
       </c>
       <c r="AC90">
-        <v>37341.645815999997</v>
+        <v>37283.845815999994</v>
       </c>
       <c r="AD90">
         <v>0</v>
@@ -8927,34 +8932,34 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>36368.064512000004</v>
+        <v>36072.864512000007</v>
       </c>
       <c r="G91">
-        <v>34946.176203999996</v>
+        <v>34449.676203999996</v>
       </c>
       <c r="H91">
-        <v>33666.763257999999</v>
+        <v>33173.763257999999</v>
       </c>
       <c r="I91">
-        <v>33284.199999999997</v>
+        <v>32795.5</v>
       </c>
       <c r="J91">
-        <v>32221.888611999999</v>
+        <v>31733.788612</v>
       </c>
       <c r="K91">
-        <v>30414.697168000002</v>
+        <v>29928.897168000003</v>
       </c>
       <c r="L91">
-        <v>28648.997623000007</v>
+        <v>28166.297623000006</v>
       </c>
       <c r="M91">
-        <v>28648.075655999994</v>
+        <v>28170.875655999993</v>
       </c>
       <c r="N91">
-        <v>29444.214176000001</v>
+        <v>28970.614176000003</v>
       </c>
       <c r="O91">
-        <v>30690.882608</v>
+        <v>30462.782608000001</v>
       </c>
       <c r="P91">
         <v>31737.299999999996</v>
@@ -9025,31 +9030,31 @@
         <v>36014.273589999997</v>
       </c>
       <c r="G92">
-        <v>34354.898439999997</v>
+        <v>34231.398439999997</v>
       </c>
       <c r="H92">
-        <v>33456.971536000005</v>
+        <v>32965.771536000007</v>
       </c>
       <c r="I92">
-        <v>33027.730774000003</v>
+        <v>32539.030774000003</v>
       </c>
       <c r="J92">
-        <v>32054.033705000005</v>
+        <v>31566.833705000005</v>
       </c>
       <c r="K92">
-        <v>30602.42829</v>
+        <v>30118.92829</v>
       </c>
       <c r="L92">
-        <v>29755.102933999995</v>
+        <v>29275.002933999996</v>
       </c>
       <c r="M92">
-        <v>31508.113499999996</v>
+        <v>31033.413499999995</v>
       </c>
       <c r="N92">
-        <v>34273.499999999993</v>
+        <v>33836.799999999996</v>
       </c>
       <c r="O92">
-        <v>36170.186277000001</v>
+        <v>35943.386276999998</v>
       </c>
       <c r="P92">
         <v>37815.651678000002</v>
@@ -9079,7 +9084,7 @@
         <v>38262.472816000001</v>
       </c>
       <c r="Y92">
-        <v>37080.799999999988</v>
+        <v>37060.799999999988</v>
       </c>
       <c r="Z92">
         <v>39373.499999999993</v>
@@ -9117,34 +9122,34 @@
         <v>1</v>
       </c>
       <c r="F93">
-        <v>38065.910751999996</v>
+        <v>37965.310751999998</v>
       </c>
       <c r="G93">
-        <v>36462.563106000009</v>
+        <v>36045.46310600001</v>
       </c>
       <c r="H93">
-        <v>35322.200000000004</v>
+        <v>34837.200000000004</v>
       </c>
       <c r="I93">
-        <v>34794.671110000003</v>
+        <v>34307.571110000004</v>
       </c>
       <c r="J93">
-        <v>33757.675139999999</v>
+        <v>33272.175139999999</v>
       </c>
       <c r="K93">
-        <v>32237.460096000006</v>
+        <v>31755.060096000005</v>
       </c>
       <c r="L93">
-        <v>31128.626728999996</v>
+        <v>30650.926728999995</v>
       </c>
       <c r="M93">
-        <v>32555.400000000005</v>
+        <v>32081.200000000004</v>
       </c>
       <c r="N93">
-        <v>35186.700000000004</v>
+        <v>34716.600000000006</v>
       </c>
       <c r="O93">
-        <v>37105.9</v>
+        <v>36830.1</v>
       </c>
       <c r="P93">
         <v>38527.800000000003</v>
@@ -9212,37 +9217,37 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>38429.574141999998</v>
+        <v>38254.774141999995</v>
       </c>
       <c r="G94">
-        <v>36803.962274999998</v>
+        <v>36312.762275000001</v>
       </c>
       <c r="H94">
-        <v>35408.816700000003</v>
+        <v>34921.716700000004</v>
       </c>
       <c r="I94">
-        <v>34941.321910999999</v>
+        <v>34458.721911000001</v>
       </c>
       <c r="J94">
-        <v>33819.285806</v>
+        <v>33338.085806000003</v>
       </c>
       <c r="K94">
-        <v>32307.525943999997</v>
+        <v>31827.625943999996</v>
       </c>
       <c r="L94">
-        <v>31218.440525999995</v>
+        <v>30743.440525999995</v>
       </c>
       <c r="M94">
-        <v>32557.862792</v>
+        <v>32086.362792</v>
       </c>
       <c r="N94">
-        <v>35033.77059</v>
+        <v>34563.870589999999</v>
       </c>
       <c r="O94">
-        <v>37166.624170000003</v>
+        <v>36814.32417</v>
       </c>
       <c r="P94">
-        <v>38570.078752000001</v>
+        <v>38542.978752000003</v>
       </c>
       <c r="Q94">
         <v>40025.957628000004</v>
@@ -9307,37 +9312,37 @@
         <v>1</v>
       </c>
       <c r="F95">
-        <v>38831.822864000002</v>
+        <v>38546.122864000004</v>
       </c>
       <c r="G95">
-        <v>37067.140057000011</v>
+        <v>36576.440057000014</v>
       </c>
       <c r="H95">
-        <v>35639.549401999997</v>
+        <v>35151.649401999995</v>
       </c>
       <c r="I95">
-        <v>35093.654878000001</v>
+        <v>34609.854877999998</v>
       </c>
       <c r="J95">
-        <v>34070.62902</v>
+        <v>33587.429020000003</v>
       </c>
       <c r="K95">
-        <v>32451.541880000004</v>
+        <v>31969.641880000003</v>
       </c>
       <c r="L95">
-        <v>31270.757114</v>
+        <v>30793.557113999999</v>
       </c>
       <c r="M95">
-        <v>32712</v>
+        <v>32238.9</v>
       </c>
       <c r="N95">
-        <v>35220.267850000004</v>
+        <v>34751.867850000002</v>
       </c>
       <c r="O95">
-        <v>37286.600000000006</v>
+        <v>36828.600000000006</v>
       </c>
       <c r="P95">
-        <v>38706.074126000007</v>
+        <v>38541.174126000005</v>
       </c>
       <c r="Q95">
         <v>40127.713168000002</v>
@@ -9405,34 +9410,34 @@
         <v>38527.827160000001</v>
       </c>
       <c r="G96">
-        <v>37056.623154000001</v>
+        <v>36769.223153999999</v>
       </c>
       <c r="H96">
-        <v>35928.799999999996</v>
+        <v>35439.499999999993</v>
       </c>
       <c r="I96">
-        <v>35355.841760999996</v>
+        <v>34870.241760999997</v>
       </c>
       <c r="J96">
-        <v>34407.990934000001</v>
+        <v>33924.190933999998</v>
       </c>
       <c r="K96">
-        <v>32885.674996999995</v>
+        <v>32405.074996999996</v>
       </c>
       <c r="L96">
-        <v>31543.338467000001</v>
+        <v>31065.638467000001</v>
       </c>
       <c r="M96">
-        <v>32947.585417999995</v>
+        <v>32474.385417999994</v>
       </c>
       <c r="N96">
-        <v>35273.759708000005</v>
+        <v>34802.859708000004</v>
       </c>
       <c r="O96">
-        <v>37417.288492000007</v>
+        <v>37047.988492000004</v>
       </c>
       <c r="P96">
-        <v>38837.502117000004</v>
+        <v>38791.102117000002</v>
       </c>
       <c r="Q96">
         <v>40423.010966000002</v>
@@ -9500,31 +9505,31 @@
         <v>38630.924377999996</v>
       </c>
       <c r="G97">
-        <v>37314.320757000001</v>
+        <v>37032.620757000004</v>
       </c>
       <c r="H97">
-        <v>36019.714083999999</v>
+        <v>35529.514084000002</v>
       </c>
       <c r="I97">
-        <v>35439.696535000003</v>
+        <v>34952.596535000004</v>
       </c>
       <c r="J97">
-        <v>34280.729582</v>
+        <v>33794.929581999997</v>
       </c>
       <c r="K97">
-        <v>32574.581574</v>
+        <v>32091.681573999998</v>
       </c>
       <c r="L97">
-        <v>31157.157603999996</v>
+        <v>30808.957603999996</v>
       </c>
       <c r="M97">
-        <v>32218.642924</v>
+        <v>31739.442923999999</v>
       </c>
       <c r="N97">
-        <v>34242.895127000003</v>
+        <v>33768.295127000005</v>
       </c>
       <c r="O97">
-        <v>36201.405892000002</v>
+        <v>35791.805892000004</v>
       </c>
       <c r="P97">
         <v>37465.715052</v>
@@ -9595,34 +9600,34 @@
         <v>37445.799999999996</v>
       </c>
       <c r="G98">
-        <v>36252.581847999994</v>
+        <v>35971.381847999997</v>
       </c>
       <c r="H98">
-        <v>35323.086130999996</v>
+        <v>34834.186130999995</v>
       </c>
       <c r="I98">
-        <v>34571.300000000003</v>
+        <v>34085.100000000006</v>
       </c>
       <c r="J98">
-        <v>33421.676599999999</v>
+        <v>32935.976600000002</v>
       </c>
       <c r="K98">
-        <v>31583.789769999999</v>
+        <v>31098.789769999999</v>
       </c>
       <c r="L98">
-        <v>29859.058872000005</v>
+        <v>29376.658872000004</v>
       </c>
       <c r="M98">
-        <v>29619.499999999996</v>
+        <v>29141.099999999995</v>
       </c>
       <c r="N98">
-        <v>30207.868560000003</v>
+        <v>29731.268560000004</v>
       </c>
       <c r="O98">
-        <v>31338.678298000003</v>
+        <v>30865.578298000004</v>
       </c>
       <c r="P98">
-        <v>32527.115982999996</v>
+        <v>32213.315982999997</v>
       </c>
       <c r="Q98">
         <v>33637.930247000004</v>
@@ -9687,37 +9692,37 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>36476.403791999997</v>
+        <v>36410.503791999996</v>
       </c>
       <c r="G99">
-        <v>35300.860004000009</v>
+        <v>34860.160004000012</v>
       </c>
       <c r="H99">
-        <v>34112.142313999997</v>
+        <v>33622.642313999997</v>
       </c>
       <c r="I99">
-        <v>33579.266713999998</v>
+        <v>33093.766713999998</v>
       </c>
       <c r="J99">
-        <v>32563.636790000008</v>
+        <v>32076.736790000006</v>
       </c>
       <c r="K99">
-        <v>31101.312655000005</v>
+        <v>30617.812655000005</v>
       </c>
       <c r="L99">
-        <v>30179.838619000002</v>
+        <v>29701.738619000003</v>
       </c>
       <c r="M99">
-        <v>31753.09143</v>
+        <v>31278.291430000001</v>
       </c>
       <c r="N99">
-        <v>34130.38852</v>
+        <v>33658.188520000003</v>
       </c>
       <c r="O99">
-        <v>36110.400000000001</v>
+        <v>35642</v>
       </c>
       <c r="P99">
-        <v>37261.518684000002</v>
+        <v>37160.218683999999</v>
       </c>
       <c r="Q99">
         <v>38586.798417999998</v>
@@ -9782,37 +9787,37 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>37249.4</v>
+        <v>37193.1</v>
       </c>
       <c r="G100">
-        <v>35944.1</v>
+        <v>35488.400000000001</v>
       </c>
       <c r="H100">
-        <v>34713.400000000009</v>
+        <v>34225.000000000007</v>
       </c>
       <c r="I100">
-        <v>34095.556077000001</v>
+        <v>33609.956077000003</v>
       </c>
       <c r="J100">
-        <v>33132.507238999999</v>
+        <v>32648.307238999998</v>
       </c>
       <c r="K100">
-        <v>31685.288455999998</v>
+        <v>31203.688456</v>
       </c>
       <c r="L100">
-        <v>30518.337138999999</v>
+        <v>30038.137138999999</v>
       </c>
       <c r="M100">
-        <v>31894.459328999998</v>
+        <v>31420.259328999997</v>
       </c>
       <c r="N100">
-        <v>34255.361193999997</v>
+        <v>33784.761193999999</v>
       </c>
       <c r="O100">
-        <v>36230.399999999994</v>
+        <v>35762.099999999991</v>
       </c>
       <c r="P100">
-        <v>37649.894349999995</v>
+        <v>37509.794349999996</v>
       </c>
       <c r="Q100">
         <v>38966.998569000003</v>
@@ -9824,7 +9829,7 @@
         <v>40504.311491999993</v>
       </c>
       <c r="T100">
-        <v>41517.699999999997</v>
+        <v>41507.5</v>
       </c>
       <c r="U100">
         <v>41498.633367000002</v>
@@ -9880,37 +9885,37 @@
         <v>38096.755698999994</v>
       </c>
       <c r="G101">
-        <v>36476.188503999991</v>
+        <v>36172.188503999991</v>
       </c>
       <c r="H101">
-        <v>35380.830135999997</v>
+        <v>34912.830135999997</v>
       </c>
       <c r="I101">
-        <v>34651.445043000007</v>
+        <v>34153.445043000007</v>
       </c>
       <c r="J101">
-        <v>33680.439870000002</v>
+        <v>33197.439870000002</v>
       </c>
       <c r="K101">
-        <v>32138.427825999996</v>
+        <v>31666.427825999996</v>
       </c>
       <c r="L101">
-        <v>30948.431363999993</v>
+        <v>30468.431363999993</v>
       </c>
       <c r="M101">
-        <v>32227.1</v>
+        <v>31746.1</v>
       </c>
       <c r="N101">
-        <v>34882.1</v>
+        <v>34428.1</v>
       </c>
       <c r="O101">
-        <v>37052.034435999994</v>
+        <v>36559.034435999994</v>
       </c>
       <c r="P101">
-        <v>38808.000000000007</v>
+        <v>38414.000000000007</v>
       </c>
       <c r="Q101">
-        <v>40242.299999999996</v>
+        <v>40182.299999999996</v>
       </c>
       <c r="R101">
         <v>41332.400000000001</v>
@@ -9972,46 +9977,46 @@
         <v>1</v>
       </c>
       <c r="F102">
-        <v>38974.437310000001</v>
+        <v>38973.337310000003</v>
       </c>
       <c r="G102">
-        <v>37413.682334999998</v>
+        <v>37306.682334999998</v>
       </c>
       <c r="H102">
-        <v>36403.9</v>
+        <v>35911.5</v>
       </c>
       <c r="I102">
-        <v>35672.471273000003</v>
+        <v>35183.271273000006</v>
       </c>
       <c r="J102">
-        <v>34567.462503999996</v>
+        <v>34080.162503999993</v>
       </c>
       <c r="K102">
-        <v>33095.4</v>
+        <v>32612.2</v>
       </c>
       <c r="L102">
-        <v>31814.880278000004</v>
+        <v>31332.980278000003</v>
       </c>
       <c r="M102">
-        <v>33218.400000000001</v>
+        <v>32740.400000000001</v>
       </c>
       <c r="N102">
-        <v>35784.514970000004</v>
+        <v>35310.414970000005</v>
       </c>
       <c r="O102">
-        <v>37864.975337999997</v>
+        <v>37394.475337999997</v>
       </c>
       <c r="P102">
-        <v>39679.823969999998</v>
+        <v>39310.023969999995</v>
       </c>
       <c r="Q102">
-        <v>41015.947895000012</v>
+        <v>40906.047895000011</v>
       </c>
       <c r="R102">
         <v>42272.923294</v>
       </c>
       <c r="S102">
-        <v>42754.182823999996</v>
+        <v>42752.582823999997</v>
       </c>
       <c r="T102">
         <v>43443.677608999998</v>
@@ -10067,37 +10072,37 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>39797.713116999999</v>
+        <v>39715.313116999998</v>
       </c>
       <c r="G103">
-        <v>38435.171211000001</v>
+        <v>38020.771210999999</v>
       </c>
       <c r="H103">
-        <v>37047.599999999999</v>
+        <v>36554.799999999996</v>
       </c>
       <c r="I103">
-        <v>36311.259663000004</v>
+        <v>35820.459663000001</v>
       </c>
       <c r="J103">
-        <v>35276.552036000001</v>
+        <v>34788.852036000004</v>
       </c>
       <c r="K103">
-        <v>33607.841551999998</v>
+        <v>33120.341551999998</v>
       </c>
       <c r="L103">
-        <v>32502.300000000003</v>
+        <v>32019.4</v>
       </c>
       <c r="M103">
-        <v>33782.211734999997</v>
+        <v>33303.211734999997</v>
       </c>
       <c r="N103">
-        <v>36253.041135999993</v>
+        <v>35778.941135999994</v>
       </c>
       <c r="O103">
-        <v>38385.357218000005</v>
+        <v>37919.057218000002</v>
       </c>
       <c r="P103">
-        <v>39846.300000000003</v>
+        <v>39582.200000000004</v>
       </c>
       <c r="Q103">
         <v>41312.299999999996</v>
@@ -10106,7 +10111,7 @@
         <v>42453.340272000001</v>
       </c>
       <c r="S103">
-        <v>43110.400000000009</v>
+        <v>43108.200000000012</v>
       </c>
       <c r="T103">
         <v>43615.189956000009</v>
@@ -10165,34 +10170,34 @@
         <v>39678.686902000001</v>
       </c>
       <c r="G104">
-        <v>38090.621131</v>
+        <v>38064.921131000003</v>
       </c>
       <c r="H104">
-        <v>37105.200000000004</v>
+        <v>36652.400000000001</v>
       </c>
       <c r="I104">
-        <v>36394.384845999994</v>
+        <v>35903.284845999995</v>
       </c>
       <c r="J104">
-        <v>35375.734671999999</v>
+        <v>34886.134672</v>
       </c>
       <c r="K104">
-        <v>33778.199999999997</v>
+        <v>33292.6</v>
       </c>
       <c r="L104">
-        <v>32349.793175000006</v>
+        <v>31865.793175000006</v>
       </c>
       <c r="M104">
-        <v>33195.5</v>
+        <v>32541.5</v>
       </c>
       <c r="N104">
-        <v>35552.152436000004</v>
+        <v>34855.852436000001</v>
       </c>
       <c r="O104">
-        <v>37065.71746</v>
+        <v>36516.71746</v>
       </c>
       <c r="P104">
-        <v>38497.800000000003</v>
+        <v>38322.800000000003</v>
       </c>
       <c r="Q104">
         <v>39929.229324</v>
@@ -10260,31 +10265,31 @@
         <v>38626.267552000005</v>
       </c>
       <c r="G105">
-        <v>37562.178248000004</v>
+        <v>37328.978248000007</v>
       </c>
       <c r="H105">
-        <v>36789.146602999994</v>
+        <v>36178.846602999991</v>
       </c>
       <c r="I105">
-        <v>36196.371644999999</v>
+        <v>35464.571644999996</v>
       </c>
       <c r="J105">
-        <v>35147.299999999996</v>
+        <v>34424.899999999994</v>
       </c>
       <c r="K105">
-        <v>33171.970285000003</v>
+        <v>32452.170285000004</v>
       </c>
       <c r="L105">
-        <v>31385.344687999997</v>
+        <v>30687.844687999997</v>
       </c>
       <c r="M105">
-        <v>30691.501456000002</v>
+        <v>30453.501456000002</v>
       </c>
       <c r="N105">
-        <v>31839.136553999997</v>
+        <v>31415.236553999996</v>
       </c>
       <c r="O105">
-        <v>32851.071892000007</v>
+        <v>32656.671892000006</v>
       </c>
       <c r="P105">
         <v>34136.367530000003</v>
@@ -10355,37 +10360,37 @@
         <v>38846.423513999995</v>
       </c>
       <c r="G106">
-        <v>37672.180616000005</v>
+        <v>37490.680616000005</v>
       </c>
       <c r="H106">
-        <v>36586.592280999997</v>
+        <v>36226.192280999996</v>
       </c>
       <c r="I106">
-        <v>36052.798806000006</v>
+        <v>35561.298806000006</v>
       </c>
       <c r="J106">
-        <v>35169.174162000003</v>
+        <v>34557.174162000003</v>
       </c>
       <c r="K106">
-        <v>33745.5</v>
+        <v>33026.1</v>
       </c>
       <c r="L106">
-        <v>32711.393717999999</v>
+        <v>31999.293718000001</v>
       </c>
       <c r="M106">
-        <v>34080.680694000002</v>
+        <v>33531.480694000005</v>
       </c>
       <c r="N106">
-        <v>36413.635975000005</v>
+        <v>36109.435975000008</v>
       </c>
       <c r="O106">
-        <v>38326.645689000004</v>
+        <v>38092.045689000006</v>
       </c>
       <c r="P106">
-        <v>40176.510285000004</v>
+        <v>39943.610285000002</v>
       </c>
       <c r="Q106">
-        <v>41457.587834999998</v>
+        <v>41445.987835</v>
       </c>
       <c r="R106">
         <v>42508.067523999991</v>
@@ -10453,31 +10458,31 @@
         <v>38028.247312</v>
       </c>
       <c r="H107">
-        <v>36930.775399999999</v>
+        <v>36712.975399999996</v>
       </c>
       <c r="I107">
-        <v>36518.217499999999</v>
+        <v>36021.717499999999</v>
       </c>
       <c r="J107">
-        <v>35880.240826000001</v>
+        <v>35146.640826000003</v>
       </c>
       <c r="K107">
-        <v>34367.485425999999</v>
+        <v>33639.585425999998</v>
       </c>
       <c r="L107">
-        <v>33153.539157999992</v>
+        <v>32430.939157999994</v>
       </c>
       <c r="M107">
-        <v>34409.536203999996</v>
+        <v>33698.036203999996</v>
       </c>
       <c r="N107">
-        <v>36682.113613000001</v>
+        <v>36206.613613000001</v>
       </c>
       <c r="O107">
-        <v>38548.899999999994</v>
+        <v>38163.099999999991</v>
       </c>
       <c r="P107">
-        <v>40007.363494000005</v>
+        <v>39954.163494000008</v>
       </c>
       <c r="Q107">
         <v>41551.397568</v>
@@ -10545,28 +10550,28 @@
         <v>40058.323704999995</v>
       </c>
       <c r="G108">
-        <v>38682.700000000004</v>
+        <v>38677.800000000003</v>
       </c>
       <c r="H108">
-        <v>37900.584835000001</v>
+        <v>37586.484835000003</v>
       </c>
       <c r="I108">
-        <v>37730.36488999999</v>
+        <v>37039.964889999988</v>
       </c>
       <c r="J108">
-        <v>36641.478919999994</v>
+        <v>35911.878919999996</v>
       </c>
       <c r="K108">
-        <v>34974.700000000004</v>
+        <v>34253.600000000006</v>
       </c>
       <c r="L108">
-        <v>33616.912861999997</v>
+        <v>32900.012861999996</v>
       </c>
       <c r="M108">
-        <v>34322.923029000005</v>
+        <v>33614.123029000002</v>
       </c>
       <c r="N108">
-        <v>36100.400000000001</v>
+        <v>35710.400000000001</v>
       </c>
       <c r="O108">
         <v>38394.134724000003</v>
@@ -10643,28 +10648,28 @@
         <v>38803.5</v>
       </c>
       <c r="H109">
-        <v>37768.695744999997</v>
+        <v>37464.995745</v>
       </c>
       <c r="I109">
-        <v>37518.509496999999</v>
+        <v>36842.909497000001</v>
       </c>
       <c r="J109">
-        <v>36610.574840000001</v>
+        <v>35879.874840000004</v>
       </c>
       <c r="K109">
-        <v>35022.010260000003</v>
+        <v>34298.910260000004</v>
       </c>
       <c r="L109">
-        <v>33719.506980999999</v>
+        <v>33002.206980999996</v>
       </c>
       <c r="M109">
-        <v>34832.020755999998</v>
+        <v>34130.420756</v>
       </c>
       <c r="N109">
-        <v>36941.230126000002</v>
+        <v>36470.730126000002</v>
       </c>
       <c r="O109">
-        <v>38603.800000000003</v>
+        <v>38349.800000000003</v>
       </c>
       <c r="P109">
         <v>40063.800000000003</v>
@@ -10732,37 +10737,37 @@
         <v>5</v>
       </c>
       <c r="F110">
-        <v>38013.946587999999</v>
+        <v>37966.846588</v>
       </c>
       <c r="G110">
-        <v>37104.492474000006</v>
+        <v>36755.992474000006</v>
       </c>
       <c r="H110">
-        <v>36293.449459999989</v>
+        <v>35868.049459999987</v>
       </c>
       <c r="I110">
-        <v>36046.384547999995</v>
+        <v>35559.684547999997</v>
       </c>
       <c r="J110">
-        <v>35063.930772</v>
+        <v>34480.230772000003</v>
       </c>
       <c r="K110">
-        <v>32849.641713999998</v>
+        <v>32393.241713999996</v>
       </c>
       <c r="L110">
-        <v>30860.388072000002</v>
+        <v>30381.288072000003</v>
       </c>
       <c r="M110">
-        <v>30459.400342000001</v>
+        <v>29984.100342000002</v>
       </c>
       <c r="N110">
-        <v>30860.820008999995</v>
+        <v>30386.620008999995</v>
       </c>
       <c r="O110">
-        <v>31804.370155000001</v>
+        <v>31335.470154999999</v>
       </c>
       <c r="P110">
-        <v>32710.817096000002</v>
+        <v>32543.917096000001</v>
       </c>
       <c r="Q110">
         <v>33813.669993999996</v>
@@ -10830,34 +10835,34 @@
         <v>38057.946096</v>
       </c>
       <c r="G111">
-        <v>37056.824723999998</v>
+        <v>36827.424723999997</v>
       </c>
       <c r="H111">
-        <v>35835.599999999999</v>
+        <v>35590.5</v>
       </c>
       <c r="I111">
-        <v>35407.075973999999</v>
+        <v>34956.175973999998</v>
       </c>
       <c r="J111">
-        <v>34597.785903999997</v>
+        <v>34078.285903999997</v>
       </c>
       <c r="K111">
-        <v>33344.490224000008</v>
+        <v>32621.290224000008</v>
       </c>
       <c r="L111">
-        <v>32046.263923000002</v>
+        <v>31328.563923000002</v>
       </c>
       <c r="M111">
-        <v>32895.145786000001</v>
+        <v>32185.745785999999</v>
       </c>
       <c r="N111">
-        <v>34727.109793000003</v>
+        <v>34199.009793000005</v>
       </c>
       <c r="O111">
-        <v>36621.691409999999</v>
+        <v>36192.391409999997</v>
       </c>
       <c r="P111">
-        <v>37850.592051999993</v>
+        <v>37846.692051999991</v>
       </c>
       <c r="Q111">
         <v>39264.200000000004</v>
@@ -10928,28 +10933,28 @@
         <v>37186.979152</v>
       </c>
       <c r="H112">
-        <v>36710.741021999995</v>
+        <v>36366.641021999996</v>
       </c>
       <c r="I112">
-        <v>36483.504291000005</v>
+        <v>35996.204291000002</v>
       </c>
       <c r="J112">
-        <v>35428.115840999999</v>
+        <v>34892.915841000002</v>
       </c>
       <c r="K112">
-        <v>33658.665251999999</v>
+        <v>32934.565252</v>
       </c>
       <c r="L112">
-        <v>31874.171608000001</v>
+        <v>31152.971608</v>
       </c>
       <c r="M112">
-        <v>31543.654393000001</v>
+        <v>30831.854393000001</v>
       </c>
       <c r="N112">
-        <v>32366.816728000005</v>
+        <v>31662.616728000005</v>
       </c>
       <c r="O112">
-        <v>33128.885335999992</v>
+        <v>32921.485335999991</v>
       </c>
       <c r="P112">
         <v>34271.399999999994</v>
@@ -11023,34 +11028,34 @@
         <v>37774.226643000002</v>
       </c>
       <c r="H113">
-        <v>36855.692820000011</v>
+        <v>36571.392820000008</v>
       </c>
       <c r="I113">
-        <v>36113.977611999995</v>
+        <v>35846.877611999997</v>
       </c>
       <c r="J113">
-        <v>35124.555479999995</v>
+        <v>34990.255479999993</v>
       </c>
       <c r="K113">
-        <v>34008.269225000004</v>
+        <v>33423.669225000005</v>
       </c>
       <c r="L113">
-        <v>33025.604246000003</v>
+        <v>32302.704246000001</v>
       </c>
       <c r="M113">
-        <v>34378.1</v>
+        <v>33662.1</v>
       </c>
       <c r="N113">
-        <v>37103.600000000006</v>
+        <v>36457.600000000006</v>
       </c>
       <c r="O113">
-        <v>39162.051665999999</v>
+        <v>38689.051665999999</v>
       </c>
       <c r="P113">
-        <v>41062.307695000003</v>
+        <v>40594.307695000003</v>
       </c>
       <c r="Q113">
-        <v>42585.599999999999</v>
+        <v>42327.6</v>
       </c>
       <c r="R113">
         <v>43629.503198999999</v>
@@ -11077,13 +11082,13 @@
         <v>39516.922267999995</v>
       </c>
       <c r="Z113">
-        <v>41923.764867999991</v>
+        <v>41922.564867999994</v>
       </c>
       <c r="AA113">
-        <v>43266.728960000015</v>
+        <v>43260.928960000012</v>
       </c>
       <c r="AB113">
-        <v>42613.288408</v>
+        <v>42610.088408000003</v>
       </c>
       <c r="AC113">
         <v>41964.399999999994</v>
@@ -11124,31 +11129,31 @@
         <v>36890.985599999993</v>
       </c>
       <c r="J114">
-        <v>36407.745171999995</v>
+        <v>36096.745171999995</v>
       </c>
       <c r="K114">
-        <v>35026.167880000001</v>
+        <v>34244.467880000004</v>
       </c>
       <c r="L114">
-        <v>33819.027658999999</v>
+        <v>33059.027658999999</v>
       </c>
       <c r="M114">
-        <v>34952.004202000004</v>
+        <v>34229.804202000007</v>
       </c>
       <c r="N114">
-        <v>37321.827682000003</v>
+        <v>36692.727682000004</v>
       </c>
       <c r="O114">
-        <v>39280.599999999991</v>
+        <v>38806.899999999994</v>
       </c>
       <c r="P114">
-        <v>41107.062661999997</v>
+        <v>40637.462661999998</v>
       </c>
       <c r="Q114">
-        <v>42639.370021000002</v>
+        <v>42116.170021000005</v>
       </c>
       <c r="R114">
-        <v>43267.854991999993</v>
+        <v>43220.954991999992</v>
       </c>
       <c r="S114">
         <v>43588.943869999996</v>
@@ -11210,28 +11215,28 @@
         <v>40153.089838</v>
       </c>
       <c r="G115">
-        <v>38746.062886</v>
+        <v>38580.862886000003</v>
       </c>
       <c r="H115">
-        <v>37828.062632000001</v>
+        <v>37134.362632000004</v>
       </c>
       <c r="I115">
-        <v>37135.409300000007</v>
+        <v>36410.109300000004</v>
       </c>
       <c r="J115">
-        <v>36287.62717</v>
+        <v>35562.227169999998</v>
       </c>
       <c r="K115">
-        <v>34733.37505100001</v>
+        <v>34016.575051000007</v>
       </c>
       <c r="L115">
-        <v>33395.050873</v>
+        <v>32682.350872999999</v>
       </c>
       <c r="M115">
-        <v>34501.895991999998</v>
+        <v>33958.395991999998</v>
       </c>
       <c r="N115">
-        <v>36662.369210000004</v>
+        <v>36394.669210000007</v>
       </c>
       <c r="O115">
         <v>38573.897042999997</v>
@@ -11403,28 +11408,28 @@
         <v>37453.990998000001</v>
       </c>
       <c r="H117">
-        <v>36304.744655000002</v>
+        <v>36124.744655000002</v>
       </c>
       <c r="I117">
-        <v>35967.200000000004</v>
+        <v>35475.9</v>
       </c>
       <c r="J117">
-        <v>35452.755951999992</v>
+        <v>34799.855951999991</v>
       </c>
       <c r="K117">
-        <v>34030.211576999995</v>
+        <v>33302.111576999996</v>
       </c>
       <c r="L117">
-        <v>33153.843035999998</v>
+        <v>32432.443035999997</v>
       </c>
       <c r="M117">
-        <v>34374.299999999996</v>
+        <v>33660.499999999993</v>
       </c>
       <c r="N117">
-        <v>36686.505969999998</v>
+        <v>36137.805970000001</v>
       </c>
       <c r="O117">
-        <v>38599.297638999997</v>
+        <v>38220.397638999995</v>
       </c>
       <c r="P117">
         <v>40081</v>
@@ -11498,28 +11503,28 @@
         <v>38578.282664999992</v>
       </c>
       <c r="H118">
-        <v>37449.236187999995</v>
+        <v>37237.936187999992</v>
       </c>
       <c r="I118">
-        <v>36779.769636999998</v>
+        <v>36490.169636999999</v>
       </c>
       <c r="J118">
-        <v>36284.163779999995</v>
+        <v>35668.463779999998</v>
       </c>
       <c r="K118">
-        <v>34835.641677000014</v>
+        <v>34104.741677000013</v>
       </c>
       <c r="L118">
-        <v>33335.308615999995</v>
+        <v>32610.208615999996</v>
       </c>
       <c r="M118">
-        <v>34186.729824000002</v>
+        <v>33471.629824000003</v>
       </c>
       <c r="N118">
-        <v>36269.484582999998</v>
+        <v>35559.984582999998</v>
       </c>
       <c r="O118">
-        <v>37864.526720000002</v>
+        <v>37573.326720000005</v>
       </c>
       <c r="P118">
         <v>39419.5</v>
@@ -11587,34 +11592,34 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>39519.588135999998</v>
+        <v>39456.788135999996</v>
       </c>
       <c r="G119">
-        <v>38442.985219999995</v>
+        <v>38103.985219999995</v>
       </c>
       <c r="H119">
-        <v>37512.201978000012</v>
+        <v>36896.101978000013</v>
       </c>
       <c r="I119">
-        <v>36825.184263000003</v>
+        <v>36096.284263000001</v>
       </c>
       <c r="J119">
-        <v>35960.599999999991</v>
+        <v>35238.999999999993</v>
       </c>
       <c r="K119">
-        <v>34150.586299000002</v>
+        <v>33433.186299000001</v>
       </c>
       <c r="L119">
-        <v>32321.5592</v>
+        <v>31608.359199999999</v>
       </c>
       <c r="M119">
-        <v>31921.000000000007</v>
+        <v>31267.300000000007</v>
       </c>
       <c r="N119">
-        <v>32166.526409000002</v>
+        <v>31911.926409000003</v>
       </c>
       <c r="O119">
-        <v>33245.1</v>
+        <v>33221.599999999999</v>
       </c>
       <c r="P119">
         <v>34739.599999999991</v>
@@ -11685,25 +11690,25 @@
         <v>37548.764987999995</v>
       </c>
       <c r="G120">
-        <v>36455.569819999997</v>
+        <v>36240.36982</v>
       </c>
       <c r="H120">
-        <v>35252.588143999994</v>
+        <v>34785.988143999995</v>
       </c>
       <c r="I120">
-        <v>34099.509798999999</v>
+        <v>33623.209798999997</v>
       </c>
       <c r="J120">
-        <v>33376.9</v>
+        <v>32904.700000000004</v>
       </c>
       <c r="K120">
-        <v>32271.215707999992</v>
+        <v>31800.015707999992</v>
       </c>
       <c r="L120">
-        <v>30293.842448000003</v>
+        <v>29983.342448000003</v>
       </c>
       <c r="M120">
-        <v>29295.000000000007</v>
+        <v>29177.200000000008</v>
       </c>
       <c r="N120">
         <v>29752.953996000004</v>
@@ -12071,22 +12076,22 @@
         <v>32514.947019999992</v>
       </c>
       <c r="I124">
-        <v>31844.956795999999</v>
+        <v>31728.656795999999</v>
       </c>
       <c r="J124">
-        <v>31429.605861999997</v>
+        <v>31191.305861999997</v>
       </c>
       <c r="K124">
-        <v>30859.426544000005</v>
+        <v>30621.126544000006</v>
       </c>
       <c r="L124">
-        <v>29915.848224000005</v>
+        <v>29678.148224000004</v>
       </c>
       <c r="M124">
-        <v>30992.398435999996</v>
+        <v>30756.798435999997</v>
       </c>
       <c r="N124">
-        <v>33248.535402000001</v>
+        <v>33111.535402000001</v>
       </c>
       <c r="O124">
         <v>34979.113812000003</v>
@@ -12448,28 +12453,28 @@
         <v>35745.603367999996</v>
       </c>
       <c r="H128">
-        <v>34439.032007999995</v>
+        <v>34320.832007999998</v>
       </c>
       <c r="I128">
-        <v>33612.435445000003</v>
+        <v>33372.635445</v>
       </c>
       <c r="J128">
-        <v>33072.000000000007</v>
+        <v>32833.100000000006</v>
       </c>
       <c r="K128">
-        <v>32376.570029999999</v>
+        <v>32137.97003</v>
       </c>
       <c r="L128">
-        <v>31197.811510000003</v>
+        <v>30959.911510000002</v>
       </c>
       <c r="M128">
-        <v>32273.463923000003</v>
+        <v>32036.363923000004</v>
       </c>
       <c r="N128">
-        <v>34772.570370000001</v>
+        <v>34537.070370000001</v>
       </c>
       <c r="O128">
-        <v>36725.762609999998</v>
+        <v>36679.062610000001</v>
       </c>
       <c r="P128">
         <v>38597.64568799999</v>
@@ -12543,25 +12548,25 @@
         <v>35973.187499</v>
       </c>
       <c r="H129">
-        <v>34767.065053000006</v>
+        <v>34571.365053000009</v>
       </c>
       <c r="I129">
-        <v>33867.199999999997</v>
+        <v>33629.299999999996</v>
       </c>
       <c r="J129">
-        <v>33176.6</v>
+        <v>32939.5</v>
       </c>
       <c r="K129">
-        <v>32510.060211</v>
+        <v>32273.760211000001</v>
       </c>
       <c r="L129">
-        <v>31318.024649000003</v>
+        <v>31082.124649000001</v>
       </c>
       <c r="M129">
-        <v>32369.255038000003</v>
+        <v>32134.355038000002</v>
       </c>
       <c r="N129">
-        <v>34782.843746000006</v>
+        <v>34681.643746000009</v>
       </c>
       <c r="O129">
         <v>37015.681409999997</v>
@@ -12638,31 +12643,31 @@
         <v>36816.365046999992</v>
       </c>
       <c r="H130">
-        <v>35385.921373999998</v>
+        <v>35270.521373999996</v>
       </c>
       <c r="I130">
-        <v>34529.567770000001</v>
+        <v>34281.867770000004</v>
       </c>
       <c r="J130">
-        <v>33858.507135</v>
+        <v>33611.907135000001</v>
       </c>
       <c r="K130">
-        <v>33136.5</v>
+        <v>32890.6</v>
       </c>
       <c r="L130">
-        <v>31891.227140000003</v>
+        <v>31644.727140000003</v>
       </c>
       <c r="M130">
-        <v>33124.662521999999</v>
+        <v>32880.462522000002</v>
       </c>
       <c r="N130">
-        <v>35702.266802000006</v>
+        <v>35460.066802000008</v>
       </c>
       <c r="O130">
-        <v>38019.499999999993</v>
+        <v>37778.299999999996</v>
       </c>
       <c r="P130">
-        <v>39845.099323999988</v>
+        <v>39792.799323999985</v>
       </c>
       <c r="Q130">
         <v>41675.608145999991</v>
@@ -12671,25 +12676,25 @@
         <v>42748.248925</v>
       </c>
       <c r="S130">
-        <v>43215.342266</v>
+        <v>43211.542265999997</v>
       </c>
       <c r="T130">
-        <v>43727.9</v>
+        <v>43722.400000000001</v>
       </c>
       <c r="U130">
-        <v>43630.715552000001</v>
+        <v>43619.715552000001</v>
       </c>
       <c r="V130">
-        <v>43085.546453999988</v>
+        <v>43076.346453999991</v>
       </c>
       <c r="W130">
-        <v>41898.608572000012</v>
+        <v>41889.008572000013</v>
       </c>
       <c r="X130">
-        <v>39719.241646000002</v>
+        <v>39709.841646000001</v>
       </c>
       <c r="Y130">
-        <v>38027.922424000011</v>
+        <v>38023.52242400001</v>
       </c>
       <c r="Z130">
         <v>40376.831512000004</v>
@@ -12730,31 +12735,31 @@
         <v>39121.853922999995</v>
       </c>
       <c r="G131">
-        <v>37445.538428000007</v>
+        <v>37200.138428000006</v>
       </c>
       <c r="H131">
-        <v>36100.781346000003</v>
+        <v>35686.281346000003</v>
       </c>
       <c r="I131">
-        <v>35086.000000000007</v>
+        <v>34597.100000000006</v>
       </c>
       <c r="J131">
-        <v>34441.172798000007</v>
+        <v>33828.772798000005</v>
       </c>
       <c r="K131">
-        <v>33841.238153999999</v>
+        <v>33119.538154000002</v>
       </c>
       <c r="L131">
-        <v>32566.163595000009</v>
+        <v>31850.463595000008</v>
       </c>
       <c r="M131">
-        <v>33712.850662000004</v>
+        <v>33005.550662000001</v>
       </c>
       <c r="N131">
-        <v>36167.115556000004</v>
+        <v>35585.215556000003</v>
       </c>
       <c r="O131">
-        <v>37885.496819999993</v>
+        <v>37877.69681999999</v>
       </c>
       <c r="P131">
         <v>39916.563627000003</v>
@@ -12775,28 +12780,28 @@
         <v>43909.399999999994</v>
       </c>
       <c r="V131">
-        <v>43213.871536000006</v>
+        <v>43211.071536000003</v>
       </c>
       <c r="W131">
-        <v>42060.422731999999</v>
+        <v>42049.722732000002</v>
       </c>
       <c r="X131">
-        <v>39831.198168000003</v>
+        <v>39820.598168000004</v>
       </c>
       <c r="Y131">
-        <v>38297.828388999995</v>
+        <v>38293.028388999992</v>
       </c>
       <c r="Z131">
-        <v>40594.399999999994</v>
+        <v>40589.799999999996</v>
       </c>
       <c r="AA131">
-        <v>42492.791409999998</v>
+        <v>42487.791409999998</v>
       </c>
       <c r="AB131">
-        <v>41930.634398000009</v>
+        <v>41925.334398000006</v>
       </c>
       <c r="AC131">
-        <v>40951.887559000003</v>
+        <v>40947.287559000004</v>
       </c>
       <c r="AD131">
         <v>0</v>
@@ -12828,31 +12833,31 @@
         <v>37498.1</v>
       </c>
       <c r="H132">
-        <v>36003.161236</v>
+        <v>35951.961236000003</v>
       </c>
       <c r="I132">
-        <v>35428.717784999993</v>
+        <v>34959.717784999993</v>
       </c>
       <c r="J132">
-        <v>34658.082863000003</v>
+        <v>34156.882863000006</v>
       </c>
       <c r="K132">
-        <v>34042.017607000009</v>
+        <v>33314.617607000007</v>
       </c>
       <c r="L132">
-        <v>32733.537443999994</v>
+        <v>32010.037443999994</v>
       </c>
       <c r="M132">
-        <v>33545.370273999994</v>
+        <v>32832.870273999994</v>
       </c>
       <c r="N132">
-        <v>35722.966258</v>
+        <v>35065.466258</v>
       </c>
       <c r="O132">
-        <v>37500.945145999998</v>
+        <v>37263.845146</v>
       </c>
       <c r="P132">
-        <v>39435.855445000001</v>
+        <v>39319.955445</v>
       </c>
       <c r="Q132">
         <v>41026.6</v>
@@ -12867,10 +12872,10 @@
         <v>42284.200000000012</v>
       </c>
       <c r="U132">
-        <v>42090.557243999996</v>
+        <v>42084.657243999995</v>
       </c>
       <c r="V132">
-        <v>41340.199999999997</v>
+        <v>41338.199999999997</v>
       </c>
       <c r="W132">
         <v>40376.580488000007</v>
@@ -12926,31 +12931,31 @@
         <v>35284.757525000001</v>
       </c>
       <c r="I133">
-        <v>34303.875341000006</v>
+        <v>34244.775341000008</v>
       </c>
       <c r="J133">
-        <v>34030.029540999996</v>
+        <v>33406.129540999995</v>
       </c>
       <c r="K133">
-        <v>33275.192315</v>
+        <v>32540.992315</v>
       </c>
       <c r="L133">
-        <v>31534.699516000001</v>
+        <v>30804.699516000001</v>
       </c>
       <c r="M133">
-        <v>31029.760035999992</v>
+        <v>30305.260035999992</v>
       </c>
       <c r="N133">
-        <v>31970</v>
+        <v>31254.6</v>
       </c>
       <c r="O133">
-        <v>33224.641428000003</v>
+        <v>32617.041428000004</v>
       </c>
       <c r="P133">
-        <v>34565.5</v>
+        <v>34267.599999999999</v>
       </c>
       <c r="Q133">
-        <v>35926.094277999997</v>
+        <v>35886.894278</v>
       </c>
       <c r="R133">
         <v>37135.133620000001</v>
@@ -13021,28 +13026,28 @@
         <v>34858.167843999996</v>
       </c>
       <c r="I134">
-        <v>33835.300000000003</v>
+        <v>33742.600000000006</v>
       </c>
       <c r="J134">
-        <v>33364.817242999998</v>
+        <v>33126.517242999995</v>
       </c>
       <c r="K134">
-        <v>32663.033188000005</v>
+        <v>32425.433188000006</v>
       </c>
       <c r="L134">
-        <v>31649.030449000002</v>
+        <v>31411.630449</v>
       </c>
       <c r="M134">
-        <v>32989.876353</v>
+        <v>32754.476352999998</v>
       </c>
       <c r="N134">
-        <v>35588.602188000004</v>
+        <v>35353.102188000004</v>
       </c>
       <c r="O134">
-        <v>38058.405514999999</v>
+        <v>37824.905514999999</v>
       </c>
       <c r="P134">
-        <v>39812.718278</v>
+        <v>39758.618278000002</v>
       </c>
       <c r="Q134">
         <v>41677</v>
@@ -13054,19 +13059,19 @@
         <v>43380.337519999994</v>
       </c>
       <c r="T134">
-        <v>44276.237174000002</v>
+        <v>44273.337174</v>
       </c>
       <c r="U134">
-        <v>44154.902946000017</v>
+        <v>44152.302946000018</v>
       </c>
       <c r="V134">
-        <v>43724.590162</v>
+        <v>43720.790161999998</v>
       </c>
       <c r="W134">
-        <v>42615.088858000003</v>
+        <v>42611.088858000003</v>
       </c>
       <c r="X134">
-        <v>40511.487079999992</v>
+        <v>40507.787079999995</v>
       </c>
       <c r="Y134">
         <v>38780.288552000005</v>
@@ -13107,31 +13112,31 @@
         <v>1</v>
       </c>
       <c r="F135">
-        <v>39700.628271999994</v>
+        <v>39679.528271999996</v>
       </c>
       <c r="G135">
-        <v>38137.687820000006</v>
+        <v>37664.087820000008</v>
       </c>
       <c r="H135">
-        <v>36872.789778000006</v>
+        <v>36193.989778000003</v>
       </c>
       <c r="I135">
-        <v>35856.114259999995</v>
+        <v>35125.714259999993</v>
       </c>
       <c r="J135">
-        <v>35104.938167000008</v>
+        <v>34383.538167000006</v>
       </c>
       <c r="K135">
-        <v>34375.9</v>
+        <v>33661.300000000003</v>
       </c>
       <c r="L135">
-        <v>33125.326288999997</v>
+        <v>32432.126288999996</v>
       </c>
       <c r="M135">
-        <v>33946.175572</v>
+        <v>33478.275571999999</v>
       </c>
       <c r="N135">
-        <v>36136.667093000004</v>
+        <v>36035.767093000002</v>
       </c>
       <c r="O135">
         <v>38393.568984999998</v>
@@ -13158,25 +13163,25 @@
         <v>43821.8</v>
       </c>
       <c r="W135">
-        <v>42822.237491999993</v>
+        <v>42813.737491999993</v>
       </c>
       <c r="X135">
-        <v>40588.751887999999</v>
+        <v>40578.051888000002</v>
       </c>
       <c r="Y135">
-        <v>38992.664820000005</v>
+        <v>38981.564820000007</v>
       </c>
       <c r="Z135">
-        <v>41421.847580000001</v>
+        <v>41412.347580000001</v>
       </c>
       <c r="AA135">
-        <v>43100.262562000004</v>
+        <v>43091.062562000006</v>
       </c>
       <c r="AB135">
-        <v>42519.694919999994</v>
+        <v>42510.794919999993</v>
       </c>
       <c r="AC135">
-        <v>41501.670750000005</v>
+        <v>41491.170750000005</v>
       </c>
       <c r="AD135">
         <v>0</v>
@@ -13202,34 +13207,34 @@
         <v>1</v>
       </c>
       <c r="F136">
-        <v>39768.570500999995</v>
+        <v>39764.270500999992</v>
       </c>
       <c r="G136">
-        <v>38059.148079999999</v>
+        <v>37910.04808</v>
       </c>
       <c r="H136">
-        <v>36816.832014</v>
+        <v>36157.032013999997</v>
       </c>
       <c r="I136">
-        <v>35865.209665000002</v>
+        <v>35137.109665000004</v>
       </c>
       <c r="J136">
-        <v>35144.6</v>
+        <v>34422.6</v>
       </c>
       <c r="K136">
-        <v>34386.64518</v>
+        <v>33667.845179999997</v>
       </c>
       <c r="L136">
-        <v>33060.639191999995</v>
+        <v>32348.139191999995</v>
       </c>
       <c r="M136">
-        <v>34128</v>
+        <v>33429.300000000003</v>
       </c>
       <c r="N136">
-        <v>36388.1</v>
+        <v>36074.799999999996</v>
       </c>
       <c r="O136">
-        <v>38388.812208000003</v>
+        <v>38333.812208000003</v>
       </c>
       <c r="P136">
         <v>40331.031112000004</v>
@@ -13256,22 +13261,22 @@
         <v>42240.274969999991</v>
       </c>
       <c r="X136">
-        <v>39904.077799999992</v>
+        <v>39899.17779999999</v>
       </c>
       <c r="Y136">
-        <v>38262.049948</v>
+        <v>38256.049948</v>
       </c>
       <c r="Z136">
-        <v>40768.633178000011</v>
+        <v>40762.333178000008</v>
       </c>
       <c r="AA136">
-        <v>42352.440964000001</v>
+        <v>42346.440964000001</v>
       </c>
       <c r="AB136">
-        <v>41788.998372000009</v>
+        <v>41783.398372000011</v>
       </c>
       <c r="AC136">
-        <v>40680.477052000002</v>
+        <v>40675.177051999999</v>
       </c>
       <c r="AD136">
         <v>0</v>
@@ -13300,31 +13305,31 @@
         <v>39102.798078000007</v>
       </c>
       <c r="G137">
-        <v>37233.928203000003</v>
+        <v>37102.828203000005</v>
       </c>
       <c r="H137">
-        <v>36112.063432000003</v>
+        <v>35645.563432000003</v>
       </c>
       <c r="I137">
-        <v>35499.985084</v>
+        <v>34813.985084</v>
       </c>
       <c r="J137">
-        <v>34829.616370000003</v>
+        <v>34100.016370000005</v>
       </c>
       <c r="K137">
-        <v>34103.781515000002</v>
+        <v>33376.881515000001</v>
       </c>
       <c r="L137">
-        <v>32765.267595999998</v>
+        <v>32044.767595999998</v>
       </c>
       <c r="M137">
-        <v>33820.215600999996</v>
+        <v>33109.215600999996</v>
       </c>
       <c r="N137">
-        <v>36235.980425999995</v>
+        <v>35754.080425999993</v>
       </c>
       <c r="O137">
-        <v>38077.446173000011</v>
+        <v>37990.946173000011</v>
       </c>
       <c r="P137">
         <v>39957.899999999994</v>
@@ -13333,40 +13338,40 @@
         <v>41749.409156000002</v>
       </c>
       <c r="R137">
-        <v>43077.271584000002</v>
+        <v>43075.771584000002</v>
       </c>
       <c r="S137">
-        <v>43374.200000000012</v>
+        <v>43370.200000000012</v>
       </c>
       <c r="T137">
-        <v>43925.991174000003</v>
+        <v>43921.891174000004</v>
       </c>
       <c r="U137">
-        <v>43618.964210999991</v>
+        <v>43614.764210999994</v>
       </c>
       <c r="V137">
-        <v>43358.715432000012</v>
+        <v>43354.515432000015</v>
       </c>
       <c r="W137">
-        <v>42198.484664000003</v>
+        <v>42194.584664000002</v>
       </c>
       <c r="X137">
-        <v>40248.962831000004</v>
+        <v>40244.762831000007</v>
       </c>
       <c r="Y137">
-        <v>38602.940644000002</v>
+        <v>38598.440644000002</v>
       </c>
       <c r="Z137">
-        <v>40994.166538000005</v>
+        <v>40989.966538000008</v>
       </c>
       <c r="AA137">
-        <v>42615.603913999999</v>
+        <v>42611.403914000002</v>
       </c>
       <c r="AB137">
-        <v>42044.4</v>
+        <v>42039.6</v>
       </c>
       <c r="AC137">
-        <v>40973.937769999997</v>
+        <v>40969.437769999997</v>
       </c>
       <c r="AD137">
         <v>0</v>
@@ -13392,76 +13397,76 @@
         <v>1</v>
       </c>
       <c r="F138">
-        <v>39218.665121999999</v>
+        <v>39213.965122000001</v>
       </c>
       <c r="G138">
-        <v>37261.634680000003</v>
+        <v>37234.934680000006</v>
       </c>
       <c r="H138">
-        <v>36260.6</v>
+        <v>35780.199999999997</v>
       </c>
       <c r="I138">
-        <v>35491.756440000005</v>
+        <v>34758.356440000003</v>
       </c>
       <c r="J138">
-        <v>34866.821399</v>
+        <v>34140.721399000002</v>
       </c>
       <c r="K138">
-        <v>34019.423080999994</v>
+        <v>33298.623080999991</v>
       </c>
       <c r="L138">
-        <v>32573.708537000006</v>
+        <v>31859.408537000007</v>
       </c>
       <c r="M138">
-        <v>33760.299999999996</v>
+        <v>33052.899999999994</v>
       </c>
       <c r="N138">
-        <v>35979.311887999997</v>
+        <v>35674.511887999994</v>
       </c>
       <c r="O138">
-        <v>37870.582637999993</v>
+        <v>37865.982637999994</v>
       </c>
       <c r="P138">
-        <v>40021.016991999997</v>
+        <v>40016.116991999996</v>
       </c>
       <c r="Q138">
-        <v>41828.056868</v>
+        <v>41825.356868000003</v>
       </c>
       <c r="R138">
-        <v>43161.3</v>
+        <v>43156.700000000004</v>
       </c>
       <c r="S138">
-        <v>43692.576199000003</v>
+        <v>43687.976199000004</v>
       </c>
       <c r="T138">
-        <v>44050.839518999994</v>
+        <v>44046.139518999997</v>
       </c>
       <c r="U138">
-        <v>43937.503604999998</v>
+        <v>43932.903605</v>
       </c>
       <c r="V138">
-        <v>43648.400000000009</v>
+        <v>43643.700000000012</v>
       </c>
       <c r="W138">
-        <v>42576.810984999996</v>
+        <v>42572.310984999996</v>
       </c>
       <c r="X138">
-        <v>40330.974426000008</v>
+        <v>40326.474426000008</v>
       </c>
       <c r="Y138">
-        <v>38553.189304999993</v>
+        <v>38548.189304999993</v>
       </c>
       <c r="Z138">
-        <v>41080.699999999997</v>
+        <v>41076</v>
       </c>
       <c r="AA138">
-        <v>42569.375943999992</v>
+        <v>42564.875943999992</v>
       </c>
       <c r="AB138">
-        <v>41918.580051999998</v>
+        <v>41913.680051999996</v>
       </c>
       <c r="AC138">
-        <v>40988.937197999992</v>
+        <v>40984.337197999994</v>
       </c>
       <c r="AD138">
         <v>0</v>
@@ -13487,34 +13492,34 @@
         <v>1</v>
       </c>
       <c r="F139">
-        <v>39301.152516000002</v>
+        <v>39298.452516000005</v>
       </c>
       <c r="G139">
-        <v>37687.199999999997</v>
+        <v>37498.1</v>
       </c>
       <c r="H139">
-        <v>36611.326414999996</v>
+        <v>35981.226414999997</v>
       </c>
       <c r="I139">
-        <v>35748.200000000004</v>
+        <v>35011.9</v>
       </c>
       <c r="J139">
-        <v>34989.348621999998</v>
+        <v>34258.448621999996</v>
       </c>
       <c r="K139">
-        <v>34194.351739999998</v>
+        <v>33468.451739999997</v>
       </c>
       <c r="L139">
-        <v>32758.949155000002</v>
+        <v>32042.649155000003</v>
       </c>
       <c r="M139">
-        <v>33087.1</v>
+        <v>32589</v>
       </c>
       <c r="N139">
-        <v>35383.09319</v>
+        <v>34936.493190000001</v>
       </c>
       <c r="O139">
-        <v>37223.163586000002</v>
+        <v>37179.363585999999</v>
       </c>
       <c r="P139">
         <v>39253.291087999998</v>
@@ -13588,25 +13593,25 @@
         <v>37034.660019999996</v>
       </c>
       <c r="H140">
-        <v>35906.466737999996</v>
+        <v>35695.466737999996</v>
       </c>
       <c r="I140">
-        <v>35172.572680000005</v>
+        <v>34686.072680000005</v>
       </c>
       <c r="J140">
-        <v>34288.823625999998</v>
+        <v>33805.223625999999</v>
       </c>
       <c r="K140">
-        <v>33465.565023999996</v>
+        <v>32984.665023999994</v>
       </c>
       <c r="L140">
-        <v>31592.353215999996</v>
+        <v>31112.753215999997</v>
       </c>
       <c r="M140">
-        <v>30967.199999999997</v>
+        <v>30491.599999999999</v>
       </c>
       <c r="N140">
-        <v>31435.042926000002</v>
+        <v>31210.442926000003</v>
       </c>
       <c r="O140">
         <v>32536.152712000003</v>
@@ -13778,31 +13783,31 @@
         <v>37040.437274000004</v>
       </c>
       <c r="H142">
-        <v>35937.624988000003</v>
+        <v>35581.424988000006</v>
       </c>
       <c r="I142">
-        <v>35213.724232</v>
+        <v>34603.924231999998</v>
       </c>
       <c r="J142">
-        <v>34744.58554</v>
+        <v>34015.285539999997</v>
       </c>
       <c r="K142">
-        <v>34060.049974000001</v>
+        <v>33337.649974</v>
       </c>
       <c r="L142">
-        <v>32850.594122000002</v>
+        <v>32133.994122000004</v>
       </c>
       <c r="M142">
-        <v>33571.241526999998</v>
+        <v>32872.841526999997</v>
       </c>
       <c r="N142">
-        <v>35709.307915999998</v>
+        <v>35340.107916000001</v>
       </c>
       <c r="O142">
-        <v>37598.9</v>
+        <v>37365.1</v>
       </c>
       <c r="P142">
-        <v>39407.582672000004</v>
+        <v>39279.382672000007</v>
       </c>
       <c r="Q142">
         <v>40901.160565000006</v>
@@ -13870,28 +13875,28 @@
         <v>37782.799999999996</v>
       </c>
       <c r="G143">
-        <v>36030.091211999999</v>
+        <v>35825.191211999998</v>
       </c>
       <c r="H143">
-        <v>35112.361055999994</v>
+        <v>34489.361055999994</v>
       </c>
       <c r="I143">
-        <v>34329.161263000002</v>
+        <v>33599.261263</v>
       </c>
       <c r="J143">
-        <v>33764.729788999997</v>
+        <v>33041.829788999996</v>
       </c>
       <c r="K143">
-        <v>33206.222507999999</v>
+        <v>32487.622508</v>
       </c>
       <c r="L143">
-        <v>32137.199999999997</v>
+        <v>31423.699999999997</v>
       </c>
       <c r="M143">
-        <v>32862.952835999997</v>
+        <v>32162.352835999998</v>
       </c>
       <c r="N143">
-        <v>34857.814274000004</v>
+        <v>34647.914274000002</v>
       </c>
       <c r="O143">
         <v>36698.046639</v>
@@ -13965,28 +13970,28 @@
         <v>38124.484336000001</v>
       </c>
       <c r="G144">
-        <v>36559.414101999995</v>
+        <v>36261.314101999997</v>
       </c>
       <c r="H144">
-        <v>35371.533014999994</v>
+        <v>34630.433014999995</v>
       </c>
       <c r="I144">
-        <v>34393.590884000005</v>
+        <v>33661.790884000002</v>
       </c>
       <c r="J144">
-        <v>33641.868792999994</v>
+        <v>32916.968792999993</v>
       </c>
       <c r="K144">
-        <v>32891.509473000006</v>
+        <v>32173.909473000007</v>
       </c>
       <c r="L144">
-        <v>31308.579696000004</v>
+        <v>30594.679696000003</v>
       </c>
       <c r="M144">
-        <v>30759.997110000004</v>
+        <v>30123.897110000005</v>
       </c>
       <c r="N144">
-        <v>31315.799130000003</v>
+        <v>31229.599130000002</v>
       </c>
       <c r="O144">
         <v>32556.790482999997</v>
@@ -14069,25 +14074,25 @@
         <v>33222.707461999998</v>
       </c>
       <c r="J145">
-        <v>32715.199999999997</v>
+        <v>32543.1</v>
       </c>
       <c r="K145">
-        <v>32160.316218</v>
+        <v>31921.116217999999</v>
       </c>
       <c r="L145">
-        <v>30971.613511</v>
+        <v>30732.813511</v>
       </c>
       <c r="M145">
-        <v>31838.088767000008</v>
+        <v>31600.98876700001</v>
       </c>
       <c r="N145">
-        <v>34433.906504000006</v>
+        <v>34198.306504000007</v>
       </c>
       <c r="O145">
-        <v>36636.821323999997</v>
+        <v>36512.321323999997</v>
       </c>
       <c r="P145">
-        <v>38364.064154</v>
+        <v>38264.064154</v>
       </c>
       <c r="Q145">
         <v>40140.903416000008</v>
@@ -14155,31 +14160,31 @@
         <v>38361.111163999994</v>
       </c>
       <c r="G146">
-        <v>36605.535030000006</v>
+        <v>36528.435030000008</v>
       </c>
       <c r="H146">
-        <v>35675.9</v>
+        <v>35071.300000000003</v>
       </c>
       <c r="I146">
-        <v>34726</v>
+        <v>33997.300000000003</v>
       </c>
       <c r="J146">
-        <v>34014.87386</v>
+        <v>33293.673860000003</v>
       </c>
       <c r="K146">
-        <v>33278.140048000001</v>
+        <v>32559.340048000002</v>
       </c>
       <c r="L146">
-        <v>31922.664755999995</v>
+        <v>31209.564755999996</v>
       </c>
       <c r="M146">
-        <v>32157.084708999999</v>
+        <v>31644.484709</v>
       </c>
       <c r="N146">
-        <v>33962.027031999998</v>
+        <v>33728.727031999995</v>
       </c>
       <c r="O146">
-        <v>35999.250316999998</v>
+        <v>35964.450316999995</v>
       </c>
       <c r="P146">
         <v>37953.663284000002</v>
@@ -14250,28 +14255,28 @@
         <v>37578.141280999997</v>
       </c>
       <c r="G147">
-        <v>36205.241348000003</v>
+        <v>35984.741348000003</v>
       </c>
       <c r="H147">
-        <v>35259.200000000004</v>
+        <v>34657.200000000004</v>
       </c>
       <c r="I147">
-        <v>34255.413855999999</v>
+        <v>33524.913855999999</v>
       </c>
       <c r="J147">
-        <v>33439.278855999997</v>
+        <v>32715.878855999996</v>
       </c>
       <c r="K147">
-        <v>32567.669107999998</v>
+        <v>31850.569108</v>
       </c>
       <c r="L147">
-        <v>30919.200000000001</v>
+        <v>30206</v>
       </c>
       <c r="M147">
-        <v>29744.083558000006</v>
+        <v>29280.283558000006</v>
       </c>
       <c r="N147">
-        <v>30248.552178000005</v>
+        <v>30189.752178000006</v>
       </c>
       <c r="O147">
         <v>31532.288991999998</v>
@@ -14360,10 +14365,10 @@
         <v>32246.696695999999</v>
       </c>
       <c r="L148">
-        <v>31338.391780999998</v>
+        <v>31192.291781</v>
       </c>
       <c r="M148">
-        <v>32406.267320000003</v>
+        <v>32248.867320000001</v>
       </c>
       <c r="N148">
         <v>34862.5</v>
@@ -14381,37 +14386,37 @@
         <v>42857.602712000007</v>
       </c>
       <c r="S148">
-        <v>43393.483286000002</v>
+        <v>43386.383286000004</v>
       </c>
       <c r="T148">
-        <v>43979.799999999996</v>
+        <v>43972.299999999996</v>
       </c>
       <c r="U148">
-        <v>44024.600000000006</v>
+        <v>44016.200000000004</v>
       </c>
       <c r="V148">
-        <v>43665.963205000007</v>
+        <v>43657.863205000009</v>
       </c>
       <c r="W148">
-        <v>42388.078988000001</v>
+        <v>42379.478988000003</v>
       </c>
       <c r="X148">
-        <v>40022.420193999998</v>
+        <v>40014.420193999998</v>
       </c>
       <c r="Y148">
-        <v>38719.100000000006</v>
+        <v>38710.100000000006</v>
       </c>
       <c r="Z148">
-        <v>41695.699999999997</v>
+        <v>41687.299999999996</v>
       </c>
       <c r="AA148">
-        <v>42830.490234999997</v>
+        <v>42821.190234999995</v>
       </c>
       <c r="AB148">
-        <v>42210.350549999988</v>
+        <v>42201.25054999999</v>
       </c>
       <c r="AC148">
-        <v>40996.296486999992</v>
+        <v>40984.796486999992</v>
       </c>
       <c r="AD148">
         <v>0</v>
@@ -14443,28 +14448,28 @@
         <v>37215.362792</v>
       </c>
       <c r="H149">
-        <v>36019.326266000004</v>
+        <v>35712.826266000004</v>
       </c>
       <c r="I149">
-        <v>35482.6</v>
+        <v>34749.599999999999</v>
       </c>
       <c r="J149">
-        <v>34718.800000000003</v>
+        <v>33991.5</v>
       </c>
       <c r="K149">
-        <v>34053.891073999999</v>
+        <v>33331.691074000002</v>
       </c>
       <c r="L149">
-        <v>32811.964523999995</v>
+        <v>32096.164523999996</v>
       </c>
       <c r="M149">
-        <v>33578.400000000001</v>
+        <v>32869.9</v>
       </c>
       <c r="N149">
-        <v>35895.199999999997</v>
+        <v>35389.799999999996</v>
       </c>
       <c r="O149">
-        <v>37900.741371999997</v>
+        <v>37792.641371999998</v>
       </c>
       <c r="P149">
         <v>39870.798540000011</v>
@@ -14473,40 +14478,40 @@
         <v>41787.035509000001</v>
       </c>
       <c r="R149">
-        <v>43306.43278000001</v>
+        <v>43303.93278000001</v>
       </c>
       <c r="S149">
-        <v>43833.785955999992</v>
+        <v>43830.385955999991</v>
       </c>
       <c r="T149">
-        <v>44404.271836000007</v>
+        <v>44400.371836000006</v>
       </c>
       <c r="U149">
-        <v>44351.5</v>
+        <v>44347.3</v>
       </c>
       <c r="V149">
-        <v>43857.200000000004</v>
+        <v>43853.200000000004</v>
       </c>
       <c r="W149">
-        <v>42849.195583000001</v>
+        <v>42845.495583000004</v>
       </c>
       <c r="X149">
-        <v>40556.955441999999</v>
+        <v>40552.655441999996</v>
       </c>
       <c r="Y149">
-        <v>39203.058888</v>
+        <v>39198.458888000001</v>
       </c>
       <c r="Z149">
-        <v>42201.948804000007</v>
+        <v>42195.848804000008</v>
       </c>
       <c r="AA149">
-        <v>43100.498922999999</v>
+        <v>43091.898923000001</v>
       </c>
       <c r="AB149">
-        <v>42317.784398000003</v>
+        <v>42309.184398000005</v>
       </c>
       <c r="AC149">
-        <v>41307.199999999997</v>
+        <v>41298.199999999997</v>
       </c>
       <c r="AD149">
         <v>0</v>
@@ -14532,31 +14537,31 @@
         <v>1</v>
       </c>
       <c r="F150">
-        <v>39619.379044000001</v>
+        <v>39522.479044</v>
       </c>
       <c r="G150">
-        <v>37952.287264000006</v>
+        <v>37664.387264000005</v>
       </c>
       <c r="H150">
-        <v>36626.548083000001</v>
+        <v>36182.048083000001</v>
       </c>
       <c r="I150">
-        <v>35580.539184000001</v>
+        <v>35089.139184</v>
       </c>
       <c r="J150">
-        <v>35108.750049999995</v>
+        <v>34383.150049999997</v>
       </c>
       <c r="K150">
-        <v>34500.255975</v>
+        <v>33782.155975000001</v>
       </c>
       <c r="L150">
-        <v>33168.059540000002</v>
+        <v>32454.259540000003</v>
       </c>
       <c r="M150">
-        <v>33863.658722</v>
+        <v>33156.858721999997</v>
       </c>
       <c r="N150">
-        <v>36260.124188000002</v>
+        <v>35792.824187999999</v>
       </c>
       <c r="O150">
         <v>38164</v>
@@ -14568,40 +14573,40 @@
         <v>42057.682352000003</v>
       </c>
       <c r="R150">
-        <v>43439.6</v>
+        <v>43438.1</v>
       </c>
       <c r="S150">
-        <v>43854.725900000005</v>
+        <v>43850.525900000008</v>
       </c>
       <c r="T150">
-        <v>44394.817945999996</v>
+        <v>44390.917945999994</v>
       </c>
       <c r="U150">
-        <v>44380.316824000001</v>
+        <v>44376.116824000004</v>
       </c>
       <c r="V150">
-        <v>43943.932037999992</v>
+        <v>43939.732037999995</v>
       </c>
       <c r="W150">
-        <v>42732.133434000003</v>
+        <v>42727.833434</v>
       </c>
       <c r="X150">
-        <v>40522.299261999986</v>
+        <v>40518.099261999989</v>
       </c>
       <c r="Y150">
-        <v>39369.900000000009</v>
+        <v>39366.100000000006</v>
       </c>
       <c r="Z150">
-        <v>42284.381969999995</v>
+        <v>42279.781969999996</v>
       </c>
       <c r="AA150">
-        <v>43226.420476000014</v>
+        <v>43222.120476000011</v>
       </c>
       <c r="AB150">
-        <v>42505.599999999999</v>
+        <v>42501.2</v>
       </c>
       <c r="AC150">
-        <v>41357.200000000004</v>
+        <v>41352.500000000007</v>
       </c>
     </row>
     <row r="151" spans="1:31" x14ac:dyDescent="0.2">
@@ -14621,34 +14626,34 @@
         <v>1</v>
       </c>
       <c r="F151">
-        <v>39595.971455999999</v>
+        <v>39591.371456000001</v>
       </c>
       <c r="G151">
-        <v>37802.11522</v>
+        <v>37759.61522</v>
       </c>
       <c r="H151">
-        <v>36528.343544000003</v>
+        <v>36142.443544000002</v>
       </c>
       <c r="I151">
-        <v>35557.299999999988</v>
+        <v>35163.999999999985</v>
       </c>
       <c r="J151">
-        <v>35101.757118000001</v>
+        <v>34372.657118000003</v>
       </c>
       <c r="K151">
-        <v>34456.69999999999</v>
+        <v>33733.899999999987</v>
       </c>
       <c r="L151">
-        <v>33195.800000000003</v>
+        <v>32480.100000000002</v>
       </c>
       <c r="M151">
-        <v>33819.097823000004</v>
+        <v>33109.397823000007</v>
       </c>
       <c r="N151">
-        <v>36380.489571999999</v>
+        <v>35682.189571999996</v>
       </c>
       <c r="O151">
-        <v>38053.372692999998</v>
+        <v>37860.072692999995</v>
       </c>
       <c r="P151">
         <v>39960.899999999994</v>
@@ -14657,40 +14662,40 @@
         <v>41731.964845000002</v>
       </c>
       <c r="R151">
-        <v>43343.148753999994</v>
+        <v>43341.448753999997</v>
       </c>
       <c r="S151">
-        <v>43832.899999999994</v>
+        <v>43826.2</v>
       </c>
       <c r="T151">
-        <v>44299.375219000009</v>
+        <v>44291.375219000009</v>
       </c>
       <c r="U151">
-        <v>44303.508408999995</v>
+        <v>44295.508408999995</v>
       </c>
       <c r="V151">
-        <v>43712.472387999995</v>
+        <v>43705.072387999993</v>
       </c>
       <c r="W151">
-        <v>42572.543146000004</v>
+        <v>42564.743146000001</v>
       </c>
       <c r="X151">
-        <v>40421.416295999996</v>
+        <v>40413.116295999993</v>
       </c>
       <c r="Y151">
-        <v>39288.947466999998</v>
+        <v>39279.847467</v>
       </c>
       <c r="Z151">
-        <v>42196.500000000007</v>
+        <v>42188.100000000006</v>
       </c>
       <c r="AA151">
-        <v>43064.696325000019</v>
+        <v>43056.496325000022</v>
       </c>
       <c r="AB151">
-        <v>42341.461632000013</v>
+        <v>42333.361632000015</v>
       </c>
       <c r="AC151">
-        <v>41273.235107999993</v>
+        <v>41264.235107999993</v>
       </c>
     </row>
     <row r="152" spans="1:31" x14ac:dyDescent="0.2">
@@ -14710,31 +14715,31 @@
         <v>1</v>
       </c>
       <c r="F152">
-        <v>39476.128984000003</v>
+        <v>39471.228984000001</v>
       </c>
       <c r="G152">
-        <v>37850.050299999995</v>
+        <v>37567.450299999997</v>
       </c>
       <c r="H152">
-        <v>36638.364313999999</v>
+        <v>36156.964313999997</v>
       </c>
       <c r="I152">
-        <v>35760.998949000001</v>
+        <v>35067.098948999999</v>
       </c>
       <c r="J152">
-        <v>35091.496032000003</v>
+        <v>34370.096032000001</v>
       </c>
       <c r="K152">
-        <v>34435.957999000006</v>
+        <v>33719.557999000004</v>
       </c>
       <c r="L152">
-        <v>33283.611008000007</v>
+        <v>32571.811008000008</v>
       </c>
       <c r="M152">
-        <v>33982.699999999997</v>
+        <v>33279.1</v>
       </c>
       <c r="N152">
-        <v>36106</v>
+        <v>35833.800000000003</v>
       </c>
       <c r="O152">
         <v>38198.575447000003</v>
@@ -14746,40 +14751,40 @@
         <v>42170.275750000001</v>
       </c>
       <c r="R152">
-        <v>43571.994020000006</v>
+        <v>43565.694020000003</v>
       </c>
       <c r="S152">
-        <v>44078.77129199999</v>
+        <v>44074.971291999987</v>
       </c>
       <c r="T152">
-        <v>44583.162854999995</v>
+        <v>44579.962854999998</v>
       </c>
       <c r="U152">
-        <v>44499.70541200001</v>
+        <v>44496.605412000012</v>
       </c>
       <c r="V152">
-        <v>44033.7</v>
+        <v>44030.399999999994</v>
       </c>
       <c r="W152">
-        <v>42807.025730999994</v>
+        <v>42803.625730999993</v>
       </c>
       <c r="X152">
-        <v>40598.722971999996</v>
+        <v>40591.122971999997</v>
       </c>
       <c r="Y152">
-        <v>39387.282459000002</v>
+        <v>39379.282459000002</v>
       </c>
       <c r="Z152">
-        <v>42432.401306000014</v>
+        <v>42427.501306000013</v>
       </c>
       <c r="AA152">
-        <v>43373.814248000002</v>
+        <v>43361.814248000002</v>
       </c>
       <c r="AB152">
-        <v>42491.535873000001</v>
+        <v>42481.735872999998</v>
       </c>
       <c r="AC152">
-        <v>41432.804787999994</v>
+        <v>41424.904787999993</v>
       </c>
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.2">
@@ -14799,43 +14804,43 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>39677.934856000007</v>
+        <v>39675.334856000009</v>
       </c>
       <c r="G153">
-        <v>38134.023963</v>
+        <v>38008.323963000003</v>
       </c>
       <c r="H153">
-        <v>36949.369896000004</v>
+        <v>36457.369896000004</v>
       </c>
       <c r="I153">
-        <v>35834.527205999999</v>
+        <v>35346.127205999997</v>
       </c>
       <c r="J153">
-        <v>35175.58069200001</v>
+        <v>34691.380692000013</v>
       </c>
       <c r="K153">
-        <v>34525.288167000006</v>
+        <v>34043.788167000006</v>
       </c>
       <c r="L153">
-        <v>33205.650536000001</v>
+        <v>32724.550536000002</v>
       </c>
       <c r="M153">
-        <v>33518.1</v>
+        <v>32993.4</v>
       </c>
       <c r="N153">
-        <v>35747.485889999996</v>
+        <v>35178.285889999999</v>
       </c>
       <c r="O153">
-        <v>37724.985595999999</v>
+        <v>37413.885596</v>
       </c>
       <c r="P153">
-        <v>39839.000000000007</v>
+        <v>39694.700000000004</v>
       </c>
       <c r="Q153">
         <v>41437.329691999999</v>
       </c>
       <c r="R153">
-        <v>42606.500000000007</v>
+        <v>42605.500000000007</v>
       </c>
       <c r="S153">
         <v>42605.838822000005</v>
@@ -14847,19 +14852,19 @@
         <v>42545.511892000002</v>
       </c>
       <c r="V153">
-        <v>41958.299999999996</v>
+        <v>41952.899999999994</v>
       </c>
       <c r="W153">
-        <v>40864.1</v>
+        <v>40854.9</v>
       </c>
       <c r="X153">
-        <v>38797.152696999998</v>
+        <v>38784.352696999995</v>
       </c>
       <c r="Y153">
-        <v>38333.200000000012</v>
+        <v>38323.700000000012</v>
       </c>
       <c r="Z153">
-        <v>41462.614092000003</v>
+        <v>41461.614092000003</v>
       </c>
       <c r="AA153">
         <v>41742.754416000011</v>
@@ -14897,31 +14902,31 @@
         <v>35895.795029999994</v>
       </c>
       <c r="I154">
-        <v>35044.113194999998</v>
+        <v>34815.013195</v>
       </c>
       <c r="J154">
-        <v>34586.648760000004</v>
+        <v>33981.748760000002</v>
       </c>
       <c r="K154">
-        <v>33940.600000000006</v>
+        <v>33211.300000000003</v>
       </c>
       <c r="L154">
-        <v>32338.700000000004</v>
+        <v>31614.100000000006</v>
       </c>
       <c r="M154">
-        <v>31401.100000000002</v>
+        <v>30684.800000000003</v>
       </c>
       <c r="N154">
-        <v>31848.5</v>
+        <v>31335.1</v>
       </c>
       <c r="O154">
-        <v>33177.941999999995</v>
+        <v>32707.441999999995</v>
       </c>
       <c r="P154">
-        <v>34608.654162999999</v>
+        <v>34330.354162999996</v>
       </c>
       <c r="Q154">
-        <v>36195.199999999997</v>
+        <v>36121</v>
       </c>
       <c r="R154">
         <v>37285.044636000006</v>
@@ -15069,25 +15074,25 @@
         <v>37400.704608</v>
       </c>
       <c r="G156">
-        <v>35628.036830999998</v>
+        <v>35510.736830999995</v>
       </c>
       <c r="H156">
-        <v>34515.928193</v>
+        <v>34275.928193</v>
       </c>
       <c r="I156">
-        <v>33875.743180000005</v>
+        <v>33414.343180000003</v>
       </c>
       <c r="J156">
-        <v>33319.207267999998</v>
+        <v>32844.107268</v>
       </c>
       <c r="K156">
-        <v>32842.571287999999</v>
+        <v>32369.971288000001</v>
       </c>
       <c r="L156">
-        <v>31894.044099000002</v>
+        <v>31424.144099000001</v>
       </c>
       <c r="M156">
-        <v>32189.84476</v>
+        <v>32080.144759999999</v>
       </c>
       <c r="N156">
         <v>34334.869757</v>
@@ -15158,28 +15163,28 @@
         <v>37556.536884000001</v>
       </c>
       <c r="G157">
-        <v>35786.841719999997</v>
+        <v>35627.241719999998</v>
       </c>
       <c r="H157">
-        <v>34898.036699999997</v>
+        <v>34387.936699999998</v>
       </c>
       <c r="I157">
-        <v>34150.299999999996</v>
+        <v>33418.699999999997</v>
       </c>
       <c r="J157">
-        <v>33466.727270000003</v>
+        <v>32739.127270000005</v>
       </c>
       <c r="K157">
-        <v>33014.354237999993</v>
+        <v>32295.254237999994</v>
       </c>
       <c r="L157">
-        <v>31993.333113999997</v>
+        <v>31277.933113999996</v>
       </c>
       <c r="M157">
-        <v>32591.602172999999</v>
+        <v>31986.002173000001</v>
       </c>
       <c r="N157">
-        <v>34712.899999999994</v>
+        <v>34432.099999999991</v>
       </c>
       <c r="O157">
         <v>36709.622548999992</v>
@@ -15244,28 +15249,28 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>37287.045990999999</v>
+        <v>37196.445991000001</v>
       </c>
       <c r="G158">
-        <v>35740.856072000002</v>
+        <v>35190.356072000002</v>
       </c>
       <c r="H158">
-        <v>34621.879342</v>
+        <v>33893.279342000002</v>
       </c>
       <c r="I158">
-        <v>33620.899999999994</v>
+        <v>32896.499999999993</v>
       </c>
       <c r="J158">
-        <v>33014.470662</v>
+        <v>32295.870662000001</v>
       </c>
       <c r="K158">
-        <v>32560.7</v>
+        <v>31849.7</v>
       </c>
       <c r="L158">
-        <v>31585.265089999997</v>
+        <v>30876.565089999996</v>
       </c>
       <c r="M158">
-        <v>31543.288498000002</v>
+        <v>31425.488498000002</v>
       </c>
       <c r="N158">
         <v>33645.566713</v>
@@ -15333,31 +15338,31 @@
         <v>1</v>
       </c>
       <c r="F159">
-        <v>35442.48186</v>
+        <v>35427.281860000003</v>
       </c>
       <c r="G159">
-        <v>34100.945664999999</v>
+        <v>33641.545664999998</v>
       </c>
       <c r="H159">
-        <v>32952.018514999996</v>
+        <v>32466.418514999998</v>
       </c>
       <c r="I159">
-        <v>32095.184396000001</v>
+        <v>31610.784395999999</v>
       </c>
       <c r="J159">
-        <v>31655.370862</v>
+        <v>31176.070862</v>
       </c>
       <c r="K159">
-        <v>31223.532135000001</v>
+        <v>30746.332135000001</v>
       </c>
       <c r="L159">
-        <v>30448.100000000002</v>
+        <v>29973.500000000004</v>
       </c>
       <c r="M159">
-        <v>30972.352722000003</v>
+        <v>30501.052722000004</v>
       </c>
       <c r="N159">
-        <v>32814.333173999999</v>
+        <v>32697.533174</v>
       </c>
       <c r="O159">
         <v>34777.721827000001</v>
@@ -15425,34 +15430,34 @@
         <v>35654.575369999999</v>
       </c>
       <c r="G160">
-        <v>34088.828073000004</v>
+        <v>33868.628073000007</v>
       </c>
       <c r="H160">
-        <v>33014.290679999998</v>
+        <v>32563.790679999998</v>
       </c>
       <c r="I160">
-        <v>32130.569648000004</v>
+        <v>31640.869648000004</v>
       </c>
       <c r="J160">
-        <v>31558.800000000003</v>
+        <v>31073.9</v>
       </c>
       <c r="K160">
-        <v>31135.930184999997</v>
+        <v>30652.130184999998</v>
       </c>
       <c r="L160">
-        <v>30071.967514999997</v>
+        <v>29590.867514999998</v>
       </c>
       <c r="M160">
-        <v>30318.9</v>
+        <v>29843.4</v>
       </c>
       <c r="N160">
-        <v>32273.457180000001</v>
+        <v>31801.757180000001</v>
       </c>
       <c r="O160">
-        <v>34222.762293</v>
+        <v>33801.562293000003</v>
       </c>
       <c r="P160">
-        <v>35615.299999999996</v>
+        <v>35432.1</v>
       </c>
       <c r="Q160">
         <v>36937.658361999995</v>
@@ -15514,37 +15519,37 @@
         <v>34514.233302000008</v>
       </c>
       <c r="G161">
-        <v>33018.577498999999</v>
+        <v>32946.177498999998</v>
       </c>
       <c r="H161">
-        <v>32184.458038000004</v>
+        <v>31717.658038000005</v>
       </c>
       <c r="I161">
-        <v>31306.6</v>
+        <v>30818.399999999998</v>
       </c>
       <c r="J161">
-        <v>30683.773735999999</v>
+        <v>30197.673736000001</v>
       </c>
       <c r="K161">
-        <v>30212.457642000005</v>
+        <v>29730.357642000006</v>
       </c>
       <c r="L161">
-        <v>28872.163718999996</v>
+        <v>28390.763718999995</v>
       </c>
       <c r="M161">
-        <v>27956.563964000004</v>
+        <v>27478.063964000004</v>
       </c>
       <c r="N161">
-        <v>28580.818450000002</v>
+        <v>28106.318450000002</v>
       </c>
       <c r="O161">
-        <v>29699.399765999999</v>
+        <v>29228.299766</v>
       </c>
       <c r="P161">
-        <v>31092.093922999993</v>
+        <v>30662.493922999995</v>
       </c>
       <c r="Q161">
-        <v>32382.390137000002</v>
+        <v>32370.690137000001</v>
       </c>
       <c r="R161">
         <v>33466.827427999997</v>
@@ -15695,28 +15700,28 @@
         <v>33568.170237999999</v>
       </c>
       <c r="H163">
-        <v>32615.400915999999</v>
+        <v>32351.300916</v>
       </c>
       <c r="I163">
-        <v>32193.1</v>
+        <v>31624.899999999998</v>
       </c>
       <c r="J163">
-        <v>31889.3</v>
+        <v>31159.1</v>
       </c>
       <c r="K163">
-        <v>31594.106565999999</v>
+        <v>30871.806565999999</v>
       </c>
       <c r="L163">
-        <v>30821.714066</v>
+        <v>30104.614066000002</v>
       </c>
       <c r="M163">
-        <v>31334.987162999998</v>
+        <v>30628.087162999997</v>
       </c>
       <c r="N163">
-        <v>33531.220002000002</v>
+        <v>32833.020002000005</v>
       </c>
       <c r="O163">
-        <v>35001.397817000005</v>
+        <v>34943.397817000005</v>
       </c>
       <c r="P163">
         <v>36590.6</v>
@@ -15778,25 +15783,25 @@
         <v>1</v>
       </c>
       <c r="F164">
-        <v>35640.279752000002</v>
+        <v>35588.979751999999</v>
       </c>
       <c r="G164">
-        <v>34275.182995000003</v>
+        <v>33885.082995000004</v>
       </c>
       <c r="H164">
-        <v>33265.396111000009</v>
+        <v>32618.296111000011</v>
       </c>
       <c r="I164">
-        <v>32517.127128</v>
+        <v>31788.027128000002</v>
       </c>
       <c r="J164">
-        <v>31944.024685999997</v>
+        <v>31220.024685999997</v>
       </c>
       <c r="K164">
-        <v>31622.000037999998</v>
+        <v>30903.000037999998</v>
       </c>
       <c r="L164">
-        <v>30861.522270000005</v>
+        <v>30147.122270000003</v>
       </c>
       <c r="M164">
         <v>30959.790303999998</v>
@@ -15873,19 +15878,19 @@
         <v>33568.679086999997</v>
       </c>
       <c r="H165">
-        <v>32490.354538999996</v>
+        <v>32269.354538999996</v>
       </c>
       <c r="I165">
-        <v>31881.441722000003</v>
+        <v>31402.441722000003</v>
       </c>
       <c r="J165">
-        <v>31449.109649999991</v>
+        <v>30975.109649999991</v>
       </c>
       <c r="K165">
-        <v>31058.589080999998</v>
+        <v>30584.589080999998</v>
       </c>
       <c r="L165">
-        <v>30019.000000000004</v>
+        <v>29855.000000000004</v>
       </c>
       <c r="M165">
         <v>30336.572768000005</v>
@@ -15962,28 +15967,28 @@
         <v>32259.910975999996</v>
       </c>
       <c r="H166">
-        <v>31261.464440000003</v>
+        <v>31016.064440000002</v>
       </c>
       <c r="I166">
-        <v>30735.266985999999</v>
+        <v>30284.566985999998</v>
       </c>
       <c r="J166">
-        <v>30268.49917599999</v>
+        <v>29787.99917599999</v>
       </c>
       <c r="K166">
-        <v>30031.272276</v>
+        <v>29554.572275999999</v>
       </c>
       <c r="L166">
-        <v>29025.662920000002</v>
+        <v>28550.962920000002</v>
       </c>
       <c r="M166">
-        <v>29387.352884000004</v>
+        <v>29065.852884000004</v>
       </c>
       <c r="N166">
-        <v>31108.400975</v>
+        <v>30874.300975000002</v>
       </c>
       <c r="O166">
-        <v>32865.984757999999</v>
+        <v>32781.384758</v>
       </c>
       <c r="P166">
         <v>34607.531199999998</v>
@@ -16051,22 +16056,22 @@
         <v>32062.278231999997</v>
       </c>
       <c r="H167">
-        <v>31003.388877000001</v>
+        <v>30825.288877000003</v>
       </c>
       <c r="I167">
-        <v>30572.492112</v>
+        <v>30092.692112000001</v>
       </c>
       <c r="J167">
-        <v>29995.935614999995</v>
+        <v>29515.535614999993</v>
       </c>
       <c r="K167">
-        <v>29763.239595999992</v>
+        <v>29286.539595999991</v>
       </c>
       <c r="L167">
-        <v>28926.224048</v>
+        <v>28451.924048000001</v>
       </c>
       <c r="M167">
-        <v>28820.135078999992</v>
+        <v>28568.035078999994</v>
       </c>
       <c r="N167">
         <v>30281.670956000002</v>
@@ -16137,28 +16142,28 @@
         <v>33340.134969999999</v>
       </c>
       <c r="G168">
-        <v>32015.304854000002</v>
+        <v>31837.604854000001</v>
       </c>
       <c r="H168">
-        <v>31009.217956999997</v>
+        <v>30635.417956999998</v>
       </c>
       <c r="I168">
-        <v>30329.558559999998</v>
+        <v>29852.558559999998</v>
       </c>
       <c r="J168">
-        <v>29834.754141000001</v>
+        <v>29360.254141000001</v>
       </c>
       <c r="K168">
-        <v>29229.930342000003</v>
+        <v>28837.130342000004</v>
       </c>
       <c r="L168">
-        <v>27884.999999999996</v>
+        <v>27648.099999999995</v>
       </c>
       <c r="M168">
-        <v>26960.407490000001</v>
+        <v>26724.307490000003</v>
       </c>
       <c r="N168">
-        <v>27442.397257000004</v>
+        <v>27356.397257000004</v>
       </c>
       <c r="O168">
         <v>28479.599999999999</v>
@@ -16315,31 +16320,31 @@
         <v>34697.581414999993</v>
       </c>
       <c r="G170">
-        <v>33213.596558999998</v>
+        <v>32986.096558999998</v>
       </c>
       <c r="H170">
-        <v>32160.900000000005</v>
+        <v>31686.900000000005</v>
       </c>
       <c r="I170">
-        <v>31386.400000000001</v>
+        <v>30897.9</v>
       </c>
       <c r="J170">
-        <v>31086.400000000001</v>
+        <v>30366.7</v>
       </c>
       <c r="K170">
-        <v>30764.874245000003</v>
+        <v>30046.174245000002</v>
       </c>
       <c r="L170">
-        <v>30211.512239</v>
+        <v>29496.812238999999</v>
       </c>
       <c r="M170">
-        <v>30784.384569999998</v>
+        <v>30075.484569999997</v>
       </c>
       <c r="N170">
-        <v>32949.492535999998</v>
+        <v>32431.592535999996</v>
       </c>
       <c r="O170">
-        <v>34578.136554999997</v>
+        <v>34496.236554999996</v>
       </c>
       <c r="P170">
         <v>36328.5</v>
@@ -16401,31 +16406,31 @@
         <v>1</v>
       </c>
       <c r="F171">
-        <v>34519.418109999999</v>
+        <v>34518.31811</v>
       </c>
       <c r="G171">
-        <v>32986.627084</v>
+        <v>32729.727083999998</v>
       </c>
       <c r="H171">
-        <v>32035.976563999993</v>
+        <v>31543.276563999993</v>
       </c>
       <c r="I171">
-        <v>31409.934529999999</v>
+        <v>30755.234529999998</v>
       </c>
       <c r="J171">
-        <v>30994.170312999999</v>
+        <v>30268.170312999999</v>
       </c>
       <c r="K171">
-        <v>30573.984829999994</v>
+        <v>29854.684829999995</v>
       </c>
       <c r="L171">
-        <v>30034.040237999998</v>
+        <v>29320.240237999998</v>
       </c>
       <c r="M171">
-        <v>30485.772765000002</v>
+        <v>29818.572765000001</v>
       </c>
       <c r="N171">
-        <v>32423.010180000001</v>
+        <v>32145.710180000002</v>
       </c>
       <c r="O171">
         <v>34167.567591999992</v>
@@ -16493,31 +16498,31 @@
         <v>34436.451348000002</v>
       </c>
       <c r="G172">
-        <v>32703.614187999996</v>
+        <v>32605.914187999995</v>
       </c>
       <c r="H172">
-        <v>31880.196239000001</v>
+        <v>31323.596239000002</v>
       </c>
       <c r="I172">
-        <v>31215.499999999996</v>
+        <v>30482.599999999995</v>
       </c>
       <c r="J172">
-        <v>30616.291567999997</v>
+        <v>29891.991567999998</v>
       </c>
       <c r="K172">
-        <v>30305.4</v>
+        <v>29586.9</v>
       </c>
       <c r="L172">
-        <v>29647.753081999999</v>
+        <v>28933.653082000001</v>
       </c>
       <c r="M172">
-        <v>30184.662678000001</v>
+        <v>29502.362678000001</v>
       </c>
       <c r="N172">
-        <v>32103.390567000002</v>
+        <v>31859.590567000003</v>
       </c>
       <c r="O172">
-        <v>34019.5</v>
+        <v>33996.300000000003</v>
       </c>
       <c r="P172">
         <v>35655.5</v>
@@ -16582,28 +16587,28 @@
         <v>33795.762985000001</v>
       </c>
       <c r="G173">
-        <v>32365.644409999997</v>
+        <v>32071.344409999998</v>
       </c>
       <c r="H173">
-        <v>31429.9</v>
+        <v>30936.600000000002</v>
       </c>
       <c r="I173">
-        <v>30682.600000000002</v>
+        <v>30111.9</v>
       </c>
       <c r="J173">
-        <v>30328.018916000005</v>
+        <v>29606.118916000003</v>
       </c>
       <c r="K173">
-        <v>29966.855385000003</v>
+        <v>29249.255385000004</v>
       </c>
       <c r="L173">
-        <v>29392.000145000002</v>
+        <v>28680.300145000001</v>
       </c>
       <c r="M173">
-        <v>29851.200000000001</v>
+        <v>29146.799999999999</v>
       </c>
       <c r="N173">
-        <v>31766.950801999999</v>
+        <v>31382.550801999998</v>
       </c>
       <c r="O173">
         <v>33356.632610000001</v>
@@ -16671,28 +16676,28 @@
         <v>34136.664637999995</v>
       </c>
       <c r="G174">
-        <v>32898.893018000002</v>
+        <v>32502.793018000004</v>
       </c>
       <c r="H174">
-        <v>31814.832235999998</v>
+        <v>31223.432235999997</v>
       </c>
       <c r="I174">
-        <v>31129.589948000004</v>
+        <v>30399.389948000004</v>
       </c>
       <c r="J174">
-        <v>30638.073088000001</v>
+        <v>29917.073088000001</v>
       </c>
       <c r="K174">
-        <v>30153.9</v>
+        <v>29437.600000000002</v>
       </c>
       <c r="L174">
-        <v>29500.125876000006</v>
+        <v>28791.325876000006</v>
       </c>
       <c r="M174">
-        <v>29334.270483999997</v>
+        <v>28679.970483999998</v>
       </c>
       <c r="N174">
-        <v>30777.230940000001</v>
+        <v>30618.030940000001</v>
       </c>
       <c r="O174">
         <v>32481.338870999996</v>
@@ -16760,28 +16765,28 @@
         <v>32975.030534000005</v>
       </c>
       <c r="G175">
-        <v>31553.586675999999</v>
+        <v>31383.286676</v>
       </c>
       <c r="H175">
-        <v>30634.595994000003</v>
+        <v>30138.395994000002</v>
       </c>
       <c r="I175">
-        <v>30015.233227000004</v>
+        <v>29312.333227000003</v>
       </c>
       <c r="J175">
-        <v>29483.599999999995</v>
+        <v>28758.399999999994</v>
       </c>
       <c r="K175">
-        <v>28871.831381999993</v>
+        <v>28151.731381999994</v>
       </c>
       <c r="L175">
-        <v>28075.027483999998</v>
+        <v>27360.727483999999</v>
       </c>
       <c r="M175">
-        <v>27192.040413999996</v>
+        <v>26484.340413999995</v>
       </c>
       <c r="N175">
-        <v>27580.716954</v>
+        <v>27188.316953999998</v>
       </c>
       <c r="O175">
         <v>28285.254719</v>
@@ -16852,22 +16857,22 @@
         <v>31309.600000000006</v>
       </c>
       <c r="H176">
-        <v>30201</v>
+        <v>30029.599999999999</v>
       </c>
       <c r="I176">
-        <v>29488.799999999999</v>
+        <v>29250.399999999998</v>
       </c>
       <c r="J176">
-        <v>28874.184969999995</v>
+        <v>28635.484969999994</v>
       </c>
       <c r="K176">
-        <v>28700.158205000003</v>
+        <v>28462.958205000003</v>
       </c>
       <c r="L176">
-        <v>28090.799999999999</v>
+        <v>27854.799999999999</v>
       </c>
       <c r="M176">
-        <v>28757.000000000004</v>
+        <v>28671.500000000004</v>
       </c>
       <c r="N176">
         <v>31202.232938000001</v>
@@ -16938,31 +16943,31 @@
         <v>33803.468924000001</v>
       </c>
       <c r="G177">
-        <v>32265.186103999997</v>
+        <v>32134.586103999998</v>
       </c>
       <c r="H177">
-        <v>31457.641885999998</v>
+        <v>30959.841885999998</v>
       </c>
       <c r="I177">
-        <v>30603.757879999997</v>
+        <v>30110.057879999997</v>
       </c>
       <c r="J177">
-        <v>30074.765274000001</v>
+        <v>29583.865274</v>
       </c>
       <c r="K177">
-        <v>29777.865420000002</v>
+        <v>29289.365420000002</v>
       </c>
       <c r="L177">
-        <v>29319.5</v>
+        <v>28867.8</v>
       </c>
       <c r="M177">
-        <v>29467.722563000007</v>
+        <v>29226.722563000007</v>
       </c>
       <c r="N177">
-        <v>31707.999999999996</v>
+        <v>31469.299999999996</v>
       </c>
       <c r="O177">
-        <v>33636.332941000008</v>
+        <v>33584.632941000011</v>
       </c>
       <c r="P177">
         <v>35213.620627999997</v>
@@ -17024,37 +17029,37 @@
         <v>1</v>
       </c>
       <c r="F178">
-        <v>33675.259256000005</v>
+        <v>33603.059256000008</v>
       </c>
       <c r="G178">
-        <v>32359.295896</v>
+        <v>31985.695896000001</v>
       </c>
       <c r="H178">
-        <v>31268.874839999997</v>
+        <v>30773.674839999996</v>
       </c>
       <c r="I178">
-        <v>30780.996849999996</v>
+        <v>30055.196849999997</v>
       </c>
       <c r="J178">
-        <v>30333.967955</v>
+        <v>29612.667955000001</v>
       </c>
       <c r="K178">
-        <v>29941.368644999995</v>
+        <v>29224.268644999996</v>
       </c>
       <c r="L178">
-        <v>29325.106339999998</v>
+        <v>28672.806339999999</v>
       </c>
       <c r="M178">
-        <v>29410.100000000002</v>
+        <v>29081.200000000001</v>
       </c>
       <c r="N178">
-        <v>31675.316292999996</v>
+        <v>31442.916292999995</v>
       </c>
       <c r="O178">
-        <v>33694.899999999994</v>
+        <v>33464.799999999996</v>
       </c>
       <c r="P178">
-        <v>35156.887107999995</v>
+        <v>35141.587107999992</v>
       </c>
       <c r="Q178">
         <v>36462.5</v>
@@ -17116,34 +17121,34 @@
         <v>33884.154032000006</v>
       </c>
       <c r="G179">
-        <v>32324.400000000001</v>
+        <v>32131.600000000002</v>
       </c>
       <c r="H179">
-        <v>31297.888305</v>
+        <v>30814.388305</v>
       </c>
       <c r="I179">
-        <v>30694.7</v>
+        <v>29980.2</v>
       </c>
       <c r="J179">
-        <v>30130.11927599999</v>
+        <v>29401.61927599999</v>
       </c>
       <c r="K179">
-        <v>29389.830115000001</v>
+        <v>29078.930114999999</v>
       </c>
       <c r="L179">
-        <v>29240.709673999994</v>
+        <v>28624.609673999996</v>
       </c>
       <c r="M179">
-        <v>29715.340768000009</v>
+        <v>29004.340768000009</v>
       </c>
       <c r="N179">
-        <v>31618.300000000007</v>
+        <v>31248.900000000005</v>
       </c>
       <c r="O179">
-        <v>33514</v>
+        <v>33279.199999999997</v>
       </c>
       <c r="P179">
-        <v>35074.100642000005</v>
+        <v>35009.700642000003</v>
       </c>
       <c r="Q179">
         <v>36720.1</v>
@@ -17205,28 +17210,28 @@
         <v>33872.082830000007</v>
       </c>
       <c r="G180">
-        <v>32207.629804000007</v>
+        <v>32022.429804000007</v>
       </c>
       <c r="H180">
-        <v>31330.799999999999</v>
+        <v>30843.599999999999</v>
       </c>
       <c r="I180">
-        <v>30688.681912000007</v>
+        <v>30059.381912000008</v>
       </c>
       <c r="J180">
-        <v>30287.976920000001</v>
+        <v>29570.476920000001</v>
       </c>
       <c r="K180">
-        <v>29930.699999999997</v>
+        <v>29218.899999999998</v>
       </c>
       <c r="L180">
-        <v>29361.597863000003</v>
+        <v>28653.597863000003</v>
       </c>
       <c r="M180">
-        <v>29455.377670000002</v>
+        <v>29003.97767</v>
       </c>
       <c r="N180">
-        <v>31248.954374000004</v>
+        <v>31198.854374000006</v>
       </c>
       <c r="O180">
         <v>33071.100000000006</v>
@@ -17294,25 +17299,25 @@
         <v>32828.905348999993</v>
       </c>
       <c r="G181">
-        <v>31284.093038000003</v>
+        <v>31035.693038000001</v>
       </c>
       <c r="H181">
-        <v>30408.928526</v>
+        <v>29957.828526000001</v>
       </c>
       <c r="I181">
-        <v>29927.619785999999</v>
+        <v>29233.219785999998</v>
       </c>
       <c r="J181">
-        <v>29474.399999999994</v>
+        <v>28752.199999999993</v>
       </c>
       <c r="K181">
-        <v>29148</v>
+        <v>28432.3</v>
       </c>
       <c r="L181">
-        <v>28602.93838</v>
+        <v>27892.93838</v>
       </c>
       <c r="M181">
-        <v>28517.430909999992</v>
+        <v>27896.930909999992</v>
       </c>
       <c r="N181">
         <v>29729.823265999999</v>
@@ -17472,28 +17477,28 @@
         <v>29543.913015000006</v>
       </c>
       <c r="G183">
-        <v>28199.887777</v>
+        <v>28131.387777</v>
       </c>
       <c r="H183">
-        <v>27472.900957999998</v>
+        <v>27234.300958</v>
       </c>
       <c r="I183">
-        <v>26938.815022999996</v>
+        <v>26701.815022999996</v>
       </c>
       <c r="J183">
-        <v>26574.099999999995</v>
+        <v>26337.299999999996</v>
       </c>
       <c r="K183">
-        <v>26484.759319999997</v>
+        <v>26248.759319999997</v>
       </c>
       <c r="L183">
-        <v>26315.176486000004</v>
+        <v>26079.376486000005</v>
       </c>
       <c r="M183">
-        <v>26802.985278999997</v>
+        <v>26568.985278999997</v>
       </c>
       <c r="N183">
-        <v>28750.460026000001</v>
+        <v>28629.660026000001</v>
       </c>
       <c r="O183">
         <v>30480.464373999999</v>
@@ -17784,7 +17789,7 @@
         <v>33514.100045999992</v>
       </c>
       <c r="V186">
-        <v>32499.482332</v>
+        <v>32496.982332</v>
       </c>
       <c r="W186">
         <v>31702.069702000001</v>
@@ -17870,7 +17875,7 @@
         <v>33997.409553999998</v>
       </c>
       <c r="U187">
-        <v>33328.583848999995</v>
+        <v>33327.183848999994</v>
       </c>
       <c r="V187">
         <v>32134.455927000003</v>
@@ -18187,31 +18192,31 @@
         <v>26893.050920000001</v>
       </c>
       <c r="H191">
-        <v>26357.178178999999</v>
+        <v>26031.578179</v>
       </c>
       <c r="I191">
-        <v>25960.001116000007</v>
+        <v>25465.101116000005</v>
       </c>
       <c r="J191">
-        <v>25735.400000000005</v>
+        <v>25247.100000000006</v>
       </c>
       <c r="K191">
-        <v>25165.880322000001</v>
+        <v>24680.480321999999</v>
       </c>
       <c r="L191">
-        <v>24665.067056</v>
+        <v>24181.967056000001</v>
       </c>
       <c r="M191">
-        <v>26336.676842000001</v>
+        <v>25858.776841999999</v>
       </c>
       <c r="N191">
-        <v>28830.931736999999</v>
+        <v>28357.331737</v>
       </c>
       <c r="O191">
-        <v>30493.958839999999</v>
+        <v>30024.858840000001</v>
       </c>
       <c r="P191">
-        <v>31607.300000000003</v>
+        <v>31301.9</v>
       </c>
       <c r="Q191">
         <v>32418.120827999996</v>
@@ -18273,28 +18278,28 @@
         <v>28316.109863999998</v>
       </c>
       <c r="G192">
-        <v>26986.048264000001</v>
+        <v>26911.648263999999</v>
       </c>
       <c r="H192">
-        <v>26553.593198999999</v>
+        <v>26119.593198999999</v>
       </c>
       <c r="I192">
-        <v>26064.226115999998</v>
+        <v>25580.726115999998</v>
       </c>
       <c r="J192">
-        <v>25699</v>
+        <v>25218.5</v>
       </c>
       <c r="K192">
-        <v>25114.800000000003</v>
+        <v>24637.100000000002</v>
       </c>
       <c r="L192">
-        <v>24524.199999999997</v>
+        <v>24049.399999999998</v>
       </c>
       <c r="M192">
-        <v>26088.460009999999</v>
+        <v>25731.86001</v>
       </c>
       <c r="N192">
-        <v>28150.932576999996</v>
+        <v>28060.832576999997</v>
       </c>
       <c r="O192">
         <v>29812.499999999996</v>
@@ -18359,31 +18364,31 @@
         <v>1</v>
       </c>
       <c r="F193">
-        <v>28861.910636000001</v>
+        <v>28480.910636000001</v>
       </c>
       <c r="G193">
-        <v>27604.799999999999</v>
+        <v>27115.599999999999</v>
       </c>
       <c r="H193">
-        <v>26716.199999999997</v>
+        <v>26229.599999999999</v>
       </c>
       <c r="I193">
-        <v>26113.964620999996</v>
+        <v>25630.264620999995</v>
       </c>
       <c r="J193">
-        <v>25801.566439999999</v>
+        <v>25323.066439999999</v>
       </c>
       <c r="K193">
-        <v>25265.599999999995</v>
+        <v>24787.899999999994</v>
       </c>
       <c r="L193">
-        <v>24737.969787999999</v>
+        <v>24263.069787999997</v>
       </c>
       <c r="M193">
-        <v>26338.318457999994</v>
+        <v>25866.018457999995</v>
       </c>
       <c r="N193">
-        <v>28473.003995000003</v>
+        <v>28252.603995000001</v>
       </c>
       <c r="O193">
         <v>29877.358527999997</v>
@@ -18448,31 +18453,31 @@
         <v>1</v>
       </c>
       <c r="F194">
-        <v>28639.474985000001</v>
+        <v>28604.474985000001</v>
       </c>
       <c r="G194">
-        <v>27754.300128000003</v>
+        <v>27345.300128000003</v>
       </c>
       <c r="H194">
-        <v>26998.888003999997</v>
+        <v>26509.388003999997</v>
       </c>
       <c r="I194">
-        <v>26587.967519999998</v>
+        <v>25984.267519999998</v>
       </c>
       <c r="J194">
-        <v>26435.694600999996</v>
+        <v>25712.294600999994</v>
       </c>
       <c r="K194">
-        <v>25922.500000000004</v>
+        <v>25204.800000000003</v>
       </c>
       <c r="L194">
-        <v>25449.399999999998</v>
+        <v>24812.899999999998</v>
       </c>
       <c r="M194">
-        <v>26731.600000000006</v>
+        <v>26493.600000000006</v>
       </c>
       <c r="N194">
-        <v>29049.463070000002</v>
+        <v>29014.163070000002</v>
       </c>
       <c r="O194">
         <v>30640.503903999994</v>
@@ -18537,28 +18542,28 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>28740.051602999996</v>
+        <v>28731.251602999997</v>
       </c>
       <c r="G195">
-        <v>27552.068274000001</v>
+        <v>27308.868274</v>
       </c>
       <c r="H195">
-        <v>26831.781865999998</v>
+        <v>26588.581865999997</v>
       </c>
       <c r="I195">
-        <v>26433.645958000005</v>
+        <v>26191.845958000005</v>
       </c>
       <c r="J195">
-        <v>26073.655920000001</v>
+        <v>25833.555920000003</v>
       </c>
       <c r="K195">
-        <v>25691.871924999992</v>
+        <v>25275.171924999991</v>
       </c>
       <c r="L195">
-        <v>25038.259092000004</v>
+        <v>24566.459092000005</v>
       </c>
       <c r="M195">
-        <v>26151.175626</v>
+        <v>25911.775625999999</v>
       </c>
       <c r="N195">
         <v>28080.699999999997</v>
@@ -18629,31 +18634,31 @@
         <v>28589.982277000003</v>
       </c>
       <c r="G196">
-        <v>27507.213875000001</v>
+        <v>27244.413875000002</v>
       </c>
       <c r="H196">
-        <v>26748.596197000003</v>
+        <v>26257.496197000004</v>
       </c>
       <c r="I196">
-        <v>26126.300000000007</v>
+        <v>25638.900000000005</v>
       </c>
       <c r="J196">
-        <v>25713.200000000001</v>
+        <v>25228.2</v>
       </c>
       <c r="K196">
-        <v>24895.92844</v>
+        <v>24411.328440000001</v>
       </c>
       <c r="L196">
-        <v>23630.067678000003</v>
+        <v>23150.767678000004</v>
       </c>
       <c r="M196">
-        <v>23829.061716000004</v>
+        <v>23371.461716000005</v>
       </c>
       <c r="N196">
-        <v>24754.110445999999</v>
+        <v>24515.410445999998</v>
       </c>
       <c r="O196">
-        <v>26029.744435999997</v>
+        <v>25935.044435999996</v>
       </c>
       <c r="P196">
         <v>27293.209242000001</v>
@@ -18804,28 +18809,28 @@
         <v>1</v>
       </c>
       <c r="F198">
-        <v>29246.403758</v>
+        <v>29117.103758000001</v>
       </c>
       <c r="G198">
-        <v>28305.873516</v>
+        <v>27812.873516</v>
       </c>
       <c r="H198">
-        <v>27557.291653999997</v>
+        <v>26904.191653999998</v>
       </c>
       <c r="I198">
-        <v>27074.470011999998</v>
+        <v>26347.770011999997</v>
       </c>
       <c r="J198">
-        <v>26683.275450999998</v>
+        <v>25962.075450999997</v>
       </c>
       <c r="K198">
-        <v>26153.203063999998</v>
+        <v>25438.503063999997</v>
       </c>
       <c r="L198">
-        <v>25528.185767999999</v>
+        <v>24823.285767999998</v>
       </c>
       <c r="M198">
-        <v>26762.599999999995</v>
+        <v>26400.599999999995</v>
       </c>
       <c r="N198">
         <v>28910.899999999998</v>
@@ -18893,34 +18898,34 @@
         <v>1</v>
       </c>
       <c r="F199">
-        <v>29409.491284</v>
+        <v>29039.391284000001</v>
       </c>
       <c r="G199">
-        <v>28203.315809</v>
+        <v>27709.115808999999</v>
       </c>
       <c r="H199">
-        <v>27411.156446000001</v>
+        <v>26920.256445999999</v>
       </c>
       <c r="I199">
-        <v>26710.2</v>
+        <v>26222.9</v>
       </c>
       <c r="J199">
-        <v>26353.569251000001</v>
+        <v>25869.069251000001</v>
       </c>
       <c r="K199">
-        <v>25871.551194</v>
+        <v>25389.251194</v>
       </c>
       <c r="L199">
-        <v>25138.956732999999</v>
+        <v>24659.356733000001</v>
       </c>
       <c r="M199">
-        <v>26646</v>
+        <v>26169.599999999999</v>
       </c>
       <c r="N199">
-        <v>28979.269730999997</v>
+        <v>28554.769730999997</v>
       </c>
       <c r="O199">
-        <v>30311.975578999991</v>
+        <v>30268.77557899999</v>
       </c>
       <c r="P199">
         <v>31646.114838000005</v>
@@ -18982,37 +18987,37 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>29000.982293999998</v>
+        <v>28800.982293999998</v>
       </c>
       <c r="G200">
-        <v>27822.56595</v>
+        <v>27480.165949999999</v>
       </c>
       <c r="H200">
-        <v>27062.580740000001</v>
+        <v>26573.380740000001</v>
       </c>
       <c r="I200">
-        <v>26420.000000000007</v>
+        <v>25933.500000000007</v>
       </c>
       <c r="J200">
-        <v>26079.971960000003</v>
+        <v>25597.171960000003</v>
       </c>
       <c r="K200">
-        <v>25570.893426000006</v>
+        <v>25088.693426000005</v>
       </c>
       <c r="L200">
-        <v>24910.1</v>
+        <v>24431.3</v>
       </c>
       <c r="M200">
-        <v>26529.051511999998</v>
+        <v>26055.651511999997</v>
       </c>
       <c r="N200">
-        <v>28696.204747000003</v>
+        <v>28378.504747000003</v>
       </c>
       <c r="O200">
-        <v>30374.422988000006</v>
+        <v>30140.222988000005</v>
       </c>
       <c r="P200">
-        <v>31572.323954</v>
+        <v>31567.823954</v>
       </c>
       <c r="Q200">
         <v>32884.299999999996</v>
@@ -19071,31 +19076,31 @@
         <v>1</v>
       </c>
       <c r="F201">
-        <v>28348.134319000001</v>
+        <v>28252.334319000001</v>
       </c>
       <c r="G201">
-        <v>27356.612909999996</v>
+        <v>26860.812909999997</v>
       </c>
       <c r="H201">
-        <v>26552.799999999996</v>
+        <v>26061.699999999997</v>
       </c>
       <c r="I201">
-        <v>26044.070587999999</v>
+        <v>25555.670587999997</v>
       </c>
       <c r="J201">
-        <v>25788.266989000003</v>
+        <v>25303.166989000005</v>
       </c>
       <c r="K201">
-        <v>25354.755314999999</v>
+        <v>24872.055314999998</v>
       </c>
       <c r="L201">
-        <v>24852.894972000002</v>
+        <v>24374.494972</v>
       </c>
       <c r="M201">
-        <v>26278.349234000005</v>
+        <v>25802.349234000005</v>
       </c>
       <c r="N201">
-        <v>28533.500000000004</v>
+        <v>28220.800000000003</v>
       </c>
       <c r="O201">
         <v>29890.909363999992</v>
@@ -19160,10 +19165,10 @@
         <v>1</v>
       </c>
       <c r="F202">
-        <v>28233.577009000001</v>
+        <v>28205.577009000001</v>
       </c>
       <c r="G202">
-        <v>26888.820262000001</v>
+        <v>26878.920262</v>
       </c>
       <c r="H202">
         <v>26060.800000000003</v>
@@ -19249,28 +19254,28 @@
         <v>1</v>
       </c>
       <c r="F203">
-        <v>27691.179556000003</v>
+        <v>27607.279556000001</v>
       </c>
       <c r="G203">
-        <v>26760.392933000003</v>
+        <v>26261.092933000004</v>
       </c>
       <c r="H203">
-        <v>26137.144566999996</v>
+        <v>25403.944566999995</v>
       </c>
       <c r="I203">
-        <v>25531.346469999997</v>
+        <v>24802.946469999995</v>
       </c>
       <c r="J203">
-        <v>25169.650725000003</v>
+        <v>24448.750725000002</v>
       </c>
       <c r="K203">
-        <v>24652.237116000004</v>
+        <v>23936.937116000005</v>
       </c>
       <c r="L203">
-        <v>22943.100000000002</v>
+        <v>22623.7</v>
       </c>
       <c r="M203">
-        <v>22769.770353999997</v>
+        <v>22536.970353999997</v>
       </c>
       <c r="N203">
         <v>23491.390417000002</v>
@@ -19341,31 +19346,31 @@
         <v>26199.122443999997</v>
       </c>
       <c r="G204">
-        <v>25123.379235000004</v>
+        <v>24898.279235000005</v>
       </c>
       <c r="H204">
-        <v>24269.599999999995</v>
+        <v>24028.199999999993</v>
       </c>
       <c r="I204">
-        <v>23676.586712</v>
+        <v>23436.386712</v>
       </c>
       <c r="J204">
-        <v>23570.963847000003</v>
+        <v>23331.163847000003</v>
       </c>
       <c r="K204">
-        <v>23126.181688000001</v>
+        <v>22886.181688000001</v>
       </c>
       <c r="L204">
-        <v>22787.9</v>
+        <v>22549</v>
       </c>
       <c r="M204">
-        <v>24432.899999999998</v>
+        <v>24195.499999999996</v>
       </c>
       <c r="N204">
-        <v>26864.3</v>
+        <v>26628</v>
       </c>
       <c r="O204">
-        <v>28214.817354000003</v>
+        <v>28210.817354000003</v>
       </c>
       <c r="P204">
         <v>29411.741525000001</v>
@@ -19427,31 +19432,31 @@
         <v>1</v>
       </c>
       <c r="F205">
-        <v>26412.445136000006</v>
+        <v>26374.445136000006</v>
       </c>
       <c r="G205">
-        <v>25413.569796</v>
+        <v>25164.969796000001</v>
       </c>
       <c r="H205">
-        <v>24934.283506</v>
+        <v>24468.383505999998</v>
       </c>
       <c r="I205">
-        <v>24417.399999999998</v>
+        <v>23930.1</v>
       </c>
       <c r="J205">
-        <v>24354.071965000003</v>
+        <v>23650.471965000004</v>
       </c>
       <c r="K205">
-        <v>23910.247752999996</v>
+        <v>23192.347752999995</v>
       </c>
       <c r="L205">
-        <v>23355.942196</v>
+        <v>22645.642196000001</v>
       </c>
       <c r="M205">
-        <v>24398.7</v>
+        <v>23962.100000000002</v>
       </c>
       <c r="N205">
-        <v>26301.395700999998</v>
+        <v>26163.995700999996</v>
       </c>
       <c r="O205">
         <v>27556.734516</v>
@@ -19525,19 +19530,19 @@
         <v>23842.376240000001</v>
       </c>
       <c r="I206">
-        <v>23364.7</v>
+        <v>23352</v>
       </c>
       <c r="J206">
-        <v>23227.060642</v>
+        <v>22987.860642</v>
       </c>
       <c r="K206">
-        <v>22779.919235000001</v>
+        <v>22541.119235000002</v>
       </c>
       <c r="L206">
-        <v>22217.417677000001</v>
+        <v>21980.017677</v>
       </c>
       <c r="M206">
-        <v>23618.564724000003</v>
+        <v>23429.464724000005</v>
       </c>
       <c r="N206">
         <v>25646.000016000005</v>
@@ -19585,7 +19590,7 @@
         <v>28931.79637</v>
       </c>
       <c r="AC206">
-        <v>27529.321485</v>
+        <v>27462.821485</v>
       </c>
     </row>
     <row r="207" spans="1:29" x14ac:dyDescent="0.2">
@@ -19605,28 +19610,28 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>25889.908783999999</v>
+        <v>25645.508783999998</v>
       </c>
       <c r="G207">
-        <v>24599.356589999996</v>
+        <v>24355.756589999997</v>
       </c>
       <c r="H207">
-        <v>23993.254174000005</v>
+        <v>23608.754174000005</v>
       </c>
       <c r="I207">
-        <v>23574.039366000001</v>
+        <v>23091.039366000001</v>
       </c>
       <c r="J207">
-        <v>23321.384834</v>
+        <v>22843.184834</v>
       </c>
       <c r="K207">
-        <v>22896.158126999999</v>
+        <v>22418.758126999997</v>
       </c>
       <c r="L207">
-        <v>22421.628030000003</v>
+        <v>21947.128030000003</v>
       </c>
       <c r="M207">
-        <v>23661.467528999998</v>
+        <v>23394.267528999997</v>
       </c>
       <c r="N207">
         <v>25499.100000000002</v>
@@ -19887,16 +19892,16 @@
         <v>22831.068048000001</v>
       </c>
       <c r="K210">
-        <v>22557.097651999997</v>
+        <v>22350.897651999996</v>
       </c>
       <c r="L210">
-        <v>21442.000000000004</v>
+        <v>21204.800000000003</v>
       </c>
       <c r="M210">
-        <v>21420.100000000006</v>
+        <v>21183.600000000006</v>
       </c>
       <c r="N210">
-        <v>22274.054131000004</v>
+        <v>22132.554131000004</v>
       </c>
       <c r="O210">
         <v>23278.496563999994</v>
@@ -20237,46 +20242,46 @@
         <v>22959.792847000001</v>
       </c>
       <c r="I214">
-        <v>22557.666910000004</v>
+        <v>22552.566910000005</v>
       </c>
       <c r="J214">
-        <v>22210.586944000002</v>
+        <v>22204.986944000004</v>
       </c>
       <c r="K214">
-        <v>21961.295044000002</v>
+        <v>21955.795044000002</v>
       </c>
       <c r="L214">
-        <v>21492.946567999999</v>
+        <v>21487.446567999999</v>
       </c>
       <c r="M214">
-        <v>22554.158097999996</v>
+        <v>22548.858097999997</v>
       </c>
       <c r="N214">
-        <v>24439.400493999994</v>
+        <v>24434.300493999996</v>
       </c>
       <c r="O214">
-        <v>25835.918592000002</v>
+        <v>25830.818592000003</v>
       </c>
       <c r="P214">
-        <v>26790.1</v>
+        <v>26785</v>
       </c>
       <c r="Q214">
-        <v>27412.003355000001</v>
+        <v>27407.003355000001</v>
       </c>
       <c r="R214">
-        <v>27441.504652000003</v>
+        <v>27436.404652000005</v>
       </c>
       <c r="S214">
-        <v>27402.180885999998</v>
+        <v>27396.980885999998</v>
       </c>
       <c r="T214">
-        <v>27490.956552</v>
+        <v>27485.756551999999</v>
       </c>
       <c r="U214">
-        <v>27085.710870000003</v>
+        <v>27080.510870000002</v>
       </c>
       <c r="V214">
-        <v>26500.864817999998</v>
+        <v>26497.664817999997</v>
       </c>
       <c r="W214">
         <v>28167.699999999997</v>
@@ -20323,25 +20328,25 @@
         <v>23782.2</v>
       </c>
       <c r="H215">
-        <v>23035.817898000001</v>
+        <v>23034.417898</v>
       </c>
       <c r="I215">
-        <v>22559.427686000006</v>
+        <v>22553.727686000006</v>
       </c>
       <c r="J215">
-        <v>22321.351776000007</v>
+        <v>22315.551776000008</v>
       </c>
       <c r="K215">
-        <v>22013.484935</v>
+        <v>22007.684935000001</v>
       </c>
       <c r="L215">
-        <v>21578.341694000002</v>
+        <v>21572.741694000004</v>
       </c>
       <c r="M215">
-        <v>22699.491729000001</v>
+        <v>22693.991729000001</v>
       </c>
       <c r="N215">
-        <v>24598.505870000005</v>
+        <v>24594.305870000004</v>
       </c>
       <c r="O215">
         <v>25856.377546</v>
@@ -20350,7 +20355,7 @@
         <v>26634.263659999997</v>
       </c>
       <c r="Q215">
-        <v>27415.200000000001</v>
+        <v>27413.200000000001</v>
       </c>
       <c r="R215">
         <v>27455.094885000002</v>
@@ -20386,7 +20391,7 @@
         <v>26968.799999999999</v>
       </c>
       <c r="AC215">
-        <v>26309.347705</v>
+        <v>26306.247705000002</v>
       </c>
     </row>
     <row r="216" spans="1:29" x14ac:dyDescent="0.2">
@@ -20519,34 +20524,34 @@
         <v>17719.2</v>
       </c>
       <c r="N217">
-        <v>18226.130827000005</v>
+        <v>18217.630827000005</v>
       </c>
       <c r="O217">
-        <v>18812.599999999999</v>
+        <v>18801.899999999998</v>
       </c>
       <c r="P217">
-        <v>19213.849295000004</v>
+        <v>19202.949295000002</v>
       </c>
       <c r="Q217">
-        <v>19320.724891999995</v>
+        <v>19310.524891999994</v>
       </c>
       <c r="R217">
-        <v>19507.794372</v>
+        <v>19496.894371999999</v>
       </c>
       <c r="S217">
-        <v>19685.546797999999</v>
+        <v>19675.046797999999</v>
       </c>
       <c r="T217">
-        <v>19668.389351999998</v>
+        <v>19658.189351999998</v>
       </c>
       <c r="U217">
-        <v>19223.898110000002</v>
+        <v>19213.49811</v>
       </c>
       <c r="V217">
-        <v>18914.599999999999</v>
+        <v>18909.199999999997</v>
       </c>
       <c r="W217">
-        <v>20830.339303999997</v>
+        <v>20828.439303999996</v>
       </c>
       <c r="X217">
         <v>22886.808981999999</v>
@@ -20596,52 +20601,52 @@
         <v>18234.7</v>
       </c>
       <c r="J218">
-        <v>17942.865448</v>
+        <v>17937.165448</v>
       </c>
       <c r="K218">
-        <v>17554.061348999996</v>
+        <v>17548.261348999997</v>
       </c>
       <c r="L218">
-        <v>16549.5</v>
+        <v>16410.099999999999</v>
       </c>
       <c r="M218">
-        <v>16132.730205</v>
+        <v>15878.630204999999</v>
       </c>
       <c r="N218">
-        <v>16435.591047000002</v>
+        <v>16184.891047000001</v>
       </c>
       <c r="O218">
-        <v>16631.581122999996</v>
+        <v>16381.981122999996</v>
       </c>
       <c r="P218">
-        <v>16487.258135999997</v>
+        <v>16239.058135999996</v>
       </c>
       <c r="Q218">
-        <v>16490.408357</v>
+        <v>16242.508357000001</v>
       </c>
       <c r="R218">
-        <v>16816.686812999997</v>
+        <v>16569.686812999997</v>
       </c>
       <c r="S218">
-        <v>17471.900000000001</v>
+        <v>17414.400000000001</v>
       </c>
       <c r="T218">
         <v>18040.687835999997</v>
       </c>
       <c r="U218">
-        <v>18068.64402</v>
+        <v>18064.944019999999</v>
       </c>
       <c r="V218">
-        <v>18026.280568000002</v>
+        <v>18019.880568</v>
       </c>
       <c r="W218">
-        <v>20503.892548</v>
+        <v>20498.292548000001</v>
       </c>
       <c r="X218">
-        <v>22897.823940000002</v>
+        <v>22892.323940000002</v>
       </c>
       <c r="Y218">
-        <v>23123.984236000004</v>
+        <v>23120.584236000002</v>
       </c>
       <c r="Z218">
         <v>23099.599999999999</v>
@@ -20768,22 +20773,22 @@
         <v>22441.770174000001</v>
       </c>
       <c r="H220">
-        <v>21886.819370999998</v>
+        <v>21426.919370999996</v>
       </c>
       <c r="I220">
-        <v>21445.921191999994</v>
+        <v>20955.021191999993</v>
       </c>
       <c r="J220">
-        <v>21208.384665000001</v>
+        <v>20716.384665000001</v>
       </c>
       <c r="K220">
-        <v>21031.720354000005</v>
+        <v>20540.820354000003</v>
       </c>
       <c r="L220">
-        <v>20794.470199000003</v>
+        <v>20554.170199000004</v>
       </c>
       <c r="M220">
-        <v>21941.360381999999</v>
+        <v>21754.260382</v>
       </c>
       <c r="N220">
         <v>23766.786736999999</v>
@@ -20854,25 +20859,25 @@
         <v>24433.704897999993</v>
       </c>
       <c r="G221">
-        <v>23128.987610000004</v>
+        <v>23127.187610000004</v>
       </c>
       <c r="H221">
-        <v>22372.100000000002</v>
+        <v>22366.400000000001</v>
       </c>
       <c r="I221">
-        <v>22007.405415000001</v>
+        <v>22001.805415000003</v>
       </c>
       <c r="J221">
-        <v>21742.7</v>
+        <v>21737.100000000002</v>
       </c>
       <c r="K221">
-        <v>21500.715771999996</v>
+        <v>21495.115771999997</v>
       </c>
       <c r="L221">
-        <v>21227.220432000002</v>
+        <v>21221.620432000003</v>
       </c>
       <c r="M221">
-        <v>22413.355871999996</v>
+        <v>22407.755871999998</v>
       </c>
       <c r="N221">
         <v>24291.039878</v>
@@ -21038,16 +21043,16 @@
         <v>20818.498724000001</v>
       </c>
       <c r="I223">
-        <v>20420.237848000004</v>
+        <v>20399.437848000005</v>
       </c>
       <c r="J223">
-        <v>20451.536118999997</v>
+        <v>20210.536118999997</v>
       </c>
       <c r="K223">
-        <v>20334.991181999998</v>
+        <v>20092.791181999997</v>
       </c>
       <c r="L223">
-        <v>19982.743093999998</v>
+        <v>19752.643093999999</v>
       </c>
       <c r="M223">
         <v>20745.436702999999</v>
@@ -21136,40 +21141,40 @@
         <v>19037.963226</v>
       </c>
       <c r="L224">
-        <v>18357.140256000002</v>
+        <v>18187.540256000004</v>
       </c>
       <c r="M224">
-        <v>18317.230774</v>
+        <v>18076.230774</v>
       </c>
       <c r="N224">
-        <v>19006.297906</v>
+        <v>18915.497906000001</v>
       </c>
       <c r="O224">
-        <v>19860.003002999998</v>
+        <v>19854.603002999997</v>
       </c>
       <c r="P224">
-        <v>21036.236402000002</v>
+        <v>21030.836402000001</v>
       </c>
       <c r="Q224">
-        <v>21835.225094000005</v>
+        <v>21829.925094000006</v>
       </c>
       <c r="R224">
-        <v>22044.7</v>
+        <v>22039.3</v>
       </c>
       <c r="S224">
-        <v>21900.180154000009</v>
+        <v>21894.780154000007</v>
       </c>
       <c r="T224">
-        <v>21754.966859999997</v>
+        <v>21749.566859999995</v>
       </c>
       <c r="U224">
-        <v>21746.511972</v>
+        <v>21741.211972000001</v>
       </c>
       <c r="V224">
-        <v>22086.574620000003</v>
+        <v>22081.274620000004</v>
       </c>
       <c r="W224">
-        <v>24378.400000000001</v>
+        <v>24373.100000000002</v>
       </c>
       <c r="X224">
         <v>25752.730189999998</v>
@@ -21216,31 +21221,31 @@
         <v>19186.406741000003</v>
       </c>
       <c r="I225">
-        <v>18834.2</v>
+        <v>18830.900000000001</v>
       </c>
       <c r="J225">
-        <v>18921.406751999999</v>
+        <v>18708.706751999998</v>
       </c>
       <c r="K225">
-        <v>18967.570833999998</v>
+        <v>18723.670833999997</v>
       </c>
       <c r="L225">
-        <v>19215.240439999998</v>
+        <v>18972.940439999998</v>
       </c>
       <c r="M225">
-        <v>20710.416733999999</v>
+        <v>20469.516733999997</v>
       </c>
       <c r="N225">
-        <v>22440.098296999997</v>
+        <v>22371.698296999995</v>
       </c>
       <c r="O225">
-        <v>23744.083461999999</v>
+        <v>23738.583461999999</v>
       </c>
       <c r="P225">
-        <v>24698.656520000004</v>
+        <v>24693.156520000004</v>
       </c>
       <c r="Q225">
-        <v>25343.682829999998</v>
+        <v>25339.982829999997</v>
       </c>
       <c r="R225">
         <v>25138.628148000003</v>
@@ -21299,34 +21304,34 @@
         <v>21945.086579999999</v>
       </c>
       <c r="G226">
-        <v>20793.720349999996</v>
+        <v>20791.720349999996</v>
       </c>
       <c r="H226">
-        <v>20128.300000000003</v>
+        <v>20122.500000000004</v>
       </c>
       <c r="I226">
-        <v>19692.094959999999</v>
+        <v>19686.294959999999</v>
       </c>
       <c r="J226">
-        <v>19566.171736</v>
+        <v>19560.471736</v>
       </c>
       <c r="K226">
-        <v>19589.983639000005</v>
+        <v>19584.283639000005</v>
       </c>
       <c r="L226">
-        <v>19664.952101000003</v>
+        <v>19659.152101000003</v>
       </c>
       <c r="M226">
-        <v>20904.473270000002</v>
+        <v>20898.873270000004</v>
       </c>
       <c r="N226">
-        <v>22829.815058</v>
+        <v>22824.315058</v>
       </c>
       <c r="O226">
-        <v>24223.355456000001</v>
+        <v>24217.855456000001</v>
       </c>
       <c r="P226">
-        <v>25005.425918000001</v>
+        <v>25003.125918000002</v>
       </c>
       <c r="Q226">
         <v>25660.913665000007</v>
@@ -21480,25 +21485,25 @@
         <v>20558.83251</v>
       </c>
       <c r="H228">
-        <v>19901.000000000004</v>
+        <v>19899.200000000004</v>
       </c>
       <c r="I228">
-        <v>19455.528844999997</v>
+        <v>19449.828844999996</v>
       </c>
       <c r="J228">
-        <v>19259.2</v>
+        <v>19253.400000000001</v>
       </c>
       <c r="K228">
-        <v>19352.219338000003</v>
+        <v>19346.519338000002</v>
       </c>
       <c r="L228">
-        <v>19544.535670000001</v>
+        <v>19538.935670000003</v>
       </c>
       <c r="M228">
-        <v>20872.430697</v>
+        <v>20866.830697000001</v>
       </c>
       <c r="N228">
-        <v>22821.186695999997</v>
+        <v>22819.386695999998</v>
       </c>
       <c r="O228">
         <v>24046.178664999996</v>
@@ -21655,28 +21660,28 @@
         <v>21721.8</v>
       </c>
       <c r="G230">
-        <v>20526.962355999996</v>
+        <v>20496.662355999997</v>
       </c>
       <c r="H230">
-        <v>20067.692005999997</v>
+        <v>19819.792005999996</v>
       </c>
       <c r="I230">
-        <v>19679.905181000002</v>
+        <v>19432.005181</v>
       </c>
       <c r="J230">
-        <v>19700.424641999998</v>
+        <v>19241.624641999999</v>
       </c>
       <c r="K230">
-        <v>19734.393972000002</v>
+        <v>19243.593972000002</v>
       </c>
       <c r="L230">
-        <v>19529.186497999999</v>
+        <v>19041.986497999998</v>
       </c>
       <c r="M230">
-        <v>20442.346013999995</v>
+        <v>20052.146013999994</v>
       </c>
       <c r="N230">
-        <v>22101.611772</v>
+        <v>21880.811772000001</v>
       </c>
       <c r="O230">
         <v>23146.453968000005</v>
@@ -21741,34 +21746,34 @@
         <v>1</v>
       </c>
       <c r="F231">
-        <v>21547.200000000001</v>
+        <v>21537.8</v>
       </c>
       <c r="G231">
-        <v>20558.554519000001</v>
+        <v>20267.154519</v>
       </c>
       <c r="H231">
-        <v>19962.500000000004</v>
+        <v>19472.700000000004</v>
       </c>
       <c r="I231">
-        <v>19542.798349000001</v>
+        <v>19055.798349000001</v>
       </c>
       <c r="J231">
-        <v>19410.656932000002</v>
+        <v>18927.556932000003</v>
       </c>
       <c r="K231">
-        <v>19261.709643999999</v>
+        <v>18779.609644</v>
       </c>
       <c r="L231">
-        <v>18560.396497999998</v>
+        <v>18081.196497999998</v>
       </c>
       <c r="M231">
-        <v>18488.573143999998</v>
+        <v>18011.473144</v>
       </c>
       <c r="N231">
-        <v>19255.282041999999</v>
+        <v>18845.582041999998</v>
       </c>
       <c r="O231">
-        <v>19965.900000000005</v>
+        <v>19829.000000000004</v>
       </c>
       <c r="P231">
         <v>20751.879299999997</v>
@@ -21830,25 +21835,25 @@
         <v>1</v>
       </c>
       <c r="F232">
-        <v>20725.714007999999</v>
+        <v>20528.614008</v>
       </c>
       <c r="G232">
-        <v>19614.799999999996</v>
+        <v>19372.999999999996</v>
       </c>
       <c r="H232">
-        <v>18976.244010999999</v>
+        <v>18734.644011</v>
       </c>
       <c r="I232">
-        <v>18681.514357000004</v>
+        <v>18441.414357000005</v>
       </c>
       <c r="J232">
-        <v>18604.718982000002</v>
+        <v>18364.218982000002</v>
       </c>
       <c r="K232">
-        <v>18858.900000000001</v>
+        <v>18620</v>
       </c>
       <c r="L232">
-        <v>19261.118336</v>
+        <v>19086.218335999998</v>
       </c>
       <c r="M232">
         <v>20543.994877000001</v>
@@ -21919,37 +21924,37 @@
         <v>1</v>
       </c>
       <c r="F233">
-        <v>21487.400000000005</v>
+        <v>21308.200000000004</v>
       </c>
       <c r="G233">
-        <v>20397.956808000003</v>
+        <v>20093.556808000001</v>
       </c>
       <c r="H233">
-        <v>19994.800000000003</v>
+        <v>19503.900000000001</v>
       </c>
       <c r="I233">
-        <v>19695.769787999998</v>
+        <v>19208.369787999996</v>
       </c>
       <c r="J233">
-        <v>19587.3</v>
+        <v>19102.3</v>
       </c>
       <c r="K233">
-        <v>19686.964360999995</v>
+        <v>19204.364360999996</v>
       </c>
       <c r="L233">
-        <v>20025.838899999999</v>
+        <v>19545.7389</v>
       </c>
       <c r="M233">
-        <v>21291.334613000003</v>
+        <v>20815.434613000001</v>
       </c>
       <c r="N233">
-        <v>23179.914804</v>
+        <v>22708.514803999999</v>
       </c>
       <c r="O233">
-        <v>24184.701678000001</v>
+        <v>23864.101678000003</v>
       </c>
       <c r="P233">
-        <v>24579.126056000001</v>
+        <v>24504.026056000002</v>
       </c>
       <c r="Q233">
         <v>24839.661844000002</v>
@@ -22020,16 +22025,16 @@
         <v>18981.099999999999</v>
       </c>
       <c r="J234">
-        <v>19035.097357000002</v>
+        <v>18961.197357000001</v>
       </c>
       <c r="K234">
-        <v>19390.900000000001</v>
+        <v>19154.5</v>
       </c>
       <c r="L234">
-        <v>19724.108263999999</v>
+        <v>19487.808263999999</v>
       </c>
       <c r="M234">
-        <v>20743.028339000004</v>
+        <v>20668.728339000005</v>
       </c>
       <c r="N234">
         <v>22531.948225999997</v>
@@ -22103,28 +22108,28 @@
         <v>20161.015389999997</v>
       </c>
       <c r="H235">
-        <v>19835.757271999995</v>
+        <v>19499.957271999996</v>
       </c>
       <c r="I235">
-        <v>19625.504815000004</v>
+        <v>19137.404815000005</v>
       </c>
       <c r="J235">
-        <v>19574.518685000003</v>
+        <v>19091.018685000003</v>
       </c>
       <c r="K235">
-        <v>19775.931600000004</v>
+        <v>19295.831600000005</v>
       </c>
       <c r="L235">
-        <v>20064.897389000002</v>
+        <v>19587.497389</v>
       </c>
       <c r="M235">
-        <v>21325.437402</v>
+        <v>20851.137402</v>
       </c>
       <c r="N235">
-        <v>23185.522944000004</v>
+        <v>22714.622944000002</v>
       </c>
       <c r="O235">
-        <v>23999.9</v>
+        <v>23914.400000000001</v>
       </c>
       <c r="P235">
         <v>24705.3</v>
@@ -22198,13 +22203,13 @@
         <v>18922.616292000002</v>
       </c>
       <c r="J236">
-        <v>18776.525067000002</v>
+        <v>18558.125067000001</v>
       </c>
       <c r="K236">
-        <v>18816</v>
+        <v>18579.2</v>
       </c>
       <c r="L236">
-        <v>19145.100000000002</v>
+        <v>18967.900000000001</v>
       </c>
       <c r="M236">
         <v>20114.199999999997</v>
@@ -22275,31 +22280,31 @@
         <v>1</v>
       </c>
       <c r="F237">
-        <v>20182.366119999999</v>
+        <v>20020.166119999998</v>
       </c>
       <c r="G237">
-        <v>19317.278367999999</v>
+        <v>18860.578367999999</v>
       </c>
       <c r="H237">
-        <v>18847.735751999997</v>
+        <v>18359.235751999997</v>
       </c>
       <c r="I237">
-        <v>18462.899999999998</v>
+        <v>17976.399999999998</v>
       </c>
       <c r="J237">
-        <v>18398.990499000003</v>
+        <v>17914.990499000003</v>
       </c>
       <c r="K237">
-        <v>18479.898995</v>
+        <v>17999.598995</v>
       </c>
       <c r="L237">
-        <v>18490.293339999993</v>
+        <v>18011.293339999993</v>
       </c>
       <c r="M237">
-        <v>19169.600000000002</v>
+        <v>18812.7</v>
       </c>
       <c r="N237">
-        <v>20648.213022000004</v>
+        <v>20640.313022000002</v>
       </c>
       <c r="O237">
         <v>21980.9</v>
@@ -22367,34 +22372,34 @@
         <v>19885.144264000002</v>
       </c>
       <c r="G238">
-        <v>18802.098450000005</v>
+        <v>18723.198450000004</v>
       </c>
       <c r="H238">
-        <v>18209.036602999997</v>
+        <v>17959.636602999995</v>
       </c>
       <c r="I238">
-        <v>18087.816465999997</v>
+        <v>17618.716465999998</v>
       </c>
       <c r="J238">
-        <v>17948.719202</v>
+        <v>17463.019201999999</v>
       </c>
       <c r="K238">
-        <v>18038.343273999999</v>
+        <v>17556.143273999998</v>
       </c>
       <c r="L238">
-        <v>17651.980201000002</v>
+        <v>17170.580201000001</v>
       </c>
       <c r="M238">
-        <v>17490.471796999998</v>
+        <v>17012.271796999998</v>
       </c>
       <c r="N238">
-        <v>18004.694816000003</v>
+        <v>17683.794816000001</v>
       </c>
       <c r="O238">
-        <v>18941.699999999997</v>
+        <v>18705.099999999999</v>
       </c>
       <c r="P238">
-        <v>19739.341032</v>
+        <v>19727.541032000001</v>
       </c>
       <c r="Q238">
         <v>20256.968689999994</v>
@@ -22459,34 +22464,34 @@
         <v>18039.265625000004</v>
       </c>
       <c r="H239">
-        <v>17332.802018000002</v>
+        <v>17326.602018000001</v>
       </c>
       <c r="I239">
-        <v>17328.299999999996</v>
+        <v>17090.199999999997</v>
       </c>
       <c r="J239">
-        <v>17269.569706000002</v>
+        <v>17031.869706000001</v>
       </c>
       <c r="K239">
-        <v>17307.867768000004</v>
+        <v>17238.567768000004</v>
       </c>
       <c r="L239">
-        <v>18020.747160000003</v>
+        <v>18015.947160000003</v>
       </c>
       <c r="M239">
-        <v>19516.330562000003</v>
+        <v>19511.130562000002</v>
       </c>
       <c r="N239">
-        <v>21453.109062</v>
+        <v>21448.009062000001</v>
       </c>
       <c r="O239">
-        <v>22641.799510000001</v>
+        <v>22638.199510000002</v>
       </c>
       <c r="P239">
         <v>23681.382692000007</v>
       </c>
       <c r="Q239">
-        <v>24162.494627</v>
+        <v>24122.494627</v>
       </c>
       <c r="R239">
         <v>23735.000000000004</v>
@@ -22501,7 +22506,7 @@
         <v>22891.599999999999</v>
       </c>
       <c r="V239">
-        <v>23420.799999999999</v>
+        <v>23419.5</v>
       </c>
       <c r="W239">
         <v>26175.840040000003</v>
@@ -22542,31 +22547,31 @@
         <v>1</v>
       </c>
       <c r="F240">
-        <v>20284.559299999997</v>
+        <v>20064.059299999997</v>
       </c>
       <c r="G240">
-        <v>19070.7</v>
+        <v>18822.2</v>
       </c>
       <c r="H240">
-        <v>18433.363734999999</v>
+        <v>18187.063735</v>
       </c>
       <c r="I240">
-        <v>18187.2</v>
+        <v>17941.900000000001</v>
       </c>
       <c r="J240">
-        <v>18222.283737999998</v>
+        <v>17977.683738</v>
       </c>
       <c r="K240">
-        <v>18598.300000000003</v>
+        <v>18305.900000000001</v>
       </c>
       <c r="L240">
-        <v>19341.834338999997</v>
+        <v>18856.434338999996</v>
       </c>
       <c r="M240">
-        <v>20566.560105999997</v>
+        <v>20086.660105999996</v>
       </c>
       <c r="N240">
-        <v>22255.217353</v>
+        <v>22020.217353</v>
       </c>
       <c r="O240">
         <v>23201.084940000004</v>
@@ -22587,10 +22592,10 @@
         <v>22889.646917999995</v>
       </c>
       <c r="U240">
-        <v>22678.882679999999</v>
+        <v>22677.58268</v>
       </c>
       <c r="V240">
-        <v>23290.567281999993</v>
+        <v>23289.267281999993</v>
       </c>
       <c r="W240">
         <v>26314.837806000007</v>
@@ -22631,31 +22636,31 @@
         <v>1</v>
       </c>
       <c r="F241">
-        <v>20433.616449999998</v>
+        <v>20153.416449999997</v>
       </c>
       <c r="G241">
-        <v>19416.610474000005</v>
+        <v>18925.710474000003</v>
       </c>
       <c r="H241">
-        <v>18779.334890000002</v>
+        <v>18290.534890000003</v>
       </c>
       <c r="I241">
-        <v>18489.908237</v>
+        <v>18004.708236999999</v>
       </c>
       <c r="J241">
-        <v>18437.414459</v>
+        <v>17955.014458999998</v>
       </c>
       <c r="K241">
-        <v>18703.289927000002</v>
+        <v>18223.089927000001</v>
       </c>
       <c r="L241">
-        <v>19321.651854</v>
+        <v>18845.951853999999</v>
       </c>
       <c r="M241">
-        <v>20619.942505999999</v>
+        <v>20147.742505999999</v>
       </c>
       <c r="N241">
-        <v>22360.876536</v>
+        <v>22034.976535999998</v>
       </c>
       <c r="O241">
         <v>23219.998598999999</v>
@@ -22723,22 +22728,22 @@
         <v>20422.074839999997</v>
       </c>
       <c r="G242">
-        <v>19291.167493999998</v>
+        <v>19189.367493999998</v>
       </c>
       <c r="H242">
-        <v>18778.672933000002</v>
+        <v>18539.872933000002</v>
       </c>
       <c r="I242">
-        <v>18553.181321</v>
+        <v>18332.281320999999</v>
       </c>
       <c r="J242">
-        <v>18413.021403000002</v>
+        <v>18230.321403000002</v>
       </c>
       <c r="K242">
-        <v>18834.732776000001</v>
+        <v>18597.232776000001</v>
       </c>
       <c r="L242">
-        <v>19257.057809999998</v>
+        <v>19082.45781</v>
       </c>
       <c r="M242">
         <v>20593.2</v>
@@ -22809,31 +22814,31 @@
         <v>1</v>
       </c>
       <c r="F243">
-        <v>20621.525635999998</v>
+        <v>20476.225635999999</v>
       </c>
       <c r="G243">
-        <v>19677.999999999996</v>
+        <v>19267.599999999995</v>
       </c>
       <c r="H243">
-        <v>19200.600000000002</v>
+        <v>18714.000000000004</v>
       </c>
       <c r="I243">
-        <v>18873.054440000004</v>
+        <v>18389.554440000004</v>
       </c>
       <c r="J243">
-        <v>18859.588562000001</v>
+        <v>18379.288562000002</v>
       </c>
       <c r="K243">
-        <v>19235.597819999995</v>
+        <v>18759.397819999995</v>
       </c>
       <c r="L243">
-        <v>19824.540575000003</v>
+        <v>19350.740575000003</v>
       </c>
       <c r="M243">
-        <v>21025.216529999998</v>
+        <v>20737.816529999996</v>
       </c>
       <c r="N243">
-        <v>22803.427945999996</v>
+        <v>22572.027945999995</v>
       </c>
       <c r="O243">
         <v>23761.584844000001</v>
@@ -22898,31 +22903,31 @@
         <v>1</v>
       </c>
       <c r="F244">
-        <v>20748.286361999999</v>
+        <v>20539.286361999999</v>
       </c>
       <c r="G244">
-        <v>19849.661899999999</v>
+        <v>19431.561900000001</v>
       </c>
       <c r="H244">
-        <v>19176.2</v>
+        <v>18689.600000000002</v>
       </c>
       <c r="I244">
-        <v>18785.730736000001</v>
+        <v>18300.630736000003</v>
       </c>
       <c r="J244">
-        <v>18794.834652000001</v>
+        <v>18314.734652000003</v>
       </c>
       <c r="K244">
-        <v>18906.144622</v>
+        <v>18428.844622000001</v>
       </c>
       <c r="L244">
-        <v>19040.370307999998</v>
+        <v>18563.870307999998</v>
       </c>
       <c r="M244">
-        <v>20015.987342</v>
+        <v>19543.787342</v>
       </c>
       <c r="N244">
-        <v>21722.137131999996</v>
+        <v>21467.037131999998</v>
       </c>
       <c r="O244">
         <v>22846.133389999999</v>
@@ -22943,10 +22948,10 @@
         <v>22483.021400000001</v>
       </c>
       <c r="U244">
-        <v>22176.142307999999</v>
+        <v>22115.442307999998</v>
       </c>
       <c r="V244">
-        <v>22987.096250000002</v>
+        <v>22799.596250000002</v>
       </c>
       <c r="W244">
         <v>25518.519723000001</v>
@@ -22987,34 +22992,34 @@
         <v>1</v>
       </c>
       <c r="F245">
-        <v>20613.925200999998</v>
+        <v>20448.725200999997</v>
       </c>
       <c r="G245">
-        <v>19670.687188</v>
+        <v>19179.887188000001</v>
       </c>
       <c r="H245">
-        <v>18899.278839999999</v>
+        <v>18413.578839999998</v>
       </c>
       <c r="I245">
-        <v>18492.623653999999</v>
+        <v>18010.323654</v>
       </c>
       <c r="J245">
-        <v>18373.000412999998</v>
+        <v>17894.000412999998</v>
       </c>
       <c r="K245">
-        <v>18429.941896</v>
+        <v>17951.841896000002</v>
       </c>
       <c r="L245">
-        <v>18044.278950000004</v>
+        <v>17566.178950000005</v>
       </c>
       <c r="M245">
-        <v>17837.599999999999</v>
+        <v>17430.5</v>
       </c>
       <c r="N245">
-        <v>18454.483609999999</v>
+        <v>18217.983609999999</v>
       </c>
       <c r="O245">
-        <v>19390.439634999999</v>
+        <v>19339.539634999997</v>
       </c>
       <c r="P245">
         <v>20338.224558999998</v>
@@ -23082,25 +23087,25 @@
         <v>18268.720089999995</v>
       </c>
       <c r="H246">
-        <v>17670.995006000001</v>
+        <v>17666.495006000001</v>
       </c>
       <c r="I246">
-        <v>17364.597700999995</v>
+        <v>17360.497700999997</v>
       </c>
       <c r="J246">
-        <v>17357.146296999999</v>
+        <v>17351.346297</v>
       </c>
       <c r="K246">
-        <v>17730.399999999998</v>
+        <v>17723.999999999996</v>
       </c>
       <c r="L246">
-        <v>18678.222668999999</v>
+        <v>18672.622669</v>
       </c>
       <c r="M246">
-        <v>20039.083576999998</v>
+        <v>20032.883576999997</v>
       </c>
       <c r="N246">
-        <v>22060.776824</v>
+        <v>22058.976824000001</v>
       </c>
       <c r="O246">
         <v>23238.141271999997</v>
@@ -23791,19 +23796,19 @@
         <v>20278.606669000001</v>
       </c>
       <c r="G254">
-        <v>19191.966394000003</v>
+        <v>19119.966394000003</v>
       </c>
       <c r="H254">
-        <v>18833.7</v>
+        <v>18596.400000000001</v>
       </c>
       <c r="I254">
-        <v>18541.584613000003</v>
+        <v>18304.984613000004</v>
       </c>
       <c r="J254">
-        <v>18552.879053999997</v>
+        <v>18317.279053999999</v>
       </c>
       <c r="K254">
-        <v>18795.506504999998</v>
+        <v>18787.706504999998</v>
       </c>
       <c r="L254">
         <v>19587.830632000001</v>
@@ -23972,22 +23977,22 @@
         <v>19297.100000000002</v>
       </c>
       <c r="H256">
-        <v>18646.848357999996</v>
+        <v>18641.148357999995</v>
       </c>
       <c r="I256">
-        <v>18404.998606000001</v>
+        <v>18399.298606</v>
       </c>
       <c r="J256">
-        <v>18432.762632000002</v>
+        <v>18427.062632000001</v>
       </c>
       <c r="K256">
-        <v>18785.555592000004</v>
+        <v>18779.955592000006</v>
       </c>
       <c r="L256">
-        <v>19616.595237999998</v>
+        <v>19610.995238</v>
       </c>
       <c r="M256">
-        <v>20795.051658999997</v>
+        <v>20789.451658999998</v>
       </c>
       <c r="N256">
         <v>22560.910475000004</v>
@@ -24061,31 +24066,31 @@
         <v>19164.599999999999</v>
       </c>
       <c r="H257">
-        <v>18424.908706000002</v>
+        <v>18423.508706000001</v>
       </c>
       <c r="I257">
-        <v>18024.300000000003</v>
+        <v>18018.600000000002</v>
       </c>
       <c r="J257">
-        <v>17872.800000000003</v>
+        <v>17867.100000000002</v>
       </c>
       <c r="K257">
-        <v>17995.400000000001</v>
+        <v>17989.7</v>
       </c>
       <c r="L257">
-        <v>17769.669330000001</v>
+        <v>17763.96933</v>
       </c>
       <c r="M257">
-        <v>17401.534005999998</v>
+        <v>17395.734005999999</v>
       </c>
       <c r="N257">
-        <v>18081.254277999997</v>
+        <v>18075.554277999996</v>
       </c>
       <c r="O257">
-        <v>19041.088684000002</v>
+        <v>19035.388684000001</v>
       </c>
       <c r="P257">
-        <v>19736.986262000002</v>
+        <v>19733.986262000002</v>
       </c>
       <c r="Q257">
         <v>20163.456443999999</v>
@@ -24150,25 +24155,25 @@
         <v>18294.501509999998</v>
       </c>
       <c r="H258">
-        <v>17676.5</v>
+        <v>17673.2</v>
       </c>
       <c r="I258">
-        <v>17544.937477999996</v>
+        <v>17539.437477999996</v>
       </c>
       <c r="J258">
-        <v>17410.768748000002</v>
+        <v>17405.268748000002</v>
       </c>
       <c r="K258">
-        <v>17739.699999999997</v>
+        <v>17734.199999999997</v>
       </c>
       <c r="L258">
-        <v>18090.104072000006</v>
+        <v>18084.604072000006</v>
       </c>
       <c r="M258">
-        <v>18913</v>
+        <v>18907.599999999999</v>
       </c>
       <c r="N258">
-        <v>20515.958167999997</v>
+        <v>20512.858167999999</v>
       </c>
       <c r="O258">
         <v>21951.705470000001</v>
@@ -24260,13 +24265,13 @@
         <v>17878.144362000003</v>
       </c>
       <c r="O259">
-        <v>18743.44613</v>
+        <v>18740.146130000001</v>
       </c>
       <c r="P259">
-        <v>19829.582465999996</v>
+        <v>19824.382465999995</v>
       </c>
       <c r="Q259">
-        <v>20429.006232999996</v>
+        <v>20424.306232999996</v>
       </c>
       <c r="R259">
         <v>20440.182428</v>
@@ -25625,7 +25630,7 @@
         <v>27951.200199999999</v>
       </c>
       <c r="Y274">
-        <v>27407.799897999997</v>
+        <v>27406.699897999999</v>
       </c>
       <c r="Z274">
         <v>26718.434987000001</v>
@@ -26025,16 +26030,16 @@
         <v>18757.009177</v>
       </c>
       <c r="J279">
-        <v>18726.762554000001</v>
+        <v>18721.462554000002</v>
       </c>
       <c r="K279">
-        <v>18980.481128000003</v>
+        <v>18975.481128000003</v>
       </c>
       <c r="L279">
-        <v>19646.541901000004</v>
+        <v>19641.441901000006</v>
       </c>
       <c r="M279">
-        <v>20591.887895999997</v>
+        <v>20586.987895999995</v>
       </c>
       <c r="N279">
         <v>22255.374846000006</v>
@@ -26844,7 +26849,7 @@
         <v>23197.100000000006</v>
       </c>
       <c r="P288">
-        <v>24182.317283999997</v>
+        <v>24180.917283999996</v>
       </c>
       <c r="Q288">
         <v>24761.713382000002</v>
@@ -26883,7 +26888,7 @@
         <v>24080.625851999997</v>
       </c>
       <c r="AC288">
-        <v>22352.352958000003</v>
+        <v>22287.352958000003</v>
       </c>
     </row>
     <row r="289" spans="1:29" x14ac:dyDescent="0.2">
@@ -26903,22 +26908,22 @@
         <v>1</v>
       </c>
       <c r="F289">
-        <v>20608.432044999998</v>
+        <v>20368.432044999998</v>
       </c>
       <c r="G289">
-        <v>19316.67439</v>
+        <v>19076.67439</v>
       </c>
       <c r="H289">
-        <v>18621.2</v>
+        <v>18381.2</v>
       </c>
       <c r="I289">
-        <v>18361.353076000003</v>
+        <v>18121.353076000003</v>
       </c>
       <c r="J289">
-        <v>18290.400000000001</v>
+        <v>18053.400000000001</v>
       </c>
       <c r="K289">
-        <v>18506.408735999998</v>
+        <v>18368.408735999998</v>
       </c>
       <c r="L289">
         <v>19246.189893999999</v>
@@ -27796,22 +27801,22 @@
         <v>20701.044936999999</v>
       </c>
       <c r="G299">
-        <v>19469.769533999999</v>
+        <v>19458.869533999998</v>
       </c>
       <c r="H299">
-        <v>18811.160236</v>
+        <v>18563.660236</v>
       </c>
       <c r="I299">
-        <v>18561.500496000004</v>
+        <v>18314.400496000006</v>
       </c>
       <c r="J299">
-        <v>18519.851825000002</v>
+        <v>18274.251825000003</v>
       </c>
       <c r="K299">
-        <v>18840.894282000005</v>
+        <v>18596.094282000005</v>
       </c>
       <c r="L299">
-        <v>19811.800282000004</v>
+        <v>19681.200282000005</v>
       </c>
       <c r="M299">
         <v>21133.351515000002</v>
@@ -27888,37 +27893,37 @@
         <v>19740.827233000004</v>
       </c>
       <c r="H300">
-        <v>18831.012467999997</v>
+        <v>18532.212467999998</v>
       </c>
       <c r="I300">
-        <v>18546.341267</v>
+        <v>17970.141266999999</v>
       </c>
       <c r="J300">
-        <v>18464.952924000001</v>
+        <v>17727.652924000002</v>
       </c>
       <c r="K300">
-        <v>18713.129377000001</v>
+        <v>17963.129377000001</v>
       </c>
       <c r="L300">
-        <v>19412.983960999998</v>
+        <v>18790.183960999999</v>
       </c>
       <c r="M300">
-        <v>20119.535359999998</v>
+        <v>19878.335359999997</v>
       </c>
       <c r="N300">
-        <v>21755.5</v>
+        <v>21695.8</v>
       </c>
       <c r="O300">
-        <v>23078.377504000004</v>
+        <v>22887.477504000002</v>
       </c>
       <c r="P300">
-        <v>23828.294657000002</v>
+        <v>23353.994657000003</v>
       </c>
       <c r="Q300">
-        <v>24143.843269000001</v>
+        <v>23671.443268999999</v>
       </c>
       <c r="R300">
-        <v>23417.668764000002</v>
+        <v>23249.168764000002</v>
       </c>
       <c r="S300">
         <v>22533.124267999996</v>
@@ -29404,31 +29409,31 @@
         <v>19487.100000000006</v>
       </c>
       <c r="I317">
-        <v>19184.375488000001</v>
+        <v>19183.275488000003</v>
       </c>
       <c r="J317">
-        <v>19080.558699000001</v>
+        <v>18975.058699000001</v>
       </c>
       <c r="K317">
-        <v>19482.455721999999</v>
+        <v>19242.755721999998</v>
       </c>
       <c r="L317">
-        <v>20526.355867999999</v>
+        <v>20287.355867999999</v>
       </c>
       <c r="M317">
-        <v>21820.109130999997</v>
+        <v>21581.909130999997</v>
       </c>
       <c r="N317">
-        <v>23544.252789999999</v>
+        <v>23307.252789999999</v>
       </c>
       <c r="O317">
-        <v>24722.7</v>
+        <v>24487.200000000001</v>
       </c>
       <c r="P317">
-        <v>25583.845534999997</v>
+        <v>25349.145534999996</v>
       </c>
       <c r="Q317">
-        <v>25803.553995000006</v>
+        <v>25791.253995000006</v>
       </c>
       <c r="R317">
         <v>25269.065991999996</v>
@@ -29487,31 +29492,31 @@
         <v>21401.200000000001</v>
       </c>
       <c r="G318">
-        <v>20007.122165000001</v>
+        <v>19712.122165000001</v>
       </c>
       <c r="H318">
-        <v>19423.373683000005</v>
+        <v>18931.273683000007</v>
       </c>
       <c r="I318">
-        <v>19203.308628000002</v>
+        <v>18716.008628000003</v>
       </c>
       <c r="J318">
-        <v>19178.849049999997</v>
+        <v>18695.449049999996</v>
       </c>
       <c r="K318">
-        <v>19469.713617999998</v>
+        <v>18989.413617999999</v>
       </c>
       <c r="L318">
-        <v>20700.842767999999</v>
+        <v>20223.342767999999</v>
       </c>
       <c r="M318">
-        <v>21769.704162000002</v>
+        <v>21342.504162000001</v>
       </c>
       <c r="N318">
-        <v>23524.924904000003</v>
+        <v>23521.024904000002</v>
       </c>
       <c r="O318">
-        <v>24760.273215999994</v>
+        <v>24739.773215999994</v>
       </c>
       <c r="P318">
         <v>25566.465685000003</v>
@@ -29579,25 +29584,25 @@
         <v>20120.091929999995</v>
       </c>
       <c r="H319">
-        <v>19430.8</v>
+        <v>19275</v>
       </c>
       <c r="I319">
-        <v>19075.781478000001</v>
+        <v>18583.181478000002</v>
       </c>
       <c r="J319">
-        <v>19057.000000000004</v>
+        <v>18570.200000000004</v>
       </c>
       <c r="K319">
-        <v>19439.740639999996</v>
+        <v>18959.140639999998</v>
       </c>
       <c r="L319">
-        <v>20471.655925999996</v>
+        <v>19991.255925999994</v>
       </c>
       <c r="M319">
-        <v>21669.406009000006</v>
+        <v>21236.106009000006</v>
       </c>
       <c r="N319">
-        <v>23345.779022999999</v>
+        <v>23146.579022999998</v>
       </c>
       <c r="O319">
         <v>24701.61332</v>
@@ -29665,25 +29670,25 @@
         <v>21345.391656999996</v>
       </c>
       <c r="G320">
-        <v>20378.271167999999</v>
+        <v>20116.871167999998</v>
       </c>
       <c r="H320">
-        <v>19741.717870000008</v>
+        <v>19418.917870000008</v>
       </c>
       <c r="I320">
-        <v>19560.796765999999</v>
+        <v>19095.296765999999</v>
       </c>
       <c r="J320">
-        <v>19614.746877999998</v>
+        <v>19129.846877999997</v>
       </c>
       <c r="K320">
-        <v>19940.550390000004</v>
+        <v>19531.450390000005</v>
       </c>
       <c r="L320">
-        <v>20962.676485</v>
+        <v>20528.976484999999</v>
       </c>
       <c r="M320">
-        <v>22221.9</v>
+        <v>21800.100000000002</v>
       </c>
       <c r="N320">
         <v>23490.344238000005</v>
@@ -29754,22 +29759,22 @@
         <v>21601.746488000001</v>
       </c>
       <c r="G321">
-        <v>20241.600000000002</v>
+        <v>20133.000000000004</v>
       </c>
       <c r="H321">
-        <v>19503.242473000002</v>
+        <v>19198.442473000003</v>
       </c>
       <c r="I321">
-        <v>19148.729589999999</v>
+        <v>18668.329589999998</v>
       </c>
       <c r="J321">
-        <v>19057.453988000001</v>
+        <v>18577.353988000003</v>
       </c>
       <c r="K321">
-        <v>19364.641198000001</v>
+        <v>18888.441198</v>
       </c>
       <c r="L321">
-        <v>19877.5</v>
+        <v>19802.900000000001</v>
       </c>
       <c r="M321">
         <v>20731.8</v>
@@ -30867,7 +30872,7 @@
         <v>23881.033749999999</v>
       </c>
       <c r="V333">
-        <v>24116.172771999998</v>
+        <v>24114.972771999997</v>
       </c>
       <c r="W333">
         <v>25429.972733999999</v>
@@ -30911,28 +30916,28 @@
         <v>21546.719098000001</v>
       </c>
       <c r="G334">
-        <v>20372.817254000005</v>
+        <v>20296.117254000004</v>
       </c>
       <c r="H334">
-        <v>19854.234905000001</v>
+        <v>19614.934905000002</v>
       </c>
       <c r="I334">
-        <v>19487.723728000001</v>
+        <v>19249.223728000001</v>
       </c>
       <c r="J334">
-        <v>19440.300000000003</v>
+        <v>19202.700000000004</v>
       </c>
       <c r="K334">
-        <v>19789.897553000003</v>
+        <v>19552.697553000002</v>
       </c>
       <c r="L334">
-        <v>20656.351096000002</v>
+        <v>20420.451096000001</v>
       </c>
       <c r="M334">
-        <v>22043.998817999996</v>
+        <v>21808.498817999996</v>
       </c>
       <c r="N334">
-        <v>23495.200000000001</v>
+        <v>23436.600000000002</v>
       </c>
       <c r="O334">
         <v>24564.979828</v>
@@ -31095,22 +31100,22 @@
         <v>18986.276893999999</v>
       </c>
       <c r="I336">
-        <v>18620.397841999998</v>
+        <v>18584.097841999999</v>
       </c>
       <c r="J336">
-        <v>18623.404297000001</v>
+        <v>18386.004296999999</v>
       </c>
       <c r="K336">
-        <v>18753.338326000001</v>
+        <v>18517.138326</v>
       </c>
       <c r="L336">
-        <v>18538.990830000002</v>
+        <v>18303.190830000003</v>
       </c>
       <c r="M336">
-        <v>18464.532953999998</v>
+        <v>18230.432954</v>
       </c>
       <c r="N336">
-        <v>19172.046146999997</v>
+        <v>19168.146146999996</v>
       </c>
       <c r="O336">
         <v>20405.947351999999</v>
@@ -31511,7 +31516,7 @@
         <v>25144.65654</v>
       </c>
       <c r="AC340">
-        <v>23412.327448000007</v>
+        <v>23410.427448000006</v>
       </c>
     </row>
     <row r="341" spans="1:29" x14ac:dyDescent="0.2">
@@ -31531,28 +31536,28 @@
         <v>1</v>
       </c>
       <c r="F341">
-        <v>21359.143214</v>
+        <v>21291.643214</v>
       </c>
       <c r="G341">
-        <v>19941.049380000004</v>
+        <v>19694.449380000005</v>
       </c>
       <c r="H341">
-        <v>19220.399999999994</v>
+        <v>18799.499999999993</v>
       </c>
       <c r="I341">
-        <v>18870.703200000004</v>
+        <v>18396.303200000002</v>
       </c>
       <c r="J341">
-        <v>18813.170655999998</v>
+        <v>18340.370655999999</v>
       </c>
       <c r="K341">
-        <v>19211.700000000004</v>
+        <v>18785.100000000006</v>
       </c>
       <c r="L341">
-        <v>20008.555559999997</v>
+        <v>19774.055559999997</v>
       </c>
       <c r="M341">
-        <v>21315.183456999999</v>
+        <v>21295.883457</v>
       </c>
       <c r="N341">
         <v>23251.980340999999</v>
@@ -31620,19 +31625,19 @@
         <v>1</v>
       </c>
       <c r="F342">
-        <v>21643.395784</v>
+        <v>21598.195784</v>
       </c>
       <c r="G342">
-        <v>20161.754128000004</v>
+        <v>19703.254128000004</v>
       </c>
       <c r="H342">
-        <v>19434.318981999997</v>
+        <v>18964.418981999996</v>
       </c>
       <c r="I342">
-        <v>19166.754945999997</v>
+        <v>18754.654945999999</v>
       </c>
       <c r="J342">
-        <v>19069.979442</v>
+        <v>19062.179442000001</v>
       </c>
       <c r="K342">
         <v>19336.289042999993</v>
@@ -31686,10 +31691,10 @@
         <v>25734.011112000004</v>
       </c>
       <c r="AB342">
-        <v>24924.44814</v>
+        <v>24752.348140000002</v>
       </c>
       <c r="AC342">
-        <v>24008.248310000003</v>
+        <v>23533.448310000003</v>
       </c>
     </row>
     <row r="343" spans="1:29" x14ac:dyDescent="0.2">
@@ -31709,19 +31714,19 @@
         <v>1</v>
       </c>
       <c r="F343">
-        <v>21732.665329000007</v>
+        <v>20886.565329000008</v>
       </c>
       <c r="G343">
-        <v>20324.981217999997</v>
+        <v>19360.181217999998</v>
       </c>
       <c r="H343">
-        <v>19529.723142999999</v>
+        <v>18580.723142999999</v>
       </c>
       <c r="I343">
-        <v>18969.687236000002</v>
+        <v>18025.987236000001</v>
       </c>
       <c r="J343">
-        <v>18812.800000000003</v>
+        <v>18104.200000000004</v>
       </c>
       <c r="K343">
         <v>18902.194630999998</v>
@@ -31730,16 +31735,16 @@
         <v>18621.065176</v>
       </c>
       <c r="M343">
-        <v>18490.982674999996</v>
+        <v>18488.282674999995</v>
       </c>
       <c r="N343">
-        <v>19489.607222999999</v>
+        <v>19483.907222999998</v>
       </c>
       <c r="O343">
-        <v>20614.799999999996</v>
+        <v>20609.199999999997</v>
       </c>
       <c r="P343">
-        <v>21534.765154999997</v>
+        <v>21531.565154999997</v>
       </c>
       <c r="Q343">
         <v>22099.047613999999</v>
@@ -31775,10 +31780,10 @@
         <v>24819.858894999998</v>
       </c>
       <c r="AB343">
-        <v>24132.424731000003</v>
+        <v>23999.124731000004</v>
       </c>
       <c r="AC343">
-        <v>22742.158348999998</v>
+        <v>22612.658348999998</v>
       </c>
     </row>
     <row r="344" spans="1:29" x14ac:dyDescent="0.2">
@@ -31867,7 +31872,7 @@
         <v>25331.037700000001</v>
       </c>
       <c r="AC344">
-        <v>23531.015008999995</v>
+        <v>23489.915008999997</v>
       </c>
     </row>
     <row r="345" spans="1:29" x14ac:dyDescent="0.2">
@@ -31887,31 +31892,31 @@
         <v>1</v>
       </c>
       <c r="F345">
-        <v>21357.980890000006</v>
+        <v>20908.980890000006</v>
       </c>
       <c r="G345">
-        <v>19951.034765</v>
+        <v>19461.434765000002</v>
       </c>
       <c r="H345">
-        <v>19343.8</v>
+        <v>18613.599999999999</v>
       </c>
       <c r="I345">
-        <v>19067.585210999994</v>
+        <v>18345.385210999993</v>
       </c>
       <c r="J345">
-        <v>19051.000000000004</v>
+        <v>18335.000000000004</v>
       </c>
       <c r="K345">
-        <v>19364.200983000002</v>
+        <v>18656.800983000001</v>
       </c>
       <c r="L345">
-        <v>20056.210019000002</v>
+        <v>19416.410019000003</v>
       </c>
       <c r="M345">
-        <v>21529.051767000004</v>
+        <v>21062.951767000006</v>
       </c>
       <c r="N345">
-        <v>23478.477326</v>
+        <v>23335.277325999999</v>
       </c>
       <c r="O345">
         <v>24884.168013999995</v>
@@ -31976,28 +31981,28 @@
         <v>1</v>
       </c>
       <c r="F346">
-        <v>21516.986664000007</v>
+        <v>21376.386664000009</v>
       </c>
       <c r="G346">
-        <v>20032.122773999996</v>
+        <v>19793.222773999994</v>
       </c>
       <c r="H346">
-        <v>19304.055142999998</v>
+        <v>19064.855142999997</v>
       </c>
       <c r="I346">
-        <v>19057.5</v>
+        <v>18819.599999999999</v>
       </c>
       <c r="J346">
-        <v>18988.2</v>
+        <v>18751.2</v>
       </c>
       <c r="K346">
-        <v>19301.816432</v>
+        <v>19066.416431999998</v>
       </c>
       <c r="L346">
-        <v>19966.199999999997</v>
+        <v>19730.499999999996</v>
       </c>
       <c r="M346">
-        <v>21387.247011999996</v>
+        <v>21383.447011999997</v>
       </c>
       <c r="N346">
         <v>23474.807188000006</v>
@@ -32243,25 +32248,25 @@
         <v>1</v>
       </c>
       <c r="F349">
-        <v>21948.380969999995</v>
+        <v>21710.780969999996</v>
       </c>
       <c r="G349">
-        <v>20746.296027999997</v>
+        <v>20261.596027999996</v>
       </c>
       <c r="H349">
-        <v>19942.066636</v>
+        <v>19460.466636000001</v>
       </c>
       <c r="I349">
-        <v>19638.728597999998</v>
+        <v>19160.428597999999</v>
       </c>
       <c r="J349">
-        <v>19570.791531999999</v>
+        <v>19095.491532</v>
       </c>
       <c r="K349">
-        <v>19744.496165</v>
+        <v>19330.396165000002</v>
       </c>
       <c r="L349">
-        <v>19563.966138</v>
+        <v>19512.766137999999</v>
       </c>
       <c r="M349">
         <v>20602.852910000001</v>
@@ -32332,28 +32337,28 @@
         <v>1</v>
       </c>
       <c r="F350">
-        <v>21867.402133000003</v>
+        <v>21710.002133000002</v>
       </c>
       <c r="G350">
-        <v>20783.796987000002</v>
+        <v>20364.096987000001</v>
       </c>
       <c r="H350">
-        <v>20291.938515999998</v>
+        <v>19586.638515999999</v>
       </c>
       <c r="I350">
-        <v>19854.218601999997</v>
+        <v>19129.418601999998</v>
       </c>
       <c r="J350">
-        <v>19687.109953999996</v>
+        <v>18970.709953999994</v>
       </c>
       <c r="K350">
-        <v>19693.164616000002</v>
+        <v>18981.764616</v>
       </c>
       <c r="L350">
-        <v>19219.901106000001</v>
+        <v>18514.401106000001</v>
       </c>
       <c r="M350">
-        <v>18668.281689999996</v>
+        <v>18500.281689999996</v>
       </c>
       <c r="N350">
         <v>19642.810383</v>
@@ -32421,25 +32426,25 @@
         <v>1</v>
       </c>
       <c r="F351">
-        <v>21071.297236000002</v>
+        <v>20909.797236000002</v>
       </c>
       <c r="G351">
-        <v>19823.504894000002</v>
+        <v>19457.404894000003</v>
       </c>
       <c r="H351">
-        <v>19505.7</v>
+        <v>18832.100000000002</v>
       </c>
       <c r="I351">
-        <v>19299.132722999999</v>
+        <v>18579.332723</v>
       </c>
       <c r="J351">
-        <v>19235.143475999997</v>
+        <v>18521.743475999996</v>
       </c>
       <c r="K351">
-        <v>19557.5</v>
+        <v>18898.5</v>
       </c>
       <c r="L351">
-        <v>19950.800000000003</v>
+        <v>19628.100000000002</v>
       </c>
       <c r="M351">
         <v>21170.436815999998</v>
@@ -32510,25 +32515,25 @@
         <v>1</v>
       </c>
       <c r="F352">
-        <v>21935.307591999997</v>
+        <v>21748.007591999998</v>
       </c>
       <c r="G352">
-        <v>20890.077141999998</v>
+        <v>20396.277141999999</v>
       </c>
       <c r="H352">
-        <v>20216.300000000003</v>
+        <v>19726.100000000002</v>
       </c>
       <c r="I352">
-        <v>19920.291076000001</v>
+        <v>19433.591076000001</v>
       </c>
       <c r="J352">
-        <v>19895.983007000003</v>
+        <v>19413.083007000001</v>
       </c>
       <c r="K352">
-        <v>20135.753281999998</v>
+        <v>19654.153281999999</v>
       </c>
       <c r="L352">
-        <v>20618.850099000007</v>
+        <v>20139.850099000007</v>
       </c>
       <c r="M352">
         <v>22041.382964</v>
@@ -32599,31 +32604,31 @@
         <v>1</v>
       </c>
       <c r="F353">
-        <v>21749.268472000003</v>
+        <v>21748.268472000003</v>
       </c>
       <c r="G353">
-        <v>20468.872192999999</v>
+        <v>20329.772193000001</v>
       </c>
       <c r="H353">
-        <v>19928.035027999998</v>
+        <v>19679.235027999999</v>
       </c>
       <c r="I353">
-        <v>19674.365084000001</v>
+        <v>19384.265084000002</v>
       </c>
       <c r="J353">
-        <v>19740.842504000004</v>
+        <v>19253.042504000005</v>
       </c>
       <c r="K353">
-        <v>20041.084782000002</v>
+        <v>19556.584782000002</v>
       </c>
       <c r="L353">
-        <v>20501.689530999996</v>
+        <v>20019.089530999998</v>
       </c>
       <c r="M353">
-        <v>21828.196261000005</v>
+        <v>21552.396261000005</v>
       </c>
       <c r="N353">
-        <v>23725.499999999996</v>
+        <v>23522.199999999997</v>
       </c>
       <c r="O353">
         <v>24896.899999999994</v>
@@ -32632,13 +32637,13 @@
         <v>25636.607341999999</v>
       </c>
       <c r="Q353">
-        <v>25911.094448999997</v>
+        <v>25909.694448999995</v>
       </c>
       <c r="R353">
         <v>25522.317317000001</v>
       </c>
       <c r="S353">
-        <v>25122.899999999994</v>
+        <v>25120.599999999995</v>
       </c>
       <c r="T353">
         <v>24989.090730000004</v>
@@ -32668,7 +32673,7 @@
         <v>25652.538667999997</v>
       </c>
       <c r="AC353">
-        <v>23930.732418</v>
+        <v>23832.432418</v>
       </c>
     </row>
     <row r="354" spans="1:29" x14ac:dyDescent="0.2">
@@ -32688,34 +32693,34 @@
         <v>1</v>
       </c>
       <c r="F354">
-        <v>21930.87473</v>
+        <v>21669.274730000001</v>
       </c>
       <c r="G354">
-        <v>20774.410960000001</v>
+        <v>20281.01096</v>
       </c>
       <c r="H354">
-        <v>20206.970926999998</v>
+        <v>19716.970926999998</v>
       </c>
       <c r="I354">
-        <v>19805.872399</v>
+        <v>19319.072399000001</v>
       </c>
       <c r="J354">
-        <v>19678.715916000005</v>
+        <v>19194.915916000005</v>
       </c>
       <c r="K354">
-        <v>20018.985436000003</v>
+        <v>19541.585436000001</v>
       </c>
       <c r="L354">
-        <v>20392.338792000002</v>
+        <v>19914.238792000004</v>
       </c>
       <c r="M354">
-        <v>21957.661927000001</v>
+        <v>21483.961927</v>
       </c>
       <c r="N354">
-        <v>24021.67914</v>
+        <v>23551.379140000001</v>
       </c>
       <c r="O354">
-        <v>24892.000614000004</v>
+        <v>24817.800614000003</v>
       </c>
       <c r="P354">
         <v>25722.611890999997</v>
@@ -32777,31 +32782,31 @@
         <v>1</v>
       </c>
       <c r="F355">
-        <v>22126.070137999999</v>
+        <v>21982.070137999999</v>
       </c>
       <c r="G355">
-        <v>21117.858374000003</v>
+        <v>20617.858374000003</v>
       </c>
       <c r="H355">
-        <v>20467.790458000003</v>
+        <v>19967.790458000003</v>
       </c>
       <c r="I355">
-        <v>20088.534207000001</v>
+        <v>19588.534207000001</v>
       </c>
       <c r="J355">
-        <v>20113.311711999999</v>
+        <v>19613.311711999999</v>
       </c>
       <c r="K355">
-        <v>20293.533750000002</v>
+        <v>19793.533750000002</v>
       </c>
       <c r="L355">
-        <v>20737.21776</v>
+        <v>20237.21776</v>
       </c>
       <c r="M355">
-        <v>22151.699999999997</v>
+        <v>21655.699999999997</v>
       </c>
       <c r="N355">
-        <v>24115.200000000004</v>
+        <v>23903.200000000004</v>
       </c>
       <c r="O355">
         <v>25007.522388000001</v>
@@ -32869,28 +32874,28 @@
         <v>22130.633583999999</v>
       </c>
       <c r="G356">
-        <v>20766.190933000002</v>
+        <v>20536.690933000002</v>
       </c>
       <c r="H356">
-        <v>20149.8</v>
+        <v>19666.3</v>
       </c>
       <c r="I356">
-        <v>19831.790146999996</v>
+        <v>19349.490146999997</v>
       </c>
       <c r="J356">
-        <v>19807.601323999999</v>
+        <v>19330.301324</v>
       </c>
       <c r="K356">
-        <v>19979.890770000002</v>
+        <v>19505.090770000003</v>
       </c>
       <c r="L356">
-        <v>20099.433657999998</v>
+        <v>19625.833658</v>
       </c>
       <c r="M356">
-        <v>21119.000000000007</v>
+        <v>20871.000000000007</v>
       </c>
       <c r="N356">
-        <v>22950.447208999998</v>
+        <v>22946.547208999997</v>
       </c>
       <c r="O356">
         <v>24483.440060000001</v>
@@ -32958,28 +32963,28 @@
         <v>21574.692451000006</v>
       </c>
       <c r="G357">
-        <v>20202.747973000001</v>
+        <v>20114.647973000003</v>
       </c>
       <c r="H357">
-        <v>19801.809751000001</v>
+        <v>19341.409750999999</v>
       </c>
       <c r="I357">
-        <v>19408.061539999999</v>
+        <v>18922.361539999998</v>
       </c>
       <c r="J357">
-        <v>19318.309708999994</v>
+        <v>18837.709708999995</v>
       </c>
       <c r="K357">
-        <v>19371.961374000002</v>
+        <v>18894.261374000002</v>
       </c>
       <c r="L357">
-        <v>18886.409356</v>
+        <v>18409.609356000001</v>
       </c>
       <c r="M357">
-        <v>19371.5</v>
+        <v>18899</v>
       </c>
       <c r="N357">
-        <v>20449.925750000002</v>
+        <v>20121.125750000003</v>
       </c>
       <c r="O357">
         <v>21325.625587999999</v>
@@ -33044,34 +33049,34 @@
         <v>6</v>
       </c>
       <c r="F358">
-        <v>21435.292604000002</v>
+        <v>21121.892604000001</v>
       </c>
       <c r="G358">
-        <v>20253.557645000001</v>
+        <v>19763.657644999999</v>
       </c>
       <c r="H358">
-        <v>19574.232111999998</v>
+        <v>19086.932111999999</v>
       </c>
       <c r="I358">
-        <v>19257.5</v>
+        <v>18774.900000000001</v>
       </c>
       <c r="J358">
-        <v>19222.691744000003</v>
+        <v>18741.991744000003</v>
       </c>
       <c r="K358">
-        <v>19541.220072000004</v>
+        <v>19066.620072000005</v>
       </c>
       <c r="L358">
-        <v>19924.670205999995</v>
+        <v>19451.170205999995</v>
       </c>
       <c r="M358">
-        <v>21255.788994000002</v>
+        <v>21005.388994000001</v>
       </c>
       <c r="N358">
-        <v>23401.078814</v>
+        <v>23166.878814</v>
       </c>
       <c r="O358">
-        <v>25045.7</v>
+        <v>25011.3</v>
       </c>
       <c r="P358">
         <v>25484.906292</v>
@@ -33133,28 +33138,28 @@
         <v>5</v>
       </c>
       <c r="F359">
-        <v>21959.039694999999</v>
+        <v>21900.639694999998</v>
       </c>
       <c r="G359">
-        <v>20862.748385000006</v>
+        <v>20503.848385000005</v>
       </c>
       <c r="H359">
-        <v>20214.799999999996</v>
+        <v>19732.699999999997</v>
       </c>
       <c r="I359">
-        <v>19819.275234000001</v>
+        <v>19339.175234000002</v>
       </c>
       <c r="J359">
-        <v>19733.016308000002</v>
+        <v>19257.616308000001</v>
       </c>
       <c r="K359">
-        <v>19812.600000000002</v>
+        <v>19338.800000000003</v>
       </c>
       <c r="L359">
-        <v>19456.791474999998</v>
+        <v>18985.291474999998</v>
       </c>
       <c r="M359">
-        <v>19739.071580000003</v>
+        <v>19558.871580000003</v>
       </c>
       <c r="N359">
         <v>21064.388582</v>
@@ -33222,34 +33227,34 @@
         <v>1</v>
       </c>
       <c r="F360">
-        <v>21834.068486</v>
+        <v>21692.568486</v>
       </c>
       <c r="G360">
-        <v>20648.563966000005</v>
+        <v>20240.863966000004</v>
       </c>
       <c r="H360">
-        <v>20023.012493999999</v>
+        <v>19533.712493999999</v>
       </c>
       <c r="I360">
-        <v>19626.625899999999</v>
+        <v>19138.925899999998</v>
       </c>
       <c r="J360">
-        <v>19603.503124000003</v>
+        <v>19119.703124000003</v>
       </c>
       <c r="K360">
-        <v>19791.928111000001</v>
+        <v>19312.028111</v>
       </c>
       <c r="L360">
-        <v>20194.282821999994</v>
+        <v>19716.682821999995</v>
       </c>
       <c r="M360">
-        <v>21566.600000000006</v>
+        <v>21140.400000000005</v>
       </c>
       <c r="N360">
-        <v>23648.982509999998</v>
+        <v>23412.182509999999</v>
       </c>
       <c r="O360">
-        <v>24700.602000999999</v>
+        <v>24582.602000999999</v>
       </c>
       <c r="P360">
         <v>25248.645683999996</v>
@@ -33314,31 +33319,31 @@
         <v>21900.495325000004</v>
       </c>
       <c r="G361">
-        <v>20502.869308000001</v>
+        <v>20386.369308000001</v>
       </c>
       <c r="H361">
-        <v>20004.3</v>
+        <v>19548.899999999998</v>
       </c>
       <c r="I361">
-        <v>19576.400000000001</v>
+        <v>19092.800000000003</v>
       </c>
       <c r="J361">
-        <v>19344.644048000002</v>
+        <v>18953.844048000003</v>
       </c>
       <c r="K361">
-        <v>19560.440458999998</v>
+        <v>19080.440458999998</v>
       </c>
       <c r="L361">
-        <v>19786.399999999994</v>
+        <v>19309.099999999995</v>
       </c>
       <c r="M361">
-        <v>21070.2</v>
+        <v>20597.7</v>
       </c>
       <c r="N361">
-        <v>23124.097498999996</v>
+        <v>22778.897498999995</v>
       </c>
       <c r="O361">
-        <v>24477.756938999999</v>
+        <v>24250.756938999999</v>
       </c>
       <c r="P361">
         <v>25203.268624999997</v>
@@ -33403,25 +33408,25 @@
         <v>21661.176451000003</v>
       </c>
       <c r="G362">
-        <v>20199.922552</v>
+        <v>20103.722551999999</v>
       </c>
       <c r="H362">
-        <v>19728.190399999999</v>
+        <v>19241.990399999999</v>
       </c>
       <c r="I362">
-        <v>19348.994861999996</v>
+        <v>18867.094861999994</v>
       </c>
       <c r="J362">
-        <v>19242.000000000004</v>
+        <v>18764.100000000002</v>
       </c>
       <c r="K362">
-        <v>19296.231805000007</v>
+        <v>18820.831805000005</v>
       </c>
       <c r="L362">
-        <v>19206.971891000001</v>
+        <v>18734.571891</v>
       </c>
       <c r="M362">
-        <v>20065.711414000001</v>
+        <v>19948.211414000001</v>
       </c>
       <c r="N362">
         <v>21874.818157999998</v>
@@ -33492,28 +33497,28 @@
         <v>21490.097066000002</v>
       </c>
       <c r="G363">
-        <v>20308.104679999997</v>
+        <v>19962.804679999997</v>
       </c>
       <c r="H363">
-        <v>19437.833641000005</v>
+        <v>18954.433641000003</v>
       </c>
       <c r="I363">
-        <v>18965.278341999994</v>
+        <v>18484.078341999993</v>
       </c>
       <c r="J363">
-        <v>18880.989730000001</v>
+        <v>18405.78973</v>
       </c>
       <c r="K363">
-        <v>18959.670586999997</v>
+        <v>18485.370586999998</v>
       </c>
       <c r="L363">
-        <v>18640.866185999999</v>
+        <v>18167.866185999999</v>
       </c>
       <c r="M363">
-        <v>19416.611660000002</v>
+        <v>19150.211660000001</v>
       </c>
       <c r="N363">
-        <v>20848.792566</v>
+        <v>20786.392565999999</v>
       </c>
       <c r="O363">
         <v>22238</v>
@@ -33581,31 +33586,31 @@
         <v>20904.600296000004</v>
       </c>
       <c r="G364">
-        <v>19392.097801</v>
+        <v>19243.397800999999</v>
       </c>
       <c r="H364">
-        <v>18779.086544999998</v>
+        <v>18351.686544999997</v>
       </c>
       <c r="I364">
-        <v>18350.660989</v>
+        <v>17865.360989000001</v>
       </c>
       <c r="J364">
-        <v>18191.023047999999</v>
+        <v>17708.223048</v>
       </c>
       <c r="K364">
-        <v>18167.748242000001</v>
+        <v>17687.348242</v>
       </c>
       <c r="L364">
-        <v>17590.291140000001</v>
+        <v>17111.191140000003</v>
       </c>
       <c r="M364">
-        <v>17706.599999999999</v>
+        <v>17390.199999999997</v>
       </c>
       <c r="N364">
-        <v>18802.061901999998</v>
+        <v>18564.661901999996</v>
       </c>
       <c r="O364">
-        <v>19906.568950000001</v>
+        <v>19866.568950000001</v>
       </c>
       <c r="P364">
         <v>20724.857549999997</v>
@@ -33673,25 +33678,25 @@
         <v>18832.965042</v>
       </c>
       <c r="H365">
-        <v>18000.455579999998</v>
+        <v>17837.655579999999</v>
       </c>
       <c r="I365">
-        <v>17619.620906</v>
+        <v>17204.420905999999</v>
       </c>
       <c r="J365">
-        <v>17584.920217999999</v>
+        <v>17102.420217999999</v>
       </c>
       <c r="K365">
-        <v>17548.620297999998</v>
+        <v>17067.220297999997</v>
       </c>
       <c r="L365">
-        <v>16874.193538</v>
+        <v>16395.093538000001</v>
       </c>
       <c r="M365">
-        <v>17408.347301999998</v>
+        <v>16934.447301999997</v>
       </c>
       <c r="N365">
-        <v>18327.281364000002</v>
+        <v>18147.381364000001</v>
       </c>
       <c r="O365">
         <v>19380.760268000005</v>
